--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6821AD-F7DA-48C8-8C50-57A69DB75B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69138783-57DC-4855-8AD9-A80DB352A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7944" yWindow="420" windowWidth="10644" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,339 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="607">
-  <si>
-    <t>embrace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embody</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embryo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elicit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>elsewhere</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>though</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thoughtful</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>threat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>threnten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uphold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ventilate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>venture</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thorough</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thought</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>up-to-date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>widespread</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>win</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdraw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>witness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inaugrate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>incentive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>incidence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inceident</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>incidentally</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>incline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>academic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>academy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>accelerate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acceptance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>access</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>accessory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beginning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>behalf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>behave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>behavior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>belief</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>believe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lelong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>leneficial</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>benefit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>benevolent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>benign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>challenge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>charceter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>charcacterise/ize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>characteristic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>definte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>definite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deinition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delicate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fiction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>field</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fierce</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>figure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>finance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>financeal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>finding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dinite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>firm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>first</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>globe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="524">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5318,8 +4986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C362" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5331,2598 +4999,2346 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="90" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    <row r="91" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D91" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D92" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
-        <v>492</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="2" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
-        <v>227</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="2" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="2" t="s">
-        <v>229</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="2" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="2" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="2" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="2" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="2" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="2" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="2" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="2" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="2" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="2" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
-        <v>261</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="2" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="2" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="2" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="2" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="2" t="s">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>267</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="2" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>275</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="2" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="2" t="s">
-        <v>274</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="2" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="2" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="2" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="2" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="2" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="2" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="2" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="2" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="2" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="2" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="2" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="2" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="2" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="2" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="2" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168" s="2" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169" s="2" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170" s="2" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C171" s="2" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C172" s="2" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C173" s="2" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C174" s="2" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C175" s="2" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C176" s="2" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" s="2" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C178" s="2" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" s="2" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" s="2" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" s="2" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C182" s="2" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C183" s="2" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C184" s="6" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C185" s="2" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C188" s="2" t="s">
-        <v>334</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C189" s="2" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C190" s="2" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
     </row>
     <row r="191" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C191" s="2" t="s">
-        <v>337</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C192" s="2" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" s="2" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" s="2" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" s="2" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
     </row>
     <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" s="2" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" s="2" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" s="2" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" s="2" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" s="2" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" s="2" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" s="2" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" s="2" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" s="2" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" s="2" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
     </row>
     <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" s="2" t="s">
-        <v>487</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" s="2" t="s">
-        <v>488</v>
+        <v>405</v>
       </c>
     </row>
     <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" s="2" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C209" s="2" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C210" s="2" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C211" s="2" t="s">
-        <v>359</v>
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C212" s="2" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C213" s="2" t="s">
-        <v>361</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C214" s="2" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C215" s="2" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C216" s="2" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C217" s="2" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C218" s="2" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C219" s="2" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C220" s="2" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
     </row>
     <row r="221" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C221" s="2" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C222" s="2" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C223" s="2" t="s">
-        <v>375</v>
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C224" s="2" t="s">
-        <v>376</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C225" s="2" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
     </row>
     <row r="226" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C226" s="2" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
     </row>
     <row r="227" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C227" s="2" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
     </row>
     <row r="228" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C228" s="2" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
     </row>
     <row r="229" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C229" s="2" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="230" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C230" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="231" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C231" s="2" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C232" s="2" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C233" s="2" t="s">
-        <v>388</v>
+        <v>305</v>
       </c>
     </row>
     <row r="234" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C234" s="2" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C235" s="2" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
     </row>
     <row r="236" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C236" s="2" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
     </row>
     <row r="237" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C237" s="2" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
     </row>
     <row r="238" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C238" s="2" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
     </row>
     <row r="239" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C239" s="2" t="s">
-        <v>396</v>
+        <v>313</v>
       </c>
     </row>
     <row r="240" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C240" s="2" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C241" s="2" t="s">
-        <v>399</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C242" s="2" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C243" s="2" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C244" s="2" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
     </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C245" s="2" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C246" s="2" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C247" s="2" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C248" s="2" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>409</v>
+        <v>326</v>
       </c>
     </row>
     <row r="249" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C249" s="2" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
     </row>
     <row r="250" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C250" s="2" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C251" s="2" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
     </row>
     <row r="252" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C252" s="2" t="s">
-        <v>414</v>
+        <v>331</v>
       </c>
     </row>
     <row r="253" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C253" s="2" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
     </row>
     <row r="254" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C254" s="2" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
     </row>
     <row r="255" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C255" s="2" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
     </row>
     <row r="256" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
     </row>
     <row r="257" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C257" s="2" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C258" s="2" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
     </row>
     <row r="259" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C259" s="2" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
     </row>
     <row r="260" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C260" s="2" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
     </row>
     <row r="261" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C261" s="2" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
     </row>
     <row r="262" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C262" s="2" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C263" s="2" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
     </row>
     <row r="264" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C264" s="2" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="265" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C265" s="2" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
     </row>
     <row r="266" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C266" s="2" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C267" s="2" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
     </row>
     <row r="268" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C268" s="2" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C269" s="2" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
     </row>
     <row r="270" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C270" s="2" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
     </row>
     <row r="271" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C271" s="2" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
     </row>
     <row r="272" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C272" s="2" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C273" s="2" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C274" s="2" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
     </row>
     <row r="275" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C275" s="2" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
     </row>
     <row r="276" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C276" s="2" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
     </row>
     <row r="277" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C277" s="2" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
     </row>
     <row r="278" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C278" s="2" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
     </row>
     <row r="279" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C279" s="2" t="s">
-        <v>449</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C280" s="2" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
     </row>
     <row r="281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C281" s="2" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C282" s="2" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
     </row>
     <row r="283" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C283" s="2" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C284" s="2" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C285" s="2" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C286" s="2" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C287" s="2" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C288" s="2" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C289" s="2" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
     </row>
     <row r="290" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C290" s="2" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
     </row>
     <row r="291" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C291" s="2" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C292" s="2" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
     </row>
     <row r="293" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C293" s="2" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
     </row>
     <row r="294" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C294" s="2" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
     </row>
     <row r="295" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C295" s="2" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C296" s="2" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
     </row>
     <row r="297" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C297" s="2" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C298" s="2" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
     </row>
     <row r="299" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C299" s="2" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
     </row>
     <row r="300" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C300" s="2" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C301" s="2" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C302" s="2" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C303" s="6" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C304" s="7" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
     </row>
     <row r="305" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C305" s="2" t="s">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>499</v>
+        <v>416</v>
       </c>
     </row>
     <row r="306" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C306" s="2" t="s">
-        <v>497</v>
+        <v>414</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>502</v>
+        <v>419</v>
       </c>
     </row>
     <row r="307" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C307" s="2" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>500</v>
+        <v>417</v>
       </c>
     </row>
     <row r="308" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C308" s="2" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>504</v>
+        <v>421</v>
       </c>
     </row>
     <row r="309" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C309" s="2" t="s">
-        <v>501</v>
+        <v>418</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>605</v>
+        <v>522</v>
       </c>
     </row>
     <row r="310" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C310" s="2" t="s">
-        <v>505</v>
+        <v>422</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>508</v>
+        <v>425</v>
       </c>
     </row>
     <row r="311" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C311" s="2" t="s">
-        <v>506</v>
+        <v>423</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>507</v>
+        <v>424</v>
       </c>
     </row>
     <row r="312" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C312" s="2" t="s">
-        <v>509</v>
+        <v>426</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>510</v>
+        <v>427</v>
       </c>
     </row>
     <row r="313" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C313" s="2" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
     </row>
     <row r="314" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C314" s="2" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
     </row>
     <row r="315" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C315" s="2" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
     </row>
     <row r="316" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C316" s="2" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
     </row>
     <row r="317" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C317" s="2" t="s">
-        <v>517</v>
+        <v>434</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C318" s="2" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
     </row>
     <row r="319" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C319" s="2" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C320" s="2" t="s">
-        <v>522</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C321" s="2" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
     </row>
     <row r="322" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C322" s="2" t="s">
-        <v>524</v>
+        <v>441</v>
       </c>
     </row>
     <row r="323" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C323" s="2" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C324" s="2" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
     </row>
     <row r="325" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C325" s="2" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C326" s="2" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>531</v>
+        <v>448</v>
       </c>
     </row>
     <row r="327" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C327" s="2" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
     </row>
     <row r="328" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C328" s="2" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
     </row>
     <row r="329" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C329" s="2" t="s">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
     </row>
     <row r="330" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C330" s="2" t="s">
-        <v>537</v>
+        <v>454</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>540</v>
+        <v>457</v>
       </c>
     </row>
     <row r="331" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C331" s="2" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
     </row>
     <row r="332" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C332" s="2" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>542</v>
+        <v>459</v>
       </c>
     </row>
     <row r="333" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C333" s="2" t="s">
-        <v>543</v>
+        <v>460</v>
       </c>
     </row>
     <row r="334" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C334" s="2" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
     </row>
     <row r="335" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C335" s="2" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
     </row>
     <row r="336" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C336" s="2" t="s">
-        <v>546</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" s="2" t="s">
-        <v>547</v>
+        <v>464</v>
       </c>
     </row>
     <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" s="2" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
     </row>
     <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" s="2" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
     </row>
     <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" s="2" t="s">
-        <v>550</v>
+        <v>467</v>
       </c>
     </row>
     <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" s="2" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
     </row>
     <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" s="2" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
     </row>
     <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" s="2" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
     </row>
     <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" s="2" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>556</v>
+        <v>473</v>
       </c>
     </row>
     <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" s="2" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
     </row>
     <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" s="2" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
     </row>
     <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" s="2" t="s">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
     </row>
     <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" s="2" t="s">
-        <v>561</v>
+        <v>478</v>
       </c>
     </row>
     <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" s="2" t="s">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
     </row>
     <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" s="2" t="s">
-        <v>564</v>
+        <v>481</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>565</v>
+        <v>482</v>
       </c>
     </row>
     <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" s="2" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>606</v>
+        <v>523</v>
       </c>
     </row>
     <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" s="2" t="s">
-        <v>567</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C353" s="2" t="s">
-        <v>568</v>
+        <v>485</v>
       </c>
     </row>
     <row r="354" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C354" s="2" t="s">
-        <v>569</v>
+        <v>486</v>
       </c>
     </row>
     <row r="355" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C355" s="2" t="s">
-        <v>570</v>
+        <v>487</v>
       </c>
     </row>
     <row r="356" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C356" s="2" t="s">
-        <v>571</v>
+        <v>488</v>
       </c>
     </row>
     <row r="357" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C357" s="2" t="s">
-        <v>572</v>
+        <v>489</v>
       </c>
     </row>
     <row r="358" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C358" s="2" t="s">
-        <v>573</v>
+        <v>490</v>
       </c>
     </row>
     <row r="359" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C359" s="2" t="s">
-        <v>574</v>
+        <v>491</v>
       </c>
     </row>
     <row r="360" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C360" s="2" t="s">
-        <v>575</v>
+        <v>492</v>
       </c>
     </row>
     <row r="361" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C361" s="2" t="s">
-        <v>576</v>
+        <v>493</v>
       </c>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C362" s="2" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
     </row>
     <row r="363" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C363" s="2" t="s">
-        <v>579</v>
+        <v>496</v>
       </c>
     </row>
     <row r="364" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C364" s="2" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
     </row>
     <row r="365" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C365" s="2" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>581</v>
+        <v>498</v>
       </c>
     </row>
     <row r="366" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C366" s="2" t="s">
-        <v>582</v>
+        <v>499</v>
       </c>
     </row>
     <row r="367" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C367" s="2" t="s">
-        <v>583</v>
+        <v>500</v>
       </c>
     </row>
     <row r="368" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C368" s="2" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
     </row>
     <row r="369" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C369" s="2" t="s">
-        <v>585</v>
+        <v>502</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>588</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C370" s="2" t="s">
-        <v>586</v>
+        <v>503</v>
       </c>
     </row>
     <row r="371" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C371" s="2" t="s">
-        <v>587</v>
+        <v>504</v>
       </c>
     </row>
     <row r="372" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C372" s="2" t="s">
-        <v>589</v>
+        <v>506</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>599</v>
+        <v>516</v>
       </c>
     </row>
     <row r="373" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C373" s="2" t="s">
-        <v>590</v>
+        <v>507</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
     </row>
     <row r="374" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C374" s="2" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
     </row>
     <row r="375" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C375" s="2" t="s">
-        <v>592</v>
+        <v>509</v>
       </c>
     </row>
     <row r="376" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C376" s="2" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>600</v>
+        <v>517</v>
       </c>
     </row>
     <row r="377" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C377" s="2" t="s">
-        <v>595</v>
+        <v>512</v>
       </c>
     </row>
     <row r="378" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C378" s="2" t="s">
-        <v>596</v>
+        <v>513</v>
       </c>
     </row>
     <row r="379" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C379" s="2" t="s">
-        <v>597</v>
+        <v>514</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>601</v>
+        <v>518</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>603</v>
+        <v>520</v>
       </c>
     </row>
     <row r="380" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C380" s="6" t="s">
-        <v>598</v>
+        <v>515</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>602</v>
+        <v>519</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>604</v>
+        <v>521</v>
       </c>
     </row>
     <row r="381" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69138783-57DC-4855-8AD9-A80DB352A02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D752C3-133B-42AE-938E-CC34A017010B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7944" yWindow="420" windowWidth="10644" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13176" yWindow="624" windowWidth="10644" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="577">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4555,6 +4555,283 @@
   </si>
   <si>
     <t>杰出的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达成</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winning streak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>turbocharge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止跌回升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>treasury</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国债券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>broad-based</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛基础</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stocks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stakes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geopolitical tensions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地缘政治紧张局势。</t>
+  </si>
+  <si>
+    <t>mainland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bipartisan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两党的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐(elplled被驱逐)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expulsion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱逐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>campaign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购, 订阅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elected</t>
+  </si>
+  <si>
+    <t>当选</t>
+  </si>
+  <si>
+    <t>reputation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名声, 名誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prolific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多产的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>week-long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长达一周</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>truce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverberate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震颤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>displace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背井离乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elimination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消灭</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强,促进, 涡轮增压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest rates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率, 加息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课外</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4674,7 +4951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4695,6 +4972,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4986,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C357" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4999,7 +5282,13 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>525</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5007,53 +5296,112 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>573</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>532</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>538</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>542</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5067,17 +5415,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>544</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>550</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
@@ -5085,12 +5451,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>549</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
@@ -5098,22 +5476,46 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>554</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>556</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>558</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>560</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
@@ -5121,7 +5523,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>562</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
@@ -5129,52 +5537,82 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>564</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>566</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>568</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>570</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
@@ -5182,7 +5620,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
@@ -6069,6 +6507,9 @@
     <row r="177" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C177" s="2" t="s">
         <v>229</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.25">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D752C3-133B-42AE-938E-CC34A017010B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B61BA9-74C8-4B80-800E-678E55E1C2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13176" yWindow="624" windowWidth="10644" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6516" yWindow="264" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="761">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4832,6 +4832,1501 @@
   </si>
   <si>
     <t>课外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ego</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter ego</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>替身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另一个自我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sidekick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪衬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oracle of …</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先知</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>texttile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>empire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> craft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工艺</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年刊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(annaul gain, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年收益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步伐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> poll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民意调查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>respondent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受访者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">proportion </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roughly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>better off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境遇更好, 混的更好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>治疗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药, 医学, 内科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物治疗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cate 用 … </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remediable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irremediable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可补救</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>治疗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multimedia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new-media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass-media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众传媒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-sized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间的, 媒体, 中介物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> medium-range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-priced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium-grain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等颗粒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">median </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中位数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立刻地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最接近的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediately</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediacy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间接的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmediated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉思</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditatively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premeditated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预谋的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premeditation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpremeditated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medievalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medievalism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中世纪的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中古史学家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中世纪精神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地中海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediterranean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表土地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, ranean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ocean</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中级的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仲裁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> intermediate-term</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediat-range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate-level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediocre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平凡的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediocrity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meddle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管闲事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meddling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干预</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瞎管</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压榨机, 压制工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加压的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧迫的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新闻记者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印刷工人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold-pressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷压的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot-pressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard-pressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被紧紧追赶的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low-pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood-pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure-treated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overpressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressured</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressurize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressurized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressurization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presure-sensitive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time-pressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time-pressing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure-cooker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压锅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure-packed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满压力的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盖印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给予某人深刻印象</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressive-looking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unimpressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unimpressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人印象深刻的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有印象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误印象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misimpression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressionable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敏感的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易受影响的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressionist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressionism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressionistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post-impressionist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象派的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期印象派画家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明确的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快车</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>善于表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4951,7 +6446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4978,6 +6473,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5267,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F381"/>
+  <dimension ref="A1:F480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C357" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" topLeftCell="C460" workbookViewId="0">
+      <selection activeCell="D482" sqref="D482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5593,26 +7091,56 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>578</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>580</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>584</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>586</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
@@ -5621,11 +7149,23 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>590</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
@@ -5633,27 +7173,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>592</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>594</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>596</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>599</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>600</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>38</v>
       </c>
@@ -5661,17 +7231,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>602</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>604</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>606</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
@@ -5682,32 +7270,56 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>608</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>610</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>612</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>614</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
@@ -5715,7 +7327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
@@ -7783,7 +9395,649 @@
       </c>
     </row>
     <row r="381" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C381" s="7"/>
+      <c r="C381" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="382" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C382" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C383" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="384" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C384" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C385" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C386" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C387" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D387" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C388" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C389" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C390" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C391" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C392" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="393" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C393" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C394" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C395" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="396" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C396" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C397" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="398" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C398" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="399" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C399" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="400" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C400" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C401" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C402" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="403" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C403" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="404" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C404" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C405" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="406" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C406" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="407" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C407" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="408" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C408" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="409" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C409" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C410" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="411" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C411" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C412" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C413" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="414" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C414" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="415" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C415" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="416" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C416" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C417" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C418" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C419" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C420" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C421" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="422" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C422" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C423" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="424" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C424" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C425" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="426" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C426" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C427" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="428" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C428" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="429" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C429" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="430" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C430" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="431" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C431" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="432" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C432" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="433" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C433" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="434" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C434" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C435" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="436" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C436" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="437" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C437" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="438" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C438" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="439" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C439" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="440" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C440" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D440" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="441" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C441" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="442" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C442" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="443" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C443" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="444" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C444" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="445" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C445" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="446" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C446" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="447" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C447" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="448" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C448" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="449" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C449" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="450" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C450" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="451" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C451" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="452" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C452" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="453" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C453" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="454" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C454" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="455" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C455" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="456" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C456" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="457" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C457" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="458" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C458" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="459" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C459" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="460" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C460" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="461" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C461" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="462" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C462" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="463" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C463" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="464" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C464" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="465" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C465" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C466" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D466" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="467" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C467" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C468" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D468" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="469" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C469" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C470" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D470" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C471" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="472" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C472" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D472" s="5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C473" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C474" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C475" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="476" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C476" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C477" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="478" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C478" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="479" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="480" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C480" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B61BA9-74C8-4B80-800E-678E55E1C2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6165583-29B9-4F44-81FE-77931353BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="264" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="228" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="968">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6327,6 +6327,1738 @@
   </si>
   <si>
     <t>intermediation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kick off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>retailer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sluggish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节俭的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang tough</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持挺过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtailing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲软的, 乏力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通货膨胀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert tickets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐会门票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显而易见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">retirement </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwindle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐渐减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">shift  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指出</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate cut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率降低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overshoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>runway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲出, 过头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机, 飞机跑道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>letup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferocious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激烈的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warfare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公民身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prisoner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>囚犯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">slaughter  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> faltering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰落的, 摇摇欲坠的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">respiratory </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>novel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathogen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病原体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexpressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressionless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressionlessly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-expression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-expressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无表情的</t>
+  </si>
+  <si>
+    <t>无表情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我表现的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressionism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressionist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressionistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现派的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expressible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexpressible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以表达的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexpressibly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unexpressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">expressway </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速公路(highway)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressingly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使沮丧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使萧条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使跌价</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depressant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇静剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>antidepressant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">anti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表抗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depression-era</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济大萧条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压紧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incompressible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可压缩的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressed-air</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncompressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decompress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decompression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通常 元辅辅, 表加强(add, opp, att </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppressiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppressively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppressor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压迫者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-repressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrepressible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrepressibly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制不住地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppressor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消除器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppressibly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-suppressed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppressant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制药</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表 手的含义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>礼貌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>举止</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mannerly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彬彬有礼的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mannered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mannerism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫揉造作</t>
+  </si>
+  <si>
+    <t>矫揉造作的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mild-mannered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温柔的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温良恭谨的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-mannered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ill-mannered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">manual </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明书</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manually</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-manual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用手</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非体力劳动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动换挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual-shift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manacle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手铐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>束缚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给...带上手铐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>managed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmanaged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非托管的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>managerial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mismanage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mismanagement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miscromanage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理不善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> labor-management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施肥于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>耕种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥料</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制造业</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufactory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操纵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manumit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释放</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit, miss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扔</t>
+    </r>
+  </si>
+  <si>
+    <t>manumission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emancipate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>释放</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手中的东西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emancipation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emancipator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emancipatory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manuscirpt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手写本</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manicure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修指甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修剪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>; cure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>care</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedicure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修脚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足部治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, ped, feet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表脚部</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismantle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拆开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamantlement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆卸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压迫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇压</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压抑</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6334,7 +8066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6373,6 +8105,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -6446,7 +8193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6476,6 +8223,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6765,10 +8518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F480"/>
+  <dimension ref="A1:F579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C460" workbookViewId="0">
-      <selection activeCell="D482" sqref="D482"/>
+    <sheetView tabSelected="1" topLeftCell="C559" workbookViewId="0">
+      <selection activeCell="D574" sqref="D574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -7315,11 +9068,23 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>762</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
@@ -7328,31 +9093,67 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>772</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>767</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>769</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>776</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
@@ -7360,12 +9161,24 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>61</v>
       </c>
@@ -7373,17 +9186,35 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>782</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>786</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
@@ -7391,12 +9222,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
@@ -7404,17 +9247,35 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>793</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
@@ -7422,37 +9283,79 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>798</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>806</v>
+      </c>
       <c r="C68" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="C69" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>612</v>
+      </c>
       <c r="C70" s="2" t="s">
         <v>77</v>
       </c>
@@ -7460,27 +9363,51 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="C71" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>812</v>
+      </c>
       <c r="C72" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>814</v>
+      </c>
       <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>816</v>
+      </c>
       <c r="C74" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>83</v>
       </c>
@@ -7488,7 +9415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
         <v>85</v>
       </c>
@@ -7496,7 +9423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77" s="2" t="s">
         <v>87</v>
       </c>
@@ -7504,7 +9431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
@@ -7512,12 +9439,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
         <v>91</v>
       </c>
@@ -10037,7 +11964,657 @@
       </c>
     </row>
     <row r="480" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C480" s="7"/>
+      <c r="C480" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="D480" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="481" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C481" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D481" s="10" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="482" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C482" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="483" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C483" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="484" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C484" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="485" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C485" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="486" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C486" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="487" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C487" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="488" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C488" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="489" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C489" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="490" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C490" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="491" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C491" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="492" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C492" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="493" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C493" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="494" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C494" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="495" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C495" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="496" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C496" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="497" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C497" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C498" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="499" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C499" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="500" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C500" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="501" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C501" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="502" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C502" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D502" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="503" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C503" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="504" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C504" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="505" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C505" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="506" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C506" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="507" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C507" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="508" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C508" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="509" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C509" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="510" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C510" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="511" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C511" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="512" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C512" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D512" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="513" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C513" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D513" s="11" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="514" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C514" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D514" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="515" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C515" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="516" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C516" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="517" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C517" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="518" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C518" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="519" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C519" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D519" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="520" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C520" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D520" s="12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="521" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C521" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="522" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C522" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="523" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C523" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="524" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C524" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="525" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C525" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="526" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C526" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D526" s="12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="527" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C527" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="528" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C528" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="529" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C529" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="530" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C530" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="531" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C531" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="532" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C532" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="533" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C533" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="534" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C534" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="535" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C535" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="536" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C536" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="537" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C537" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D537" s="10" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="538" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C538" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D538" s="10" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="539" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C539" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="540" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C540" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="541" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C541" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="542" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C542" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="543" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C543" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="544" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C544" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D544" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="545" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C545" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="546" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C546" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="547" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C547" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D547" s="5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="548" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C548" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="549" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C549" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="550" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C550" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="551" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C551" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="552" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C552" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="553" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C553" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="554" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C554" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="555" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C555" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="556" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C556" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="557" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C557" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="558" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C558" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="559" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C559" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="560" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C560" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="561" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C561" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="562" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C562" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="563" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C563" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="564" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C564" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D564" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="565" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C565" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="566" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C566" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="567" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C567" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="568" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C568" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="569" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C569" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="570" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C570" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="571" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C571" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="572" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C572" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="573" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C573" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="574" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C574" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="575" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C575" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D575" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="576" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C576" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D576" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="577" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C577" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="578" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C578" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="579" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C579" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>964</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6165583-29B9-4F44-81FE-77931353BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC70DAE-1E10-4362-BFA4-6CFE8A707CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="228" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6252" yWindow="516" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1144">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8059,6 +8059,2011 @@
       </rPr>
       <t>压抑</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cryptocurrency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plead guilty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money laundering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>violation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>违法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restitution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>considered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被认为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工业</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> court </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罚款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>crypto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首席</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>executive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔偿金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ouster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罢免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被开除</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frenzy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狂潮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>狂热</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>浪涌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浪涌</t>
+    </r>
+  </si>
+  <si>
+    <t>vanish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>竞争对手, 对手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diplomatic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>involve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fer 表拿, 带; per, pro表向前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perferred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-perferred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preferable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更好的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perferably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfenence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倾向</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perferential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perferentially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协商</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conferral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conferment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协商</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conferee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与会议者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>授予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoconference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-conference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>differ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indifferent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漠不关心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dis</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>differential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差异的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>differentiate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区别</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录取通知书</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>offering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interentially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查阅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refenrence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参照</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>referential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross-reference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互相参照, 交叉引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟, 延迟, 服从</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尊重</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deferentially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufferer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">suf. Sub </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表 向下</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insufferable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insufferably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-suffering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以忍受的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调任</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n. al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后缀表名词</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受让人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> transferable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat-transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热传递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proliferate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激增</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proliferative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proliferation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonproliferation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防扩散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩散</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富饶的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥沃的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能生育的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, tile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表产量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertilize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使受精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertilizer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>促进发展者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertilization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertilized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已受精的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfertilized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未施肥的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土地不肥沃的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未受精的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infertile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不肥沃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能生育的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infertility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不毛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贫瘠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquifer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄水层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含水土层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Aqu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表水含水</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquiferous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ferous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">表 含有 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">… </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vociferous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vociferously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>odoriferous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大声叫的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喧嚷的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(voci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>voice)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>臭的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>散发气味的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芬芳的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(odor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即气味</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fac|fec|fic|fit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表 做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact-finding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实情调查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact-finder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实情调查者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matter-of-fact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matter-of-factly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实事求是的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>after-the-fact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artefact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人工制品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手工艺品</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺品, 手工制品, 加工品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artificial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8518,10 +10523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C559" workbookViewId="0">
-      <selection activeCell="D574" sqref="D574"/>
+    <sheetView tabSelected="1" topLeftCell="C634" workbookViewId="0">
+      <selection activeCell="C659" sqref="C659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9408,6 +11413,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>83</v>
       </c>
@@ -9416,6 +11427,12 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="C76" s="2" t="s">
         <v>85</v>
       </c>
@@ -9424,6 +11441,12 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="C77" s="2" t="s">
         <v>87</v>
       </c>
@@ -9432,6 +11455,12 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>975</v>
+      </c>
       <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
@@ -9440,11 +11469,23 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>977</v>
+      </c>
       <c r="C79" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>995</v>
+      </c>
       <c r="C80" s="2" t="s">
         <v>91</v>
       </c>
@@ -9452,17 +11493,35 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>980</v>
+      </c>
       <c r="C81" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>982</v>
+      </c>
       <c r="C82" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
@@ -9470,12 +11529,24 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>986</v>
+      </c>
       <c r="C84" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>988</v>
+      </c>
       <c r="C85" s="2" t="s">
         <v>97</v>
       </c>
@@ -9483,12 +11554,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>989</v>
+      </c>
       <c r="C86" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>992</v>
+      </c>
       <c r="C87" s="2" t="s">
         <v>99</v>
       </c>
@@ -9496,22 +11579,46 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>994</v>
+      </c>
       <c r="C88" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>997</v>
+      </c>
       <c r="C89" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>999</v>
+      </c>
       <c r="C90" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1001</v>
+      </c>
       <c r="C91" s="2" t="s">
         <v>115</v>
       </c>
@@ -9519,7 +11626,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1003</v>
+      </c>
       <c r="C92" s="2" t="s">
         <v>117</v>
       </c>
@@ -9527,12 +11640,24 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1005</v>
+      </c>
       <c r="C93" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>1007</v>
+      </c>
       <c r="C94" s="2" t="s">
         <v>120</v>
       </c>
@@ -9540,22 +11665,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1009</v>
+      </c>
       <c r="C95" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1011</v>
+      </c>
       <c r="C96" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1013</v>
+      </c>
       <c r="C97" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
         <v>125</v>
       </c>
@@ -9563,17 +11706,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2" t="s">
         <v>129</v>
       </c>
@@ -9581,22 +11724,22 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C103" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
         <v>133</v>
       </c>
@@ -9604,7 +11747,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C106" s="2" t="s">
         <v>135</v>
       </c>
@@ -9612,7 +11755,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
         <v>137</v>
       </c>
@@ -9620,7 +11763,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
         <v>139</v>
       </c>
@@ -9628,22 +11771,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C109" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C110" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C111" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
         <v>144</v>
       </c>
@@ -12608,13 +14751,573 @@
         <v>962</v>
       </c>
     </row>
-    <row r="579" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C579" s="2" t="s">
+    <row r="579" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="6" t="s">
         <v>963</v>
       </c>
       <c r="D579" s="5" t="s">
         <v>964</v>
       </c>
+    </row>
+    <row r="580" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C580" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="581" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C581" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="582" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C582" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="583" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C583" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D583" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="584" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C584" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="585" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C585" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="586" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C586" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="587" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C587" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="588" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C588" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="589" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C589" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="590" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C590" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="591" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C591" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="592" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C592" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="593" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C593" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="594" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C594" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="595" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C595" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="596" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C596" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="597" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C597" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="598" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C598" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="599" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C599" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="600" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C600" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="601" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C601" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="602" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C602" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="603" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C603" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="604" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C604" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="605" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C605" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="606" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C606" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="607" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C607" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="608" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C608" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="609" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C609" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D609" s="5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="610" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C610" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D610" s="5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="611" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C611" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="612" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C612" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="613" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C613" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="614" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C614" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="615" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C615" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="616" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C616" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D616" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="617" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C617" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="618" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C618" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="619" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C619" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="620" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C620" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="621" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C621" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="622" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C622" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="623" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C623" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="624" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C624" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D624" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="625" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C625" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="626" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C626" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="627" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C627" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="628" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C628" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="629" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C629" s="2" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="630" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C630" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="631" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C631" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="632" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C632" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="633" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C633" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="634" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C634" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="635" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C635" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="636" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C636" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="637" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C637" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="638" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C638" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D638" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="639" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C639" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="640" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C640" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="641" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C641" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="642" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C642" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="643" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C643" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="644" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C644" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="645" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C645" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="646" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C646" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="647" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C647" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="648" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C648" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="649" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C649" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="650" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C650" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="651" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C651" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="652" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C652" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D652" s="5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="653" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C653" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="654" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C654" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="655" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C655" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="656" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C656" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="657" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C657" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="658" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="659" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C659" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC70DAE-1E10-4362-BFA4-6CFE8A707CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B4B8D-493F-42FF-8EBA-B0BBCEA68EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6252" yWindow="516" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5352" yWindow="312" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1377">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10064,6 +10064,2194 @@
   </si>
   <si>
     <t>人工的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期望值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期望</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decreasing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike a deal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对抗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fentanyl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芬太尼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阵痛药物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>military</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军方的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> underscore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repprochement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleasantry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成协议(strike deals)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>push out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排挤走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解雇</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-funder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合创始人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chief executive officer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consistently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一贯地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>始终如一地</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>率直的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分歧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲突</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endorsement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>antisemitic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反犹主义的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛烈抨击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertising</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢跑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>congestion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥堵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减轻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缓和</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>potentially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜在的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要素</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multifactor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多因子的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surviorship bias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸存者偏差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factually</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真实性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事实性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterfactual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">counter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反对</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可构成形容词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地点</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory-made</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂预制的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory-built</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory-like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affectional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感染</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喜爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动人的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感人的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">have affection to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有感情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affectionate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affectionately</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unaffected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affectation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矫揉造作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uninfected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infectious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infectiously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disinfect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消毒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disinfection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disinfectant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aids-infected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾滋病感染的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infection-fighting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免传染的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infectious-disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>v.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感染</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假装</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效应</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>side-effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost-effective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>划算的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost-effectiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost-effectively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause-effective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有因果关系的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ineffective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ineffectiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效率的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有能力的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生效的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inefficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inefficiently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficiency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inefficiency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficacy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inefficacy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel-efficiency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料功率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuel-efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>super-efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax-efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time-efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时效性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultra-efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-efficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完美的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使完美</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>near-perfect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectionism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectionist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfectionistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperfect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有缺点的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperfectin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperfectly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺陷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不足之处</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facsimile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sacrifice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牺牲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祭品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供奉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scapegoat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>替罪羊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成为替罪羊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefactor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施恩者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恩人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefactress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>malefactor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作恶者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坏分子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>malefaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贸易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic-choked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通堵塞的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-traffic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量业务量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好处</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit-cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost-benefit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本效益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本效益的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk-benefit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneficial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneficially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受益人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneficiary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>警官</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公务员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官员</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>official</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semi-offecial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半官方的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officailly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unofficial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unofficially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officialism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officialdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官场(dom表地点)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非官方的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officiously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>officemate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室伙伴, 办公室恋情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>票房的, 受欢迎的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home-office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内政部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post-office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮局的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in-office</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执政</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>office-supply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10523,10 +12711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F659"/>
+  <dimension ref="A1:F763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C634" workbookViewId="0">
-      <selection activeCell="C659" sqref="C659"/>
+    <sheetView tabSelected="1" topLeftCell="C740" workbookViewId="0">
+      <selection activeCell="C763" sqref="C763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11699,6 +13887,12 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>1145</v>
+      </c>
       <c r="C98" s="2" t="s">
         <v>125</v>
       </c>
@@ -11707,16 +13901,34 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1147</v>
+      </c>
       <c r="C99" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1149</v>
+      </c>
       <c r="C100" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1151</v>
+      </c>
       <c r="C101" s="2" t="s">
         <v>129</v>
       </c>
@@ -11725,21 +13937,45 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="C102" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1155</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1171</v>
+      </c>
       <c r="C104" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1158</v>
+      </c>
       <c r="C105" s="2" t="s">
         <v>133</v>
       </c>
@@ -11748,6 +13984,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1160</v>
+      </c>
       <c r="C106" s="2" t="s">
         <v>135</v>
       </c>
@@ -11756,6 +13998,12 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1162</v>
+      </c>
       <c r="C107" s="2" t="s">
         <v>137</v>
       </c>
@@ -11764,6 +14012,12 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1164</v>
+      </c>
       <c r="C108" s="2" t="s">
         <v>139</v>
       </c>
@@ -11772,41 +14026,89 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1166</v>
+      </c>
       <c r="C109" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1168</v>
+      </c>
       <c r="C110" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1170</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>1173</v>
+      </c>
       <c r="C112" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1175</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1177</v>
+      </c>
       <c r="C114" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>1180</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1181</v>
+      </c>
       <c r="C116" s="2" t="s">
         <v>148</v>
       </c>
@@ -11814,7 +14116,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1183</v>
+      </c>
       <c r="C117" s="2" t="s">
         <v>149</v>
       </c>
@@ -11822,7 +14130,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1185</v>
+      </c>
       <c r="C118" s="2" t="s">
         <v>150</v>
       </c>
@@ -11830,7 +14144,13 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1187</v>
+      </c>
       <c r="C119" s="2" t="s">
         <v>153</v>
       </c>
@@ -11838,7 +14158,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1189</v>
+      </c>
       <c r="C120" s="2" t="s">
         <v>155</v>
       </c>
@@ -11846,47 +14172,101 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1191</v>
+      </c>
       <c r="C121" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1193</v>
+      </c>
       <c r="C122" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="C123" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1196</v>
+      </c>
       <c r="C124" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1198</v>
+      </c>
       <c r="C125" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1200</v>
+      </c>
       <c r="C126" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>1202</v>
+      </c>
       <c r="C127" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1204</v>
+      </c>
       <c r="C128" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1206</v>
+      </c>
       <c r="C129" s="2" t="s">
         <v>165</v>
       </c>
@@ -11894,17 +14274,29 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1208</v>
+      </c>
       <c r="C130" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>1210</v>
+      </c>
       <c r="C131" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C132" s="2" t="s">
         <v>169</v>
       </c>
@@ -11912,7 +14304,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C133" s="2" t="s">
         <v>171</v>
       </c>
@@ -11920,7 +14312,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C134" s="2" t="s">
         <v>172</v>
       </c>
@@ -11928,7 +14320,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C135" s="2" t="s">
         <v>174</v>
       </c>
@@ -11936,27 +14328,27 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C139" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C140" s="2" t="s">
         <v>180</v>
       </c>
@@ -11964,17 +14356,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C141" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C142" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C143" s="2" t="s">
         <v>183</v>
       </c>
@@ -11982,7 +14374,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C144" s="2" t="s">
         <v>185</v>
       </c>
@@ -15300,7 +17692,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="657" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C657" s="2" t="s">
         <v>1139</v>
       </c>
@@ -15308,7 +17700,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="658" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C658" s="6" t="s">
         <v>1142</v>
       </c>
@@ -15316,8 +17708,713 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="659" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C659" s="7"/>
+    <row r="659" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C659" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="660" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C660" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="661" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C661" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="662" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C662" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="663" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C663" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="664" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C664" s="2" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="665" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C665" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="666" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C666" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="667" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C667" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="668" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C668" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="669" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C669" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="670" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C670" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="671" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C671" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="672" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C672" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="673" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C673" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="674" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C674" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="675" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C675" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="676" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C676" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="677" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C677" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="678" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C678" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="679" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C679" s="2" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="680" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C680" s="2" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="681" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C681" s="2" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="682" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C682" s="2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="683" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C683" s="2" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="684" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C684" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="685" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C685" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="686" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C686" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="687" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C687" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="688" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C688" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="689" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C689" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="690" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C690" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="691" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C691" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D691" s="5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="692" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C692" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D692" s="5" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="693" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C693" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="694" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C694" s="2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="695" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C695" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D695" s="5" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="696" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C696" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="697" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C697" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="698" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C698" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="699" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C699" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D699" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="700" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C700" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D700" s="4" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="701" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C701" s="2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="702" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C702" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="703" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C703" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="704" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C704" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D704" s="5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="705" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C705" s="2" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="706" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C706" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="707" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C707" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="708" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C708" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="709" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C709" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="710" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C710" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="711" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C711" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D711" s="5" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="712" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C712" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D712" s="5" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="713" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C713" s="2" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="714" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C714" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D714" s="4" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="715" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C715" s="2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="716" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C716" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="717" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C717" s="2" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="718" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C718" s="2" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="719" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C719" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="720" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C720" s="2" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="721" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C721" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D721" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="722" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C722" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="723" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C723" s="2" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="724" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C724" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="725" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C725" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="726" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C726" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="727" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C727" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="728" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C728" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="729" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C729" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="730" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C730" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="731" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C731" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="732" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C732" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="733" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C733" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D733" s="5" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="734" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C734" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="735" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C735" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="736" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C736" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="737" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C737" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D737" s="5" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="738" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C738" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D738" s="5" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="739" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C739" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="740" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C740" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="741" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C741" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D741" s="5" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="742" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C742" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D742" s="5" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="743" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C743" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="744" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C744" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="745" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C745" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="746" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C746" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="747" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C747" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="748" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C748" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="749" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C749" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="750" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C750" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="751" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C751" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="752" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C752" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="753" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C753" s="2" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="754" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C754" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="755" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C755" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D755" s="5" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="756" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C756" s="2" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="757" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C757" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D757" s="5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="758" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C758" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="759" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C759" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D759" s="5" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="760" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C760" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="761" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C761" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="762" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C762" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D762" s="5" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="763" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C763" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D763" s="5" t="s">
+        <v>1376</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B4B8D-493F-42FF-8EBA-B0BBCEA68EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330D810-A499-4A7C-A581-3635D38C5D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="312" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5196" yWindow="276" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1592">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12252,6 +12252,2192 @@
   </si>
   <si>
     <t>办公用品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缓和</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentiment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>synthetic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opioid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿片类药物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supreme court</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高法院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isssued</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颁发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-ever</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分歧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>standing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声誉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unrestricted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受限制的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make up for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弥补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>within striking destance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>距离很近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">相差无几 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>faceless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>匿名的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无个性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无脸面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face-down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正面朝下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降服</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face-saving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾全面子的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>face-to-face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面对面的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red-face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面红耳赤的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>white-face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面容苍白的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad-face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦脸的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baby-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻而纯真的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假装的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>straight-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面孔严肃的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面无表情的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其貌不扬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamefaced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谦逊的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>害羞的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆脸的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bare-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚颜无耻的(bare即光秃的)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不愉快的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fresh-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面带稚气的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷漠的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freckle-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满脸雀斑的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面无表情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pale-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面色苍白的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poker-faced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一本正经的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面无表情的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>north-facing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北向的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, west-facing, east|south-facing)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面部的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defacement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损坏外观的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丑化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毁坏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱涂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>efface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抹去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抹掉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effacement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ineffaceable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可抹除的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加序言</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表层的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea-surface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-surface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>near-surface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superficial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肤浅的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superficially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superficiality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>front</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前面的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fronter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前沿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>边界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>边界的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfrontier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在国境外生活的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> front-line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前线的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头版的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轰动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登在头版</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-runner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领先者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-seat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>front-door</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海滨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水边</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riverfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oceanfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lakefront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beachfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlefront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seafront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遭遇</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confrontation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confrontational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con-confrontational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非对抗性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effrontery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚颜无耻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冒犯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公开侮辱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affronted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被冒犯的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲近的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(clud|clus|clos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收盘的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>揭露</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undisclosed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份不明的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未泄露的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disclosure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-disclosure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我揭露</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>围绕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装入</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclosure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclosed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-enclosed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自闭和的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壁橱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小房间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘密的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>私下的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私下密探的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-fitting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴身的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧身的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠得近的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-minided</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想保守的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close-mouthed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守口如瓶的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed-door</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非公开的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closed-loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>封闭环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闭合回路</t>
+    </r>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包容性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>including</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-inclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒接接纳</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusionism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排外主义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-exclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非独占的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独占的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disclose</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12711,10 +14897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F763"/>
+  <dimension ref="A1:F866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C740" workbookViewId="0">
-      <selection activeCell="C763" sqref="C763"/>
+    <sheetView tabSelected="1" topLeftCell="C855" workbookViewId="0">
+      <selection activeCell="C867" sqref="C867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -14297,6 +16483,12 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>1378</v>
+      </c>
       <c r="C132" s="2" t="s">
         <v>169</v>
       </c>
@@ -14305,6 +16497,12 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1380</v>
+      </c>
       <c r="C133" s="2" t="s">
         <v>171</v>
       </c>
@@ -14313,6 +16511,12 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1382</v>
+      </c>
       <c r="C134" s="2" t="s">
         <v>172</v>
       </c>
@@ -14321,6 +16525,12 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>1384</v>
+      </c>
       <c r="C135" s="2" t="s">
         <v>174</v>
       </c>
@@ -14329,26 +16539,56 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>1386</v>
+      </c>
       <c r="C136" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1388</v>
+      </c>
       <c r="C137" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1390</v>
+      </c>
       <c r="C138" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>1392</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1394</v>
+      </c>
       <c r="C140" s="2" t="s">
         <v>180</v>
       </c>
@@ -14357,16 +16597,34 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>1396</v>
+      </c>
       <c r="C141" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1398</v>
+      </c>
       <c r="C142" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1400</v>
+      </c>
       <c r="C143" s="2" t="s">
         <v>183</v>
       </c>
@@ -14375,11 +16633,23 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1402</v>
+      </c>
       <c r="C144" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1404</v>
+      </c>
       <c r="C145" s="2" t="s">
         <v>186</v>
       </c>
@@ -14387,7 +16657,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1405</v>
+      </c>
       <c r="C146" s="2" t="s">
         <v>187</v>
       </c>
@@ -14395,12 +16671,24 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>1407</v>
+      </c>
       <c r="C147" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1409</v>
+      </c>
       <c r="C148" s="2" t="s">
         <v>189</v>
       </c>
@@ -14408,22 +16696,46 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1411</v>
+      </c>
       <c r="C149" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1413</v>
+      </c>
       <c r="C150" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>1415</v>
+      </c>
       <c r="C151" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>1417</v>
+      </c>
       <c r="C152" s="2" t="s">
         <v>194</v>
       </c>
@@ -14431,7 +16743,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>1162</v>
+      </c>
       <c r="C153" s="2" t="s">
         <v>195</v>
       </c>
@@ -14439,7 +16757,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1419</v>
+      </c>
       <c r="C154" s="2" t="s">
         <v>198</v>
       </c>
@@ -14447,32 +16771,50 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1421</v>
+      </c>
       <c r="C155" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1423</v>
+      </c>
       <c r="C156" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>1425</v>
+      </c>
       <c r="C157" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C159" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" s="2" t="s">
         <v>205</v>
       </c>
@@ -18408,12 +20750,722 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="763" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C763" s="2" t="s">
+    <row r="763" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="6" t="s">
         <v>1375</v>
       </c>
       <c r="D763" s="5" t="s">
         <v>1376</v>
+      </c>
+    </row>
+    <row r="764" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C764" s="7" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="765" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C765" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="766" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C766" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="767" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C767" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D767" s="5" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="768" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C768" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D768" s="5" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="769" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C769" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D769" s="5" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="770" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C770" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D770" s="5" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="771" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C771" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D771" s="5" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="772" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C772" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D772" s="5" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="773" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C773" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="774" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C774" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="775" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C775" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D775" s="5" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="776" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C776" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="777" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C777" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D777" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="778" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C778" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D778" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="779" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C779" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D779" s="5" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="780" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C780" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D780" s="5" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="781" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C781" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D781" s="5" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="782" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C782" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D782" s="5" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="783" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C783" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D783" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="784" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C784" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D784" s="5" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="785" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C785" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="786" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C786" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="787" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C787" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="788" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C788" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="789" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C789" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="790" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C790" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="791" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C791" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="792" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C792" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D792" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="793" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C793" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D793" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="794" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C794" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="795" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C795" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="796" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C796" s="2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="797" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C797" s="2" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="798" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C798" s="2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="799" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C799" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="800" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C800" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="801" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C801" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="802" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C802" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="803" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C803" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="804" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C804" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D804" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="805" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C805" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D805" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="806" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C806" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D806" s="4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="807" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C807" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D807" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="808" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C808" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="809" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C809" s="2" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="810" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C810" s="2" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="811" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C811" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="812" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C812" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="813" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C813" s="2" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="814" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C814" s="2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="815" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C815" s="2" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="816" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C816" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D816" s="5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="817" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C817" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="818" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C818" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="819" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C819" s="2" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="820" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C820" s="2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="821" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C821" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D821" s="5" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="822" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C822" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D822" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="823" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C823" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="824" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C824" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D824" s="5" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="825" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C825" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D825" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="826" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C826" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="827" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C827" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="828" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C828" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="829" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C829" s="2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="830" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C830" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D830" s="4" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="831" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C831" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="832" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C832" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="833" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C833" s="2" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="834" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C834" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D834" s="5" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="835" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C835" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D835" s="4" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="836" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C836" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="837" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C837" s="2" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="838" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C838" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D838" s="5" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="839" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C839" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D839" s="4" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="840" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C840" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D840" s="5" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="841" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C841" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="842" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C842" s="2" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="843" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C843" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D843" s="5" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="844" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C844" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D844" s="5" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="845" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C845" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D845" s="5" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="846" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C846" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D846" s="5" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="847" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C847" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D847" s="10" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="848" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C848" s="2" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="849" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C849" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="850" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C850" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D850" s="5" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="851" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C851" s="2" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="852" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C852" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="853" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C853" s="2" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="854" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C854" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D854" s="5" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="855" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C855" s="2" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="856" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C856" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D856" s="4" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="857" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C857" s="2" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="858" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C858" s="2" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="859" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C859" s="2" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="860" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C860" s="2" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="861" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C861" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D861" s="5" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="862" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C862" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D862" s="4" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="863" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C863" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="864" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C864" s="2" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="865" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C865" s="2" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="866" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C866" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D866" s="5" t="s">
+        <v>1589</v>
       </c>
     </row>
   </sheetData>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330D810-A499-4A7C-A581-3635D38C5D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B878C1-4456-4DC1-BCF4-0F745489145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5196" yWindow="276" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5436" yWindow="252" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1787">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14438,6 +14438,2402 @@
   </si>
   <si>
     <t>disclose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>announced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lines of communication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通渠道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>secretary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘书</t>
+  </si>
+  <si>
+    <t>interests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>align</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使成一条直线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protesters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示威者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到高峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandemic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大流行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(flu pandemic)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deployment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>troop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immigration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outnumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数量上超过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> root out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cease-fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>militant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stalemate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>院落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵局, 僵持局面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析人士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激进(militant武装分子)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蝙蝠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球棒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球拍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拍子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敲打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打败</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>警棍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指挥棒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接力棒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abatement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减轻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消法令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作废</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unabated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不减弱的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embattled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处于交战中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严阵以待的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战舰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城垛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunbattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle-tasted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久经沙场的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle-weary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厌战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(weary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厌恶的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle-scarred</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战伤的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle-hardened</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身经百战的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combatant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好斗的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斗士</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noncombatant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非战斗人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好斗的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combativeness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-combat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex-combatant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前战斗人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折扣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扣除</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辩论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debatable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post-debate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>much-debated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辩论后的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备受争议的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>batter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连续猛击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捣碎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>糊状物</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery-operated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池供电的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含糊的说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小声抱怨</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>scrib|script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刻写</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nondescript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无明显特征的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难以形容的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misdescribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>describer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>describable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indescribable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indescribably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-described</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>便条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纸片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纸条</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄写员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作家</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄写的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scripture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手稿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scriptwriter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unscripted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用稿子的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scribble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潦草的书写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱写</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scribbler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潦草写字的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三流作家</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归咎于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归因于</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascriptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可归因于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>划定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscribed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限于空间的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>界限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>划界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被证入伍的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征兵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>征召入伍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铭记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刻写</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inscription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铭文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刻印</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题词</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开处方</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescribed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法定的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presctiptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约定俗成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>惯例的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剥夺权利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被禁止</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosctibed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proscription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剥夺人权</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赞成</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscriber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签署者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捐献者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscription-based</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于订阅的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transscribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄写</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transctiber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息转换器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成绩单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副本</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transcriptional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转录的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录音</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scribal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumscription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription-only</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription-durg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14897,10 +17293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F866"/>
+  <dimension ref="A1:F950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C855" workbookViewId="0">
-      <selection activeCell="C867" sqref="C867"/>
+    <sheetView tabSelected="1" topLeftCell="C927" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C947" sqref="C947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -16805,16 +19201,34 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1593</v>
+      </c>
       <c r="C158" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1595</v>
+      </c>
       <c r="C159" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>1597</v>
+      </c>
       <c r="C160" s="2" t="s">
         <v>205</v>
       </c>
@@ -16822,7 +19236,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>1599</v>
+      </c>
       <c r="C161" s="2" t="s">
         <v>207</v>
       </c>
@@ -16830,7 +19250,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>1601</v>
+      </c>
       <c r="C162" s="2" t="s">
         <v>208</v>
       </c>
@@ -16838,32 +19264,68 @@
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>1603</v>
+      </c>
       <c r="C163" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>1605</v>
+      </c>
       <c r="C164" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>1607</v>
+      </c>
       <c r="C165" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>1609</v>
+      </c>
       <c r="C166" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>1611</v>
+      </c>
       <c r="C167" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>1613</v>
+      </c>
       <c r="C168" s="2" t="s">
         <v>216</v>
       </c>
@@ -16871,7 +19333,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1615</v>
+      </c>
       <c r="C169" s="2" t="s">
         <v>217</v>
       </c>
@@ -16879,12 +19347,24 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1617</v>
+      </c>
       <c r="C170" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>1619</v>
+      </c>
       <c r="C171" s="2" t="s">
         <v>221</v>
       </c>
@@ -16892,22 +19372,46 @@
         <v>225</v>
       </c>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>1621</v>
+      </c>
       <c r="C172" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1623</v>
+      </c>
       <c r="C173" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>1625</v>
+      </c>
       <c r="C174" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>1627</v>
+      </c>
       <c r="C175" s="2" t="s">
         <v>226</v>
       </c>
@@ -16915,12 +19419,24 @@
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>1629</v>
+      </c>
       <c r="C176" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>1641</v>
+      </c>
       <c r="C177" s="2" t="s">
         <v>229</v>
       </c>
@@ -16928,7 +19444,13 @@
         <v>576</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1632</v>
+      </c>
       <c r="C178" s="2" t="s">
         <v>230</v>
       </c>
@@ -16936,7 +19458,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>1638</v>
+      </c>
       <c r="C179" s="2" t="s">
         <v>231</v>
       </c>
@@ -16944,7 +19472,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>1635</v>
+      </c>
       <c r="C180" s="2" t="s">
         <v>234</v>
       </c>
@@ -16952,7 +19486,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1637</v>
+      </c>
       <c r="C181" s="2" t="s">
         <v>235</v>
       </c>
@@ -16960,7 +19500,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1640</v>
+      </c>
       <c r="C182" s="2" t="s">
         <v>237</v>
       </c>
@@ -16968,17 +19514,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C183" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="184" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C184" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="185" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C185" s="2" t="s">
         <v>247</v>
       </c>
@@ -16986,37 +19532,37 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C188" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C189" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C190" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C191" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C192" s="2" t="s">
         <v>255</v>
       </c>
@@ -21460,13 +24006,623 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="866" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C866" s="2" t="s">
+    <row r="866" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="6" t="s">
         <v>1588</v>
       </c>
       <c r="D866" s="5" t="s">
         <v>1589</v>
       </c>
+    </row>
+    <row r="867" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C867" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D867" s="4" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="868" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C868" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D868" s="4" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="869" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C869" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D869" s="4" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="870" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C870" s="2" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="871" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C871" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="872" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C872" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D872" s="4" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="873" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C873" s="2" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="874" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C874" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D874" s="5" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="875" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C875" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D875" s="4" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="876" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C876" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D876" s="5" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="877" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C877" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D877" s="5" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="878" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C878" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D878" s="5" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="879" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C879" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D879" s="5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="880" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C880" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D880" s="4" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="881" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C881" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D881" s="5" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="882" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C882" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D882" s="5" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="883" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C883" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D883" s="4" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="884" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C884" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D884" s="5" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="885" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C885" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D885" s="5" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="886" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C886" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D886" s="5" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="887" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C887" s="2" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="888" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C888" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D888" s="5" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="889" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C889" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="890" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C890" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="891" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C891" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="892" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C892" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="893" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C893" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D893" s="5" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="894" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C894" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D894" s="5" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="895" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C895" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="896" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C896" s="2" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="897" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C897" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D897" s="5" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="898" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C898" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="899" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C899" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D899" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="900" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C900" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D900" s="4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="901" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C901" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D901" s="5" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="902" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C902" s="2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="903" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C903" s="2" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="904" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C904" s="2" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="905" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C905" s="2" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="906" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C906" s="2" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="907" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C907" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="908" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C908" s="2" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="909" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C909" s="2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="910" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C910" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="911" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C911" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="912" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C912" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D912" s="4" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="913" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C913" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D913" s="5" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="914" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C914" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="915" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C915" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D915" s="5" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="916" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C916" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D916" s="5" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="917" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C917" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D917" s="5" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="918" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C918" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D918" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="919" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C919" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D919" s="4" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="920" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C920" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="921" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C921" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D921" s="4" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="922" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C922" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D922" s="5" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="923" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C923" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D923" s="4" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="924" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C924" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D924" s="4" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="925" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C925" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D925" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="926" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C926" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D926" s="4" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="927" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C927" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D927" s="4" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="928" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C928" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D928" s="4" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="929" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C929" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D929" s="5" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="930" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C930" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D930" s="4" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="931" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C931" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D931" s="4" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="932" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C932" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D932" s="4" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="933" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C933" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D933" s="4" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="934" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C934" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D934" s="5" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="935" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C935" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D935" s="5" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="936" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C936" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D936" s="5" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="937" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C937" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D937" s="4" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="938" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C938" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D938" s="4" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="939" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C939" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="940" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C940" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D940" s="4" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="941" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C941" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D941" s="4" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="942" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C942" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D942" s="4" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="943" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C943" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="944" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C944" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D944" s="5" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="945" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C945" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D945" s="4" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="946" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C946" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D946" s="4" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="947" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C947" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D947" s="4" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="948" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C948" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D948" s="5" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="949" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="6" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D949" s="4" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="950" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C950" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B878C1-4456-4DC1-BCF4-0F745489145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0AAF10-4097-44DB-9F87-AAD02FA6B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5436" yWindow="252" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5508" yWindow="408" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1969">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -16834,6 +16834,2014 @@
   </si>
   <si>
     <t>prescription-durg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jury</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪审团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charges against</t>
+  </si>
+  <si>
+    <t>指控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>convict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诈骗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caonspiracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广受关注的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>white-collar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白领</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判…有罪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(conviction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定罪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>woe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻烦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inherently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内在的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流氓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>airstrike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空袭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>operative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slowdown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放缓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>straight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stretch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段时期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tepid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不温不火的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不友好的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法庭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻拦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bar|bal|ban </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表长木条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻碍</t>
+    </r>
+  </si>
+  <si>
+    <t>barkeep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒吧间老板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开酒吧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barista</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖啡师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖啡吧员</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barmaid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吧女侍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒吧店主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒吧间招待员</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bartender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吧招待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barstool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吧高脚凳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolbar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar-code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskbar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务栏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>障碍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrier-free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无障碍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barricade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路障</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>街垒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被禁的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>横幅广告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旗帜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放逐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱逐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banishment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平庸的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈腐的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平凡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈腐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使局促不安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrassment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尴尬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrassed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unembarrassed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不尴尬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrassing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embarrassingly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbalance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbalanced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imbalanced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-balanced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>off-balance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通情达理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterbalance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平衡力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抵消</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>balancer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平衡器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走钢丝者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overbalance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandoned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandonment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>abandon oneself to doing(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉浸于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banquet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宴会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装入桶中</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barreled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>over the barrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同于受支配的地位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embargo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止发表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止贸易</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贫瘠的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不孕的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无价值的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不毛之地</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrenness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不孕症</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>荒芜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrister</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阻止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防止</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbecue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烤架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烧烤</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> barbaric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野蛮的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粗俗的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野蛮人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野蛮人的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残暴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>野蛮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbarize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使野蛮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变粗俗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankbook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存折</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banknote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-bank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contraband</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走私</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁运的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走私货</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountebank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江湖郎中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骗子</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riverbank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河堤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apollo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿波罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脉搏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脉动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲发生器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulsatile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(pepuls|peal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表推动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impeller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推进者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叶轮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impluse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凭冲动行事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脉冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲动的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulsion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原动力</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulsive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulsively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulsiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易冲动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17293,10 +19301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F950"/>
+  <dimension ref="A1:F1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C927" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C947" sqref="C947"/>
+    <sheetView tabSelected="1" topLeftCell="C1005" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1031" sqref="C1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -19515,16 +21523,34 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1788</v>
+      </c>
       <c r="C183" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>1790</v>
+      </c>
       <c r="C184" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1800</v>
+      </c>
       <c r="C185" s="2" t="s">
         <v>247</v>
       </c>
@@ -19533,41 +21559,89 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1793</v>
+      </c>
       <c r="C186" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>1795</v>
+      </c>
       <c r="C187" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>1797</v>
+      </c>
       <c r="C188" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>1799</v>
+      </c>
       <c r="C189" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1802</v>
+      </c>
       <c r="C190" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>1804</v>
+      </c>
       <c r="C191" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>969</v>
+      </c>
       <c r="C192" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>1806</v>
+      </c>
       <c r="C193" s="2" t="s">
         <v>256</v>
       </c>
@@ -19575,7 +21649,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1808</v>
+      </c>
       <c r="C194" s="2" t="s">
         <v>258</v>
       </c>
@@ -19583,7 +21663,13 @@
         <v>402</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>1810</v>
+      </c>
       <c r="C195" s="2" t="s">
         <v>259</v>
       </c>
@@ -19591,7 +21677,13 @@
         <v>401</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>1812</v>
+      </c>
       <c r="C196" s="2" t="s">
         <v>263</v>
       </c>
@@ -19599,27 +21691,57 @@
         <v>261</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>1814</v>
+      </c>
       <c r="C197" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>1815</v>
+      </c>
       <c r="C198" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>1818</v>
+      </c>
       <c r="C199" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>1820</v>
+      </c>
       <c r="C200" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>1822</v>
+      </c>
       <c r="C201" s="2" t="s">
         <v>266</v>
       </c>
@@ -19627,7 +21749,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>1824</v>
+      </c>
       <c r="C202" s="2" t="s">
         <v>267</v>
       </c>
@@ -19635,12 +21763,24 @@
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>1826</v>
+      </c>
       <c r="C203" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>1828</v>
+      </c>
       <c r="C204" s="2" t="s">
         <v>271</v>
       </c>
@@ -19648,22 +21788,28 @@
         <v>272</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1830</v>
+      </c>
       <c r="C205" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C206" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C207" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C208" s="2" t="s">
         <v>273</v>
       </c>
@@ -24581,7 +26727,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="945" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C945" s="2" t="s">
         <v>1772</v>
       </c>
@@ -24589,7 +26735,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="946" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C946" s="2" t="s">
         <v>1774</v>
       </c>
@@ -24597,7 +26743,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="947" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C947" s="2" t="s">
         <v>1776</v>
       </c>
@@ -24605,7 +26751,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="948" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C948" s="2" t="s">
         <v>1779</v>
       </c>
@@ -24613,7 +26759,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="949" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C949" s="6" t="s">
         <v>1778</v>
       </c>
@@ -24621,8 +26767,584 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="950" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C950" s="7"/>
+    <row r="950" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C950" s="7" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D950" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="951" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C951" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D951" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="952" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C952" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D952" s="4" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="953" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C953" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D953" s="5" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="954" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C954" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D954" s="4" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="955" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C955" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D955" s="5" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="956" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C956" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="957" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C957" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D957" s="5" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="958" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C958" s="2" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="959" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C959" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D959" s="5" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="960" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C960" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D960" s="5" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="961" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C961" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D961" s="5" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="962" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C962" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D962" s="4" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="963" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C963" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D963" s="5" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="964" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C964" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D964" s="4" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="965" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C965" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D965" s="5" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="966" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C966" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D966" s="5" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="967" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C967" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D967" s="4" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="968" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C968" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D968" s="4" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="969" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C969" s="2" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="970" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C970" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D970" s="4" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="971" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C971" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D971" s="4" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="972" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C972" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D972" s="5" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="973" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C973" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D973" s="5" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="974" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C974" s="2" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="975" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C975" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D975" s="5" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="976" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C976" s="2" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="977" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C977" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="978" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C978" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="979" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C979" s="2" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="980" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C980" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="981" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C981" s="2" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="982" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C982" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D982" s="5" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="983" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C983" s="2" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="984" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C984" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D984" s="4" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="985" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C985" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D985" s="4" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="986" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C986" s="2" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="987" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C987" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="988" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C988" s="2" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="989" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C989" s="2" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="990" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C990" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D990" s="5" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="991" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C991" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="992" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C992" s="2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="993" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C993" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D993" s="5" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="994" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C994" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="995" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C995" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="996" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C996" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="997" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C997" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D997" s="5" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="998" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C998" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="999" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C999" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1000" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1000" s="4" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1001" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1001" s="2" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1002" s="2" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1003" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D1003" s="4" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1004" s="2" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1005" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1006" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D1006" s="4" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1007" s="2" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1008" s="2" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1009" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D1009" s="5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1010" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1010" s="5" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1011" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D1011" s="5" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1012" s="2" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1013" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D1013" s="4" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1014" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D1014" s="4" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1015" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D1015" s="5" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1016" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D1016" s="5" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1017" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D1017" s="4" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1018" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D1018" s="5" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1019" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D1019" s="5" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1020" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D1020" s="5" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1021" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D1021" s="5" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1022" s="2" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1023" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D1023" s="5" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1024" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D1024" s="4" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1025" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D1025" s="4" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1026" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D1026" s="4" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1027" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1027" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D1027" s="4" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1028" s="2" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1029" s="2" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1030" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D1030" s="5" t="s">
+        <v>1968</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2E45A-E9F3-47AF-9BF3-5A1EC2CAA326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD83DF1-3F0F-40A7-8441-908B530D476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="0" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5376" yWindow="624" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="2159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="2326">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -21775,6 +21775,1915 @@
       </rPr>
       <t>令人鼓舞的</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>off-duty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休班的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attempted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未遂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>murder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谋杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allegedly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据宣称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cockpit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump seat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠式座椅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disrupt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扰乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中断</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abortion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堕胎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流产</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ended</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restriction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telemedicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程医疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail-order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>former</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> election</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选举</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosecutor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检察官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监狱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(jail time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐牢)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灌注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洒遍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>散布</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很多的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丰富的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慷慨的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浪费的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumfuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充溢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>围绕</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumfluent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周流的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环流的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弥漫</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灌输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注入</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood transfusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interfuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混合</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pend|pens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表 挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从属</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undependable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-dependent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>codependency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdependence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度依赖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug-dependent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>context-dependent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature-dependent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴茎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semi-independent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半独立的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro-independence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倾向独立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持独立的人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent-minded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有主见的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independence Day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国独立日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Declaration of independence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立宣言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independence Movement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interdepend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>co-dependent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interdependence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interdependency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interdependent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互依赖的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悬念</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>延缓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推迟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悬浮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁赛</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspenseful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悬疑的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>焦急不安的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>悬挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中指</t>
+    </r>
+  </si>
+  <si>
+    <t>suspensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspended</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬浮的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspenders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吊带裤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>裤子背带</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>append</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阑尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附加物</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendictis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阑尾炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appendectomy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阑尾切除手术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即将发生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即将来临</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impendent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬而未决的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未决定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悬垂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>悬而未决</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垂饰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendulum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钟摆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendulous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下垂的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>度过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消磨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浪费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥霍者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outspend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overspend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开支比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更大</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misspend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浪费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滥用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spendthrift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥霍无度的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浪费的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>free-spending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥金如土的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-spending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高消费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>花费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用光</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enpended</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expendable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消费额</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-expense-paid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>费用全被支付的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免费的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昂贵的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高档的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expensively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inexpensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -22234,10 +24143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1121"/>
+  <dimension ref="A1:F1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1121" sqref="C1121"/>
+    <sheetView tabSelected="1" topLeftCell="C1176" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1200" sqref="D1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -24933,18 +26842,33 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>7</v>
+        <v>2159</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>2160</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>2162</v>
+      </c>
       <c r="C224" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>2164</v>
+      </c>
       <c r="C225" s="2" t="s">
         <v>294</v>
       </c>
@@ -24952,7 +26876,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>2166</v>
+      </c>
       <c r="C226" s="2" t="s">
         <v>295</v>
       </c>
@@ -24960,7 +26890,13 @@
         <v>296</v>
       </c>
     </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>2168</v>
+      </c>
       <c r="C227" s="2" t="s">
         <v>298</v>
       </c>
@@ -24968,42 +26904,90 @@
         <v>299</v>
       </c>
     </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>2170</v>
+      </c>
       <c r="C228" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>2172</v>
+      </c>
       <c r="C229" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>2174</v>
+      </c>
       <c r="C230" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>2176</v>
+      </c>
       <c r="C231" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>2178</v>
+      </c>
       <c r="C232" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>2180</v>
+      </c>
       <c r="C233" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>2182</v>
+      </c>
       <c r="C234" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>2184</v>
+      </c>
       <c r="C235" s="2" t="s">
         <v>307</v>
       </c>
@@ -25011,7 +26995,13 @@
         <v>308</v>
       </c>
     </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>2186</v>
+      </c>
       <c r="C236" s="2" t="s">
         <v>309</v>
       </c>
@@ -25019,22 +27009,46 @@
         <v>310</v>
       </c>
     </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>2188</v>
+      </c>
       <c r="C237" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>2190</v>
+      </c>
       <c r="C238" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>2192</v>
+      </c>
       <c r="C239" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>2194</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>314</v>
       </c>
@@ -25042,27 +27056,30 @@
         <v>315</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C241" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C242" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C243" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C244" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C245" s="2" t="s">
         <v>320</v>
       </c>
@@ -25070,12 +27087,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C246" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C247" s="2" t="s">
         <v>323</v>
       </c>
@@ -25083,7 +27100,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C248" s="2" t="s">
         <v>324</v>
       </c>
@@ -25091,7 +27108,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C249" s="2" t="s">
         <v>327</v>
       </c>
@@ -25099,27 +27116,27 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C250" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C251" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C252" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C253" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C254" s="2" t="s">
         <v>333</v>
       </c>
@@ -25127,7 +27144,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C255" s="2" t="s">
         <v>335</v>
       </c>
@@ -25135,7 +27152,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
         <v>337</v>
       </c>
@@ -31050,8 +33067,561 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="1121" spans="3:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1121" s="7"/>
+    <row r="1121" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1121" s="7" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1122" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1123" s="2" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1124" s="2" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1125" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1126" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1127" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1128" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1129" s="2" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1130" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1131" s="2" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1132" s="2" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1133" s="2" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1134" s="2" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1135" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1136" s="2" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1137" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1138" s="2" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1139" s="2" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1140" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1141" s="2" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1142" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D1142" s="5" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1143" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1144" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1145" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1146" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D1146" s="5" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1147" s="2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1148" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1149" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D1149" s="5" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1150" s="2" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D1150" s="5" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1151" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D1151" s="5" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1152" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1153" s="2" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D1153" s="5" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1154" s="2" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D1154" s="5" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1155" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1155" s="5" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1156" s="2" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1157" s="2" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1158" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1159" s="2" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1160" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D1160" s="5" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1161" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1162" s="2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1162" s="4" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1163" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1163" s="4" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1164" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D1164" s="10" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1165" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D1165" s="5" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1166" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1166" s="5" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1167" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D1167" s="4" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1168" s="2" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D1168" s="5" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="1169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1169" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D1169" s="5" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1170" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D1170" s="4" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="1171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1171" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1171" s="5" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1172" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1172" s="5" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="1173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1173" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D1173" s="4" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="1174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1174" s="2" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="1175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1175" s="2" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="1176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1176" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D1176" s="5" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1177" s="2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1177" s="5" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1178" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D1178" s="4" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1179" s="2" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D1179" s="4" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1180" s="2" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1180" s="4" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1181" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D1181" s="5" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1182" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D1182" s="4" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1183" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D1183" s="5" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="1184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1184" s="2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D1184" s="4" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1185" s="2" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="1186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1186" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D1186" s="4" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="1187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1187" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="1188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1188" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D1188" s="5" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="1189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1189" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D1189" s="5" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1190" s="2" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1191" s="2" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D1191" s="5" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="1192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1192" s="2" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="1193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1193" s="2" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D1193" s="4" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="1194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1194" s="2" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1195" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="1196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1196" s="2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1196" s="4" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1197" s="2" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1198" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1198" s="6" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D1198" s="5" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1199" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1199" s="7"/>
+      <c r="D1199" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD83DF1-3F0F-40A7-8441-908B530D476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662994DA-B3F1-4240-AEA5-853C8E40AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5376" yWindow="624" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12192" yWindow="264" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="2326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="2508">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -23684,6 +23684,2088 @@
   </si>
   <si>
     <t>便宜的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修剪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recession</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  odd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recede</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proceed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>further</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monetary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tighten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收紧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肯定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steady</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳重, 稳定, 稳住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>captive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被俘的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kidnap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票否决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paralysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘫痪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>representative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>over-the-counter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非处方的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>determined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退休金, 抚恤金, 津贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensioner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领养老金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抚恤金者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分发</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispensation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indispensable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indispensability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可或缺的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>necessary)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补偿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔偿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抵消</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensatory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncompensated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcompensate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcompensatation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-compensated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得充分赔偿的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perpend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慎重考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仔细考虑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仔细考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衡量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉思</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponderable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可衡量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可估量的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imponderable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法计算的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无重量的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preponderabce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占优势</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preponderant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>突出的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压倒性的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponderous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉重的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笨重的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呆板的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponderously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笨重地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单板地</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sim|sem|simil|sembl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>像</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仿性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似物</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissimilar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不一样的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissimilarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissimilate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使变得不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissimilation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disimilitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disimulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装糊涂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disimulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模仿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假装</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer-simulated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机模拟的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模拟的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仿造的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimilation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimilator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimilatative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时发生的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同时存在的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simultaneity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verisimilar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>似乎是真的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>貌似真实的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verisimilitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resumblance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似之处</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resemblant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收集</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇编程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇编机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装配工</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组合的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reassemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新装配, 重新召集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reassimbly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assembly line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissemble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">拆开, 废除 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissembled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissembly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subassembly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unassembled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未装配的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-assembled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预装配的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-assembly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行组装的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明喻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symphony</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交响乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交响曲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交响乐团</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symphonic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交响乐的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和声的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共栖</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbiosis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbiotic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共生的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbiotically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbiote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共生生物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbiont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共生者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>synonym</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同义词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>症状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptomless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无症状的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptomatic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有症状的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymptomatic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptomatically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptom-free</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无症状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symmetry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整齐</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不对称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symmetrical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetrical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symmetrically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asymmetrically</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -24143,10 +26225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1199"/>
+  <dimension ref="A1:F1283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1176" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1200" sqref="D1200"/>
+    <sheetView tabSelected="1" topLeftCell="C1266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1284" sqref="C1284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -27058,28 +29140,55 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>7</v>
+        <v>2326</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>2327</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>2329</v>
+      </c>
       <c r="C242" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>2331</v>
+      </c>
       <c r="C243" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>2333</v>
+      </c>
       <c r="C244" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>2335</v>
+      </c>
       <c r="C245" s="2" t="s">
         <v>320</v>
       </c>
@@ -27088,11 +29197,23 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>2337</v>
+      </c>
       <c r="C246" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="C247" s="2" t="s">
         <v>323</v>
       </c>
@@ -27101,6 +29222,12 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>2340</v>
+      </c>
       <c r="C248" s="2" t="s">
         <v>324</v>
       </c>
@@ -27109,6 +29236,12 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>2342</v>
+      </c>
       <c r="C249" s="2" t="s">
         <v>327</v>
       </c>
@@ -27117,26 +29250,56 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>2344</v>
+      </c>
       <c r="C250" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>2345</v>
+      </c>
       <c r="C251" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>2347</v>
+      </c>
       <c r="C252" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>2349</v>
+      </c>
       <c r="C253" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="C254" s="2" t="s">
         <v>333</v>
       </c>
@@ -27145,6 +29308,12 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>2352</v>
+      </c>
       <c r="C255" s="2" t="s">
         <v>335</v>
       </c>
@@ -27153,31 +29322,67 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>2354</v>
+      </c>
       <c r="C256" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>2356</v>
+      </c>
       <c r="C257" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>2358</v>
+      </c>
       <c r="C258" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>2360</v>
+      </c>
       <c r="C259" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>2362</v>
+      </c>
       <c r="C260" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>2364</v>
+      </c>
       <c r="C261" s="2" t="s">
         <v>342</v>
       </c>
@@ -27185,37 +29390,49 @@
         <v>343</v>
       </c>
     </row>
-    <row r="262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>2366</v>
+      </c>
       <c r="C262" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>2368</v>
+      </c>
       <c r="C263" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C264" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C265" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="266" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C266" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="267" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C267" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="268" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C268" s="2" t="s">
         <v>350</v>
       </c>
@@ -27223,12 +29440,12 @@
         <v>352</v>
       </c>
     </row>
-    <row r="269" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C269" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="270" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C270" s="2" t="s">
         <v>353</v>
       </c>
@@ -27236,7 +29453,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="271" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C271" s="2" t="s">
         <v>355</v>
       </c>
@@ -27244,7 +29461,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="272" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C272" s="2" t="s">
         <v>356</v>
       </c>
@@ -33620,8 +35837,597 @@
       </c>
     </row>
     <row r="1199" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1199" s="7"/>
-      <c r="D1199" s="5"/>
+      <c r="C1199" s="7" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D1199" s="5" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1200" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1201" s="2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D1201" s="4" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1202" s="2" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="1203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1203" s="2" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="1204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1204" s="2" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1205" s="2" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="1206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1206" s="2" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1207" s="2" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D1207" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1208" s="2" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1209" s="2" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1210" s="2" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="1211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1211" s="2" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D1211" s="5" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="1212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1212" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D1212" s="4" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1213" s="2" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D1213" s="4" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="1214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1214" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1214" s="4" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="1215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1215" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D1215" s="4" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="1216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1216" s="2" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D1216" s="4" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1217" s="2" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D1217" s="4" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1218" s="2" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1218" s="4" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1219" s="2" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D1219" s="4" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1220" s="2" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1220" s="1" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1221" s="2" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1222" s="2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D1222" s="4" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1223" s="2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D1223" s="4" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1224" s="2" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D1224" s="4" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1225" s="2" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="1226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1226" s="2" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D1226" s="5" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1227" s="2" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1228" s="2" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="1229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1229" s="2" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D1229" s="4" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1230" s="2" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1231" s="2" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D1231" s="4" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1232" s="2" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1233" s="2" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1234" s="2" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D1234" s="4" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1235" s="2" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1235" s="5" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1236" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D1236" s="4" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="1237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1237" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D1237" s="4" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="1238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1238" s="2" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1239" s="2" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1240" s="2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1240" s="4" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1241" s="2" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="1242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1242" s="2" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1243" s="2" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D1243" s="4" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1244" s="2" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1245" s="2" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D1245" s="4" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="1246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1246" s="2" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D1246" s="4" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="1247" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1247" s="2" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D1247" s="5" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="1248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1248" s="2" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D1248" s="4" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1249" s="2" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1250" s="2" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1251" s="2" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D1251" s="4" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="1252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1252" s="2" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D1252" s="4" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="1253" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1253" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D1253" s="5" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="1254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1254" s="2" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="1255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1255" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1255" s="5" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="1256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1256" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1256" s="5" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1257" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1257" s="2" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1258" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1258" s="2" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="1259" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1259" s="2" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D1259" s="4" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1260" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1260" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D1260" s="5" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1261" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1261" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D1261" s="5" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1262" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1262" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D1262" s="5" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1263" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1263" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D1263" s="5" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1264" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1264" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D1264" s="4" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1265" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1265" s="2" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D1265" s="4" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1266" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1266" s="2" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D1266" s="4" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="1267" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1267" s="2" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1267" s="5" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1268" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1268" s="2" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1269" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1269" s="2" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D1269" s="5" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1270" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1270" s="2" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D1270" s="5" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1271" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1271" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D1271" s="5" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1272" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1272" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D1272" s="5" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1273" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D1273" s="5" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1274" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D1274" s="5" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1275" s="2" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1275" s="5" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1276" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1276" s="2" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1277" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1277" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D1277" s="5" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1278" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1278" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D1278" s="4" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="1279" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1279" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D1279" s="5" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="1280" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1280" s="2" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1281" s="2" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="1282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1282" s="2" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1283" s="2" t="s">
+        <v>2507</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662994DA-B3F1-4240-AEA5-853C8E40AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB4229-6D3F-49AB-ABEB-A6FD4E5041E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12192" yWindow="264" windowWidth="10692" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11112" yWindow="300" windowWidth="11328" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="2508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="2753">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -25766,6 +25766,2545 @@
   </si>
   <si>
     <t>asymmetrically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>axisymmertric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴对称的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple-minded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头脑简单的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使单纯</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplistic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplistically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度简化的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversimplify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过分的简化了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversimplified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversimplification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>象征</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbolization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号学(logy表..学)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vis|vid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表看</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得访问的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visiting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revisit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>televise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由电视播送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收看</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>television</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>televisual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明白的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迹象</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence-based</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于证据的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证据的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidentiary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证据的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-evident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不言而喻的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-evidently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adviser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顾问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劝告者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问, 劝告者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可取的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明智的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明智的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劝告的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inadvisable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失策的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-advised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明智的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很细心的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ill-advised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没脑筋的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劝告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忠告</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>v.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提议</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修订</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修订</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revisionist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正主义者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revisionism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revisionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看得见的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明显的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显然</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invisible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不见的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invisibly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible-light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视觉的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光学的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形象化的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visually</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visualize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visualized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visualization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形象化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可视化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonvisual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非可视的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio-visual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视听的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视听教学的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监督</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervising</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有监管的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisiory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监督行为</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsupervised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人监督的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无人管理的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveillance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监督</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监视</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即兴创作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即兴表演</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improviser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即兴诗人|创作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvisation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvisational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvisatory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>improvised</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预测</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深谋远虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远见</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>providence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有远见的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improvident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无远见的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videophone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videocast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视广播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videotape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录像带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videodisc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影碟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>videocam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄录机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video-game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>video-based</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio-video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home-video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>music-video</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签发签证</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幻影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝妙的东西</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空想的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幻想的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>night-vision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low-vision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低视力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invidious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起反感的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invidiously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>envision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>envisage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预想</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>vt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>想象</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勘测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审视</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveyor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resurvey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再勘察</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再调查</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>side-view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean-view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewpoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视角</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point-of-view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采访</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接见</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviewer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主考官</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviewee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被访问者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被接见者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指责</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重塑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unite around</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结在周围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>republicans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共和党人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>right-wing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右翼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard-liner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强硬派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chamber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>议院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尝试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竞投</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>候选人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproductive age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sufficient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充足的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficiency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undiagnosed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未诊断的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightheadedness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disturbance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anemia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blame</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -26225,10 +28764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1283"/>
+  <dimension ref="A1:F1403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1266" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1284" sqref="C1284"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -29413,26 +31952,56 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>2708</v>
+      </c>
       <c r="C264" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>2709</v>
+      </c>
       <c r="C265" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>2711</v>
+      </c>
       <c r="C266" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>2713</v>
+      </c>
       <c r="C267" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>2715</v>
+      </c>
       <c r="C268" s="2" t="s">
         <v>350</v>
       </c>
@@ -29441,11 +32010,23 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>2717</v>
+      </c>
       <c r="C269" s="2" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>2719</v>
+      </c>
       <c r="C270" s="2" t="s">
         <v>353</v>
       </c>
@@ -29454,6 +32035,12 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>2721</v>
+      </c>
       <c r="C271" s="2" t="s">
         <v>355</v>
       </c>
@@ -29462,16 +32049,34 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>2723</v>
+      </c>
       <c r="C272" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>2725</v>
+      </c>
       <c r="C273" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>2727</v>
+      </c>
       <c r="C274" s="2" t="s">
         <v>359</v>
       </c>
@@ -29479,12 +32084,24 @@
         <v>360</v>
       </c>
     </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>2729</v>
+      </c>
       <c r="C275" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="276" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>2730</v>
+      </c>
       <c r="C276" s="2" t="s">
         <v>362</v>
       </c>
@@ -29492,22 +32109,46 @@
         <v>363</v>
       </c>
     </row>
-    <row r="277" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>2733</v>
+      </c>
       <c r="C277" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="278" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>2735</v>
+      </c>
       <c r="C278" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="279" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>2737</v>
+      </c>
       <c r="C279" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="280" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>2739</v>
+      </c>
       <c r="C280" s="2" t="s">
         <v>367</v>
       </c>
@@ -29515,7 +32156,13 @@
         <v>368</v>
       </c>
     </row>
-    <row r="281" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>2741</v>
+      </c>
       <c r="C281" s="2" t="s">
         <v>369</v>
       </c>
@@ -29523,7 +32170,13 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>2743</v>
+      </c>
       <c r="C282" s="2" t="s">
         <v>370</v>
       </c>
@@ -29531,7 +32184,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="283" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>2745</v>
+      </c>
       <c r="C283" s="2" t="s">
         <v>372</v>
       </c>
@@ -29539,27 +32198,45 @@
         <v>374</v>
       </c>
     </row>
-    <row r="284" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>2747</v>
+      </c>
       <c r="C284" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>2749</v>
+      </c>
       <c r="C285" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>2751</v>
+      </c>
       <c r="C286" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="287" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C287" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="288" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C288" s="2" t="s">
         <v>378</v>
       </c>
@@ -36414,20 +39091,870 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="1281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1281" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1281" s="2" t="s">
         <v>2505</v>
       </c>
     </row>
-    <row r="1282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1282" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C1282" s="2" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="1283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1283" s="2" t="s">
+    <row r="1283" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1283" s="6" t="s">
         <v>2507</v>
       </c>
+    </row>
+    <row r="1284" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1284" s="7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D1284" s="5" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="1285" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1285" s="2" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1286" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1286" s="2" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1286" s="5" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1287" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1287" s="2" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="1288" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1288" s="2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D1288" s="4" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="1289" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1289" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D1289" s="5" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="1290" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1290" s="2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D1290" s="5" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1291" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1291" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D1291" s="5" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1292" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1292" s="2" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1293" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1293" s="2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D1293" s="4" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1294" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1294" s="2" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="1295" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1295" s="2" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1296" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1296" s="2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D1296" s="4" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1297" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1297" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1297" s="5" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1298" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1298" s="2" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="1299" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1299" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1299" s="5" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="1300" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1300" s="2" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1301" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1301" s="2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1301" s="5" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1302" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1302" s="2" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="1303" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1303" s="2" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1303" s="5" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1304" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1304" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D1304" s="1" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1305" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1305" s="2" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1306" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1306" s="2" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D1306" s="5" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1307" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1307" s="2" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1308" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1308" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D1308" s="5" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1309" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1309" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D1309" s="5" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1310" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1310" s="2" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1310" s="4" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1311" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1311" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1312" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1312" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D1312" s="5" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1313" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1313" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1313" s="4" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1314" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1314" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D1314" s="4" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1315" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1315" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1315" s="5" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1316" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1316" s="2" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1317" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1317" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1317" s="5" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1318" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1318" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D1318" s="4" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1319" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1319" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1319" s="5" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1320" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1320" s="2" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="1321" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1321" s="2" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D1321" s="4" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1322" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1322" s="2" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D1322" s="4" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="1323" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1323" s="2" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D1323" s="5" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1324" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1324" s="2" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D1324" s="4" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1325" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1325" s="2" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D1325" s="4" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1326" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1326" s="2" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D1326" s="5" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1327" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1327" s="2" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1327" s="4" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1328" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1328" s="2" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1328" s="5" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1329" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1329" s="2" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1329" s="4" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1330" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1330" s="2" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D1330" s="4" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1331" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1331" s="2" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D1331" s="5" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1332" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1332" s="2" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1332" s="4" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1333" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1333" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1333" s="5" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1334" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1334" s="2" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1335" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1335" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1335" s="5" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1336" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1336" s="2" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1336" s="4" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1337" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1337" s="2" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D1337" s="4" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1338" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1338" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D1338" s="5" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1339" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1339" s="2" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1340" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1340" s="2" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1340" s="5" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1341" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1341" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D1341" s="4" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1342" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1342" s="2" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1343" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1343" s="2" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1344" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1344" s="2" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1345" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1345" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1345" s="4" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1346" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1346" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D1346" s="5" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1347" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1347" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1347" s="5" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1348" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1348" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D1348" s="4" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1349" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1349" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1349" s="4" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1350" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1350" s="2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D1350" s="5" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1351" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1351" s="2" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D1351" s="5" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1352" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1352" s="2" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1353" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1353" s="2" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1354" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1354" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1354" s="4" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1355" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1355" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D1355" s="4" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1356" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1356" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D1356" s="1" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1357" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1357" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D1357" s="4" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1358" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1358" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D1358" s="5" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1359" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1359" s="2" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1360" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1360" s="2" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="1361" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1361" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1361" s="4" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1362" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1362" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D1362" s="4" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1363" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1363" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D1363" s="4" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1364" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1364" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D1364" s="4" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1365" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1365" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D1365" s="4" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1366" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1366" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1366" s="5" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1367" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1367" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1367" s="5" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1368" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1368" s="2" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1369" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1369" s="2" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1370" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1370" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D1370" s="5" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1371" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1371" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D1371" s="5" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1372" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1372" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1372" s="5" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1373" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1373" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D1373" s="5" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1374" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1374" s="2" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1375" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1375" s="2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1376" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1376" s="2" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1377" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1377" s="2" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1378" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1378" s="2" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1379" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1379" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D1379" s="4" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1380" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1380" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D1380" s="4" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1381" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1381" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1381" s="4" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1382" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1382" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D1382" s="5" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1383" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1383" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D1383" s="5" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1384" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1384" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D1384" s="4" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1385" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1385" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D1385" s="5" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1386" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1386" s="2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1387" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1387" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1387" s="4" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1388" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1388" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="D1388" s="4" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1389" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1389" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D1389" s="4" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1390" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1390" s="2" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1391" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1391" s="2" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1392" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1392" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D1392" s="4" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1393" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1393" s="2" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1394" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1394" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D1394" s="5" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1395" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1395" s="2" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1396" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1396" s="2" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1397" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1397" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1397" s="5" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1398" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1398" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D1398" s="4" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1399" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1399" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D1399" s="5" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1400" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1400" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1400" s="4" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1401" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1401" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D1401" s="4" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1402" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1402" s="6" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D1402" s="4" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1403" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1403" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB4229-6D3F-49AB-ABEB-A6FD4E5041E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9193DD9-C4A1-49E3-8BF0-FBD47367F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11112" yWindow="300" windowWidth="11328" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5556" yWindow="144" windowWidth="11328" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="2753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="2973">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -28305,6 +28305,2049 @@
   </si>
   <si>
     <t>blame</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanitarian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人道主义的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crisis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>densely-populated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口稠密的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bone-chilling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺骨寒冷的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧迫的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bombardment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enclave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underscore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凸显</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>death sentence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclipse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日蚀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feast</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盛宴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>享受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欣赏</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>celestial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marvel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环状的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hemisphere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火红的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>halo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>retina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视网膜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domonate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明确指出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明确的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特异性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specifically</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spcification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明书</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spcified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细说明的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unspecific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未指明的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不具体的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unspecified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点场地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具体性别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对不同性别的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定领域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限于特定年龄段的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定行业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化特异性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特定专业的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特定学科的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>context-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文特定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定科目的, 特定主题的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域特异性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定案例的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊用途</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application-specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>猜测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沉思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投机倒把者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculatively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>species-rich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single-species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross-species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endangered-species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>濒危物种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectrum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>频谱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>broad-spectrum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广谱的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用途广泛的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectrometer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分光计</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectrograph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光谱仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摄谱仪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectrographic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光谱的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>despise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鄙视</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>despicable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑鄙的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>despised</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受轻视的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auspice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赞助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主办</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兆头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉兆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auspicious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉兆的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吉利的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auspiciously</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inauspicious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不祥的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不吉的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspicacious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有洞察力的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聪颖的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspicacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞察力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聪颖</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspicity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明晰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简明</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspicuous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明了的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易懂的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>duc|duct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表引导</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educationally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教育者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教师</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受教育的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uneducated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无知的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>educationist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coeducation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女同校</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coeducational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-educational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>re-educate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>re-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>college-educated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受过大学教育的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>university-educated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>higher-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychoeducational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心里学教育的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undereducated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受教育不足的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师|师范教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miseducation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-educated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraeducator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>助教</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>less-educated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收更少教育的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>public-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuing-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>general-education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引起</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作品</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产力</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>繁殖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再版</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再生产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproductive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproducible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduciblity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可复现性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再生性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-reproductive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overproduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overproduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by-product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass-produced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量生产的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-producer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合制片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil-producing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-productive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>new-product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -28764,10 +30807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1403"/>
+  <dimension ref="A1:F1506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
+    <sheetView tabSelected="1" topLeftCell="C1480" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1504" sqref="D1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -32232,16 +34275,34 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>2754</v>
+      </c>
       <c r="C287" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>2756</v>
+      </c>
       <c r="C288" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>2758</v>
+      </c>
       <c r="C289" s="2" t="s">
         <v>379</v>
       </c>
@@ -32249,7 +34310,13 @@
         <v>380</v>
       </c>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>2760</v>
+      </c>
       <c r="C290" s="2" t="s">
         <v>381</v>
       </c>
@@ -32257,12 +34324,24 @@
         <v>382</v>
       </c>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>2762</v>
+      </c>
       <c r="C291" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>2764</v>
+      </c>
       <c r="C292" s="2" t="s">
         <v>384</v>
       </c>
@@ -32270,37 +34349,79 @@
         <v>210</v>
       </c>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1205</v>
+      </c>
       <c r="C293" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>2767</v>
+      </c>
       <c r="C294" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>2769</v>
+      </c>
       <c r="C295" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>2771</v>
+      </c>
       <c r="C296" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>2773</v>
+      </c>
       <c r="C297" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>2775</v>
+      </c>
       <c r="C298" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>2777</v>
+      </c>
       <c r="C299" s="2" t="s">
         <v>391</v>
       </c>
@@ -32308,7 +34429,13 @@
         <v>392</v>
       </c>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>2779</v>
+      </c>
       <c r="C300" s="2" t="s">
         <v>393</v>
       </c>
@@ -32316,7 +34443,13 @@
         <v>394</v>
       </c>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>2781</v>
+      </c>
       <c r="C301" s="2" t="s">
         <v>410</v>
       </c>
@@ -32327,7 +34460,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>2783</v>
+      </c>
       <c r="C302" s="2" t="s">
         <v>396</v>
       </c>
@@ -32335,7 +34474,13 @@
         <v>398</v>
       </c>
     </row>
-    <row r="303" spans="3:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>2785</v>
+      </c>
       <c r="C303" s="6" t="s">
         <v>397</v>
       </c>
@@ -32343,7 +34488,13 @@
         <v>399</v>
       </c>
     </row>
-    <row r="304" spans="3:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>2787</v>
+      </c>
       <c r="C304" s="7" t="s">
         <v>411</v>
       </c>
@@ -32351,7 +34502,13 @@
         <v>412</v>
       </c>
     </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>2789</v>
+      </c>
       <c r="C305" s="2" t="s">
         <v>413</v>
       </c>
@@ -32359,7 +34516,13 @@
         <v>416</v>
       </c>
     </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>2791</v>
+      </c>
       <c r="C306" s="2" t="s">
         <v>414</v>
       </c>
@@ -32367,7 +34530,13 @@
         <v>419</v>
       </c>
     </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>2793</v>
+      </c>
       <c r="C307" s="2" t="s">
         <v>415</v>
       </c>
@@ -32375,7 +34544,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>2795</v>
+      </c>
       <c r="C308" s="2" t="s">
         <v>420</v>
       </c>
@@ -32383,7 +34558,13 @@
         <v>421</v>
       </c>
     </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>2797</v>
+      </c>
       <c r="C309" s="2" t="s">
         <v>418</v>
       </c>
@@ -32391,7 +34572,13 @@
         <v>522</v>
       </c>
     </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>2799</v>
+      </c>
       <c r="C310" s="2" t="s">
         <v>422</v>
       </c>
@@ -32399,7 +34586,13 @@
         <v>425</v>
       </c>
     </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>2801</v>
+      </c>
       <c r="C311" s="2" t="s">
         <v>423</v>
       </c>
@@ -32407,7 +34600,13 @@
         <v>424</v>
       </c>
     </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>2803</v>
+      </c>
       <c r="C312" s="2" t="s">
         <v>426</v>
       </c>
@@ -32415,7 +34614,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C313" s="2" t="s">
         <v>428</v>
       </c>
@@ -32423,12 +34622,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C314" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C315" s="2" t="s">
         <v>431</v>
       </c>
@@ -32436,12 +34635,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C316" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C317" s="2" t="s">
         <v>434</v>
       </c>
@@ -32449,7 +34648,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C318" s="2" t="s">
         <v>435</v>
       </c>
@@ -32457,12 +34656,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C319" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C320" s="2" t="s">
         <v>439</v>
       </c>
@@ -39954,7 +42153,720 @@
       </c>
     </row>
     <row r="1403" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1403" s="7"/>
+      <c r="C1403" s="7" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D1403" s="4" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1404" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1404" s="2" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1404" s="4" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1405" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1405" s="2" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D1405" s="4" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1406" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1406" s="2" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1407" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1407" s="2" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D1407" s="4" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1408" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1408" s="2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D1408" s="4" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1409" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1409" s="2" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1409" s="4" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1410" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1410" s="2" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1411" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1411" s="2" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="1412" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1412" s="2" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D1412" s="5" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1413" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1413" s="2" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1413" s="4" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1414" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1414" s="2" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D1414" s="5" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1415" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1415" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D1415" s="5" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1416" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1416" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1416" s="5" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1417" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1417" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D1417" s="5" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1418" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1418" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D1418" s="4" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="1419" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1419" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D1419" s="5" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1420" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1420" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1420" s="5" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1421" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1421" s="2" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1421" s="5" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1422" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1422" s="2" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1422" s="5" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1423" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1423" s="2" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D1423" s="4" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1424" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1424" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1424" s="4" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1425" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1425" s="2" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1425" s="4" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1426" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1426" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1426" s="5" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1427" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1427" s="2" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1428" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1428" s="2" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1429" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1429" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D1429" s="5" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1430" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1430" s="2" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1431" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1431" s="2" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="1432" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1432" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D1432" s="5" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1433" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1433" s="2" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1433" s="5" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1434" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1434" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D1434" s="4" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1435" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1435" s="2" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1435" s="4" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1436" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1436" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D1436" s="4" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1437" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1437" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1437" s="4" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1438" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1438" s="2" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1438" s="5" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="1439" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1439" s="2" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1439" s="4" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1440" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1440" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D1440" s="5" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1441" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1441" s="2" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D1441" s="5" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1442" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1442" s="2" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1442" s="4" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1443" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1443" s="2" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D1443" s="4" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1444" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1444" s="2" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1445" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1445" s="2" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D1445" s="4" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1446" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1446" s="2" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1446" s="4" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1447" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1447" s="2" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D1447" s="4" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1448" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1448" s="2" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D1448" s="4" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1449" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1449" s="2" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D1449" s="4" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1450" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1450" s="2" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1450" s="1" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1451" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1451" s="2" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1452" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1452" s="2" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1453" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1453" s="2" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1454" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1454" s="2" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1455" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1455" s="2" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D1455" s="4" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1456" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1456" s="2" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1456" s="5" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1457" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1457" s="2" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D1457" s="5" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1458" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1458" s="2" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1459" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1459" s="2" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1460" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1460" s="2" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D1460" s="5" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1461" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1461" s="2" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1462" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1462" s="2" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1463" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1463" s="2" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1464" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1464" s="2" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1465" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1465" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D1465" s="5" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1466" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1466" s="2" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1467" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1467" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D1467" s="5" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1468" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1468" s="2" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1469" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1469" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1469" s="5" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1470" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1470" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D1470" s="5" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1471" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1471" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D1471" s="5" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1472" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1472" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D1472" s="5" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1473" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1473" s="2" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="1474" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1474" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D1474" s="5" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="1475" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1475" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D1475" s="5" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="1476" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1476" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D1476" s="5" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="1477" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1477" s="2" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1478" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1478" s="2" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="1479" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1479" s="2" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1480" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1480" s="2" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1481" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1481" s="2" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1482" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1482" s="2" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D1482" s="5" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1483" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1483" s="2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="D1483" s="4" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1484" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1484" s="2" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="1485" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1485" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D1485" s="4" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="1486" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1486" s="2" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="1487" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1487" s="2" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1488" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1488" s="2" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="1489" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1489" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D1489" s="4" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1490" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1490" s="2" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D1490" s="4" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1491" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1491" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D1491" s="4" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1492" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1492" s="2" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1493" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1493" s="2" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1494" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1494" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D1494" s="4" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1495" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1495" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D1495" s="5" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1496" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1496" s="2" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1497" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1497" s="2" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D1497" s="5" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1498" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1498" s="2" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1499" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1499" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D1499" s="5" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1500" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1500" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1500" s="5" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1501" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1501" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D1501" s="5" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1502" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1502" s="2" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1503" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1503" s="2" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1504" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1504" s="2" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1505" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1505" s="6" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1505" s="5" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1506" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1506" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9193DD9-C4A1-49E3-8BF0-FBD47367F789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC94D1B-F345-4267-A32E-D2AD2F55FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5556" yWindow="144" windowWidth="11328" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14172" yWindow="420" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="2973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="3187">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30348,6 +30348,2436 @@
   </si>
   <si>
     <t>新产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post-production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revenue-producing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能产生收益的(income-producing)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited-production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-produced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low-productivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy-producing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulin-producing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胰岛素分泌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat-producing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发热的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产生热量的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导电</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misconduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行为不正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不规矩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理不当</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conductor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>售票员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指挥</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>semiconductor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半导体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superconductor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超导体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superconducting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superconductive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superconductivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超导性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有贡献的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conducive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有益于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有助于</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reductive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reducible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可缩小的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irreducible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能削减的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk-reduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低风险的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>harm-reduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strss-reducting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight-reduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noise-reduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引进</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传入</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>introductory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引导的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reintroduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reintroduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再引入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演绎出</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扣减</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演绎</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deductive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deductible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推断</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演绎的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推论的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推断的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扣除的, 可减免的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deductibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扣除程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax-deductible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可免税的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-deductible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可扣除的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱拐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绑架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劫持</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱拐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>劫持</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abductor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱拐者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abductee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被绑架者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱惑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾引</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seducer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引诱者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱惑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seductive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有魅力的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性感的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seductively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱惑的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勾引的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seductress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱惑男人的女子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富有魅力的女人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seductiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富有魅力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>induct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征召入伍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>induce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引诱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱导</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inducer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inducement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引诱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运输管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用导管运输</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ductwork</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ductal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导管的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>举出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引证</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transduce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transducer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传感器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变换器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转导</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqueduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导水管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引水渠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高架桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ventiduct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通风管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通风道</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可移动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异变的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非固定的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>automobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile-phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mov|mob|mot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表移动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmoving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不感动人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movingly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感人地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmoved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬运工人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬家工人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthmover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推土机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmovable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不改变的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immovable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countermove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对抗水段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报复行动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>move-in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow-moving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作缓慢的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滞销的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast-moving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick-moving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速移动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去除剂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬运工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬家公司</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>removable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonw-removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬迁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搬家</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross-border</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unprecedented</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袭击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史无前例的, 空前的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condemn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谴责</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>death toll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人数</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accused</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>串通的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>援助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>seek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reassure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安抚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盟友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ally)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rege</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激烈的进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>harsh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺眼的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚光灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotlight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赶下台</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strident</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强硬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>House of Representatives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国众议院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservatives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保守派</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -30482,7 +32912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30519,6 +32949,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30807,10 +33240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1506"/>
+  <dimension ref="A1:F1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1480" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1504" sqref="D1504"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -34615,6 +37048,12 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>3141</v>
+      </c>
       <c r="C313" s="2" t="s">
         <v>428</v>
       </c>
@@ -34623,11 +37062,23 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>3145</v>
+      </c>
       <c r="C314" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>3144</v>
+      </c>
       <c r="C315" s="2" t="s">
         <v>431</v>
       </c>
@@ -34636,11 +37087,23 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>3147</v>
+      </c>
       <c r="C316" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>3149</v>
+      </c>
       <c r="C317" s="2" t="s">
         <v>434</v>
       </c>
@@ -34649,6 +37112,12 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>3151</v>
+      </c>
       <c r="C318" s="2" t="s">
         <v>435</v>
       </c>
@@ -34657,36 +37126,78 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>3153</v>
+      </c>
       <c r="C319" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>2709</v>
+      </c>
       <c r="C320" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>3156</v>
+      </c>
       <c r="C321" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>3158</v>
+      </c>
       <c r="C322" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>3160</v>
+      </c>
       <c r="C323" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>3162</v>
+      </c>
       <c r="C324" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>3164</v>
+      </c>
       <c r="C325" s="2" t="s">
         <v>444</v>
       </c>
@@ -34694,7 +37205,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="326" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>3166</v>
+      </c>
       <c r="C326" s="2" t="s">
         <v>445</v>
       </c>
@@ -34702,7 +37219,13 @@
         <v>448</v>
       </c>
     </row>
-    <row r="327" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>3168</v>
+      </c>
       <c r="C327" s="2" t="s">
         <v>446</v>
       </c>
@@ -34710,7 +37233,13 @@
         <v>451</v>
       </c>
     </row>
-    <row r="328" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>3170</v>
+      </c>
       <c r="C328" s="2" t="s">
         <v>447</v>
       </c>
@@ -34718,7 +37247,13 @@
         <v>449</v>
       </c>
     </row>
-    <row r="329" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>3172</v>
+      </c>
       <c r="C329" s="2" t="s">
         <v>452</v>
       </c>
@@ -34726,7 +37261,13 @@
         <v>453</v>
       </c>
     </row>
-    <row r="330" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>3174</v>
+      </c>
       <c r="C330" s="2" t="s">
         <v>454</v>
       </c>
@@ -34734,7 +37275,13 @@
         <v>457</v>
       </c>
     </row>
-    <row r="331" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>3175</v>
+      </c>
       <c r="C331" s="2" t="s">
         <v>455</v>
       </c>
@@ -34742,7 +37289,13 @@
         <v>456</v>
       </c>
     </row>
-    <row r="332" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>3177</v>
+      </c>
       <c r="C332" s="2" t="s">
         <v>458</v>
       </c>
@@ -34750,22 +37303,46 @@
         <v>459</v>
       </c>
     </row>
-    <row r="333" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>3179</v>
+      </c>
       <c r="C333" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="334" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>3181</v>
+      </c>
       <c r="C334" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="335" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>3184</v>
+      </c>
       <c r="C335" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="336" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>3186</v>
+      </c>
       <c r="C336" s="2" t="s">
         <v>463</v>
       </c>
@@ -42866,7 +45443,704 @@
       </c>
     </row>
     <row r="1506" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1506" s="7"/>
+      <c r="C1506" s="7" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D1506" s="5" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1507" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1507" s="2" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1507" s="5" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="1508" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1508" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1508" s="5" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="1509" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1509" s="2" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="1510" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1510" s="2" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="1511" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1511" s="2" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1512" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1512" s="2" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="1513" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1513" s="2" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1513" s="5" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="1514" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1514" s="2" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D1514" s="4" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="1515" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1515" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D1515" s="4" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="1516" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1516" s="2" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D1516" s="4" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="1517" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1517" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D1517" s="4" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1518" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1518" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1518" s="5" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1519" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1519" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D1519" s="5" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="1520" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1520" s="2" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1521" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1521" s="2" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="1522" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1522" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1522" s="5" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1523" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1523" s="2" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D1523" s="4" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1524" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1524" s="2" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D1524" s="4" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="1525" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1525" s="2" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="1526" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1526" s="2" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1527" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1527" s="2" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="1528" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1528" s="2" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="1529" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1529" s="2" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D1529" s="5" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1530" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1530" s="2" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D1530" s="5" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1531" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1531" s="2" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D1531" s="5" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="1532" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1532" s="2" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1533" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1533" s="2" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1534" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1534" s="2" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="1535" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1535" s="2" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="1536" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1536" s="2" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D1536" s="4" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1537" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1537" s="2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1537" s="4" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1538" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1538" s="2" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="1539" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1539" s="2" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1539" s="4" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1540" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1540" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D1540" s="5" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1541" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1541" s="2" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1542" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1542" s="2" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1542" s="4" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1543" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1543" s="2" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1543" s="4" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="1544" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1544" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1544" s="4" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1545" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1545" s="2" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D1545" s="4" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1546" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1546" s="2" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1546" s="5" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="1547" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1547" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1547" s="5" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1548" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1548" s="2" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1548" s="5" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="1549" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1549" s="2" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D1549" s="5" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="1550" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1550" s="2" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D1550" s="4" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1551" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1551" s="2" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D1551" s="4" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1552" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1552" s="2" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D1552" s="5" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="1553" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1553" s="2" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1553" s="5" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1554" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1554" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D1554" s="4" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="1555" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1555" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1555" s="5" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1556" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1556" s="2" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D1556" s="4" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1557" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1557" s="2" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D1557" s="4" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="1558" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1558" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D1558" s="4" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="1559" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1559" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D1559" s="4" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1560" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1560" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D1560" s="5" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="1561" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1561" s="2" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D1561" s="4" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="1562" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1562" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D1562" s="4" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="1563" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1563" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D1563" s="5" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1564" spans="3:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1564" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D1564" s="13" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="1565" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1565" s="2" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1565" s="4" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="1566" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1566" s="2" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D1566" s="5" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="1567" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1567" s="2" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1567" s="4" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1568" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1568" s="2" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D1568" s="4" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="1569" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1569" s="2" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D1569" s="4" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="1570" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1570" s="2" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D1570" s="4" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="1571" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1571" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D1571" s="4" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="1572" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1572" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D1572" s="4" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="1573" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1573" s="2" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1573" s="4" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="1574" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1574" s="2" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1574" s="5" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1575" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1575" s="2" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D1575" s="4" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1576" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1576" s="2" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D1576" s="4" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="1577" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1577" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1577" s="5" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="1578" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1578" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D1578" s="5" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="1579" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1579" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D1579" s="1" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1580" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1580" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D1580" s="5" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1581" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1581" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D1581" s="5" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1582" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1582" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D1582" s="5" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1583" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1583" s="2" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1584" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1584" s="2" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1585" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1585" s="2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D1585" s="5" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1586" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1586" s="2" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D1586" s="4" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1587" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1587" s="2" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1587" s="5" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1588" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1588" s="2" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1588" s="5" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1589" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1589" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1589" s="4" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1590" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1590" s="2" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1590" s="4" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1591" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1591" s="2" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D1591" s="4" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1592" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1592" s="2" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D1592" s="5" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="1593" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1593" s="2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1593" s="4" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="1594" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1594" s="2" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1595" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1595" s="2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1595" s="5" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1596" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1596" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D1596" s="4" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1597" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1597" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D1597" s="4" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="1598" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1598" s="2" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1599" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1599" s="2" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="1600" spans="3:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1600" s="6" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1600" s="5" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1601" spans="3:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1601" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC94D1B-F345-4267-A32E-D2AD2F55FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB007829-D677-4F76-86C0-A50ED4CD5704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14172" yWindow="420" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7044" yWindow="0" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="3187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3453" uniqueCount="3407">
   <si>
     <t>port</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32778,6 +32778,2558 @@
   </si>
   <si>
     <t>保守派</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walkout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罢工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthcare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停顿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拖延</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dozen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(half a dozen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonessential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>labor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示威游行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto worker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车工人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累坏了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>疲劳过度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacancies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飙升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有围墙的场地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve 10 year sentence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服刑10年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laureate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获奖者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resilient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有弹性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>streak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续一段时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consecutive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的</t>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moviegoer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常看电影的人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie-going</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常去看电影的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie-theater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie-like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>像电影似的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie-making</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moviemaker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action-movie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horror-movie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>silent-movie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无声电影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺激</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使有动机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivational</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-motivated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我激励的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unmotivated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动机不明的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>automotive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electro-motive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>politically-motivated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有政治动机的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promoted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋升的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>促进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发扬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振兴</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>促销的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增进的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promoter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>促进者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发起人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>催化剂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-promotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我推销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自促作用</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health-promoting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康促进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使降级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>降职</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火车头</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locomotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打手势</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>静止的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不运动的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionlessly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow-motion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缓慢的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慢动作的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情绪</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情绪的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感动人的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unemotional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不易动感情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotionless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有感情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感情的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情绪的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotionally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotionality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>情绪性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感动性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotionlism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感情主义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诉诸感情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-emotional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非感情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>social-emotional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会情绪的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人际情感的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥远的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remotely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥远地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remoteness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遥远</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏远</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote-control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remote-controlled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发动机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动车</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motroist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾车旅行的人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-motorized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非机动化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorbike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩托车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorcycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摩托车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骑摩托车</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorcyclist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorcycling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩托运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor-driven</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电动的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电机驱动的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor-vehicle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汽车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动车辆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车旅馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴民</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴徒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民众</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌合之众</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilizd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immobile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不动的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immolilize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immobilized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immobilzation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使停止流通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骚乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱动</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cupidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贪心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贪恋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(cap|cip|cup|ceiv|ceit|cept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表占取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accepted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可接收的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接纳</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可欣然接受的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceptability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可接收性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unacceptable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unacceptably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unacceptability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-accepted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被广泛接受的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>except</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除外</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特别的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非凡的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>异常的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>例外的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unexcetional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非例外的, 普通的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概念</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观念</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misconception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>误解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错觉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceptual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观念的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概念上的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceptually</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概念</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设想</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceptualize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使概念化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceptualization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceptualist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conceptualism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念论的, 概念论者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preconception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预想</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欢迎会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招待会</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptionist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接待员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传达员</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>善于接收的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能容纳的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有接受力的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unreceptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptiveness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感受性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接收能力</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoreceptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光感受器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感受器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -33240,10 +35792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1601"/>
+  <dimension ref="A1:F1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A342" sqref="A342"/>
+    <sheetView tabSelected="1" topLeftCell="C1683" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1699" sqref="C1699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -37347,17 +39899,35 @@
         <v>463</v>
       </c>
     </row>
-    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>3188</v>
+      </c>
       <c r="C337" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>3190</v>
+      </c>
       <c r="C338" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>3192</v>
+      </c>
       <c r="C339" s="2" t="s">
         <v>466</v>
       </c>
@@ -37365,27 +39935,57 @@
         <v>469</v>
       </c>
     </row>
-    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>3194</v>
+      </c>
       <c r="C340" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>3196</v>
+      </c>
       <c r="C341" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>3198</v>
+      </c>
       <c r="C342" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>3200</v>
+      </c>
       <c r="C343" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>3098</v>
+      </c>
       <c r="C344" s="2" t="s">
         <v>472</v>
       </c>
@@ -37393,17 +39993,35 @@
         <v>473</v>
       </c>
     </row>
-    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>3203</v>
+      </c>
       <c r="C345" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>3205</v>
+      </c>
       <c r="C346" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>3207</v>
+      </c>
       <c r="C347" s="2" t="s">
         <v>476</v>
       </c>
@@ -37411,12 +40029,24 @@
         <v>477</v>
       </c>
     </row>
-    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>3209</v>
+      </c>
       <c r="C348" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>3210</v>
+      </c>
       <c r="C349" s="2" t="s">
         <v>479</v>
       </c>
@@ -37424,7 +40054,13 @@
         <v>480</v>
       </c>
     </row>
-    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>3212</v>
+      </c>
       <c r="C350" s="2" t="s">
         <v>481</v>
       </c>
@@ -37432,7 +40068,13 @@
         <v>482</v>
       </c>
     </row>
-    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>3214</v>
+      </c>
       <c r="C351" s="2" t="s">
         <v>483</v>
       </c>
@@ -37440,57 +40082,81 @@
         <v>523</v>
       </c>
     </row>
-    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>964</v>
+      </c>
       <c r="C352" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="353" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>3216</v>
+      </c>
       <c r="C353" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="354" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>3218</v>
+      </c>
       <c r="C354" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="355" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>3220</v>
+      </c>
       <c r="C355" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="356" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C356" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="357" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C357" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="358" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C358" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="359" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C359" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="360" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C360" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="361" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C361" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="362" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C362" s="2" t="s">
         <v>494</v>
       </c>
@@ -37498,17 +40164,17 @@
         <v>495</v>
       </c>
     </row>
-    <row r="363" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C363" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="364" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C364" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="365" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C365" s="2" t="s">
         <v>497</v>
       </c>
@@ -37516,17 +40182,17 @@
         <v>498</v>
       </c>
     </row>
-    <row r="366" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C366" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C367" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C368" s="2" t="s">
         <v>501</v>
       </c>
@@ -46139,8 +48805,774 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="1601" spans="3:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1601" s="7"/>
+    <row r="1601" spans="3:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1601" s="7" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1602" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1602" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1602" s="5" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1603" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1603" s="2" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D1603" s="5" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1604" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1604" s="2" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D1604" s="5" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1605" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1605" s="2" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D1605" s="5" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1606" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1606" s="2" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1607" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1607" s="2" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1608" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1608" s="2" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="1609" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1609" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1609" s="5" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1610" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1610" s="2" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D1610" s="5" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1611" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1611" s="2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D1611" s="5" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1612" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1612" s="2" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D1612" s="4" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1613" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1613" s="2" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="1614" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1614" s="2" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="1615" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1615" s="2" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="1616" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1616" s="2" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D1616" s="5" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="1617" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1617" s="2" t="s">
+        <v>3246</v>
+      </c>
+      <c r="D1617" s="5" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1618" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1618" s="2" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D1618" s="4" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="1619" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1619" s="2" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D1619" s="5" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1620" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1620" s="2" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D1620" s="5" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="1621" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1621" s="2" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1621" s="4" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="1622" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1622" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1622" s="5" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1623" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1623" s="2" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1624" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1624" s="2" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1624" s="4" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1625" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1625" s="2" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D1625" s="4" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="1626" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1626" s="2" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D1626" s="4" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="1627" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1627" s="2" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D1627" s="5" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1628" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1628" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D1628" s="4" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="1629" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1629" s="2" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1630" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1630" s="2" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D1630" s="4" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1631" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1631" s="2" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D1631" s="4" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="1632" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1632" s="2" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D1632" s="4" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1633" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1633" s="2" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1633" s="4" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1634" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1634" s="2" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1635" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1635" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D1635" s="4" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1636" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1636" s="2" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1636" s="4" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1637" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1637" s="2" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D1637" s="4" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1638" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1638" s="2" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1638" s="5" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1639" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1639" s="2" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D1639" s="5" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="1640" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1640" s="2" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D1640" s="4" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="1641" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1641" s="2" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="1642" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1642" s="2" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D1642" s="4" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="1643" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1643" s="2" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D1643" s="4" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="1644" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1644" s="2" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D1644" s="5" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="1645" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1645" s="2" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D1645" s="4" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="1646" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1646" s="2" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D1646" s="5" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="1647" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1647" s="2" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D1647" s="5" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="1648" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1648" s="2" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D1648" s="4" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="1649" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1649" s="2" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1649" s="5" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1650" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1650" s="2" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D1650" s="5" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="1651" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1651" s="2" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D1651" s="4" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="1652" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1652" s="2" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D1652" s="5" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="1653" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1653" s="2" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D1653" s="5" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="1654" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1654" s="2" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D1654" s="5" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1655" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1655" s="2" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D1655" s="4" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1656" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1656" s="2" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="1657" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1657" s="2" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D1657" s="5" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1658" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1658" s="2" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D1658" s="4" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1659" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1659" s="2" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D1659" s="4" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1660" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1660" s="2" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D1660" s="5" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1661" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1661" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1661" s="4" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1662" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1662" s="2" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D1662" s="4" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1663" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1663" s="2" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1664" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1664" s="2" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1665" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1665" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1665" s="4" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1666" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1666" s="2" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D1666" s="4" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1667" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1667" s="2" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1668" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1668" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D1668" s="4" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1669" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1669" s="2" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D1669" s="4" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1670" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1670" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D1670" s="4" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1671" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1671" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="D1671" s="4" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1672" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1672" s="2" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D1672" s="5" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1673" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1673" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D1673" s="4" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1674" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1674" s="2" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1675" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1675" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D1675" s="5" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1676" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1676" s="2" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D1676" s="5" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1677" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1677" s="2" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1678" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1678" s="2" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1679" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1679" s="2" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1680" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1680" s="2" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D1680" s="5" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1681" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1681" s="2" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D1681" s="5" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1682" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1682" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D1682" s="4" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1683" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1683" s="2" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D1683" s="4" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1684" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1684" s="2" t="s">
+        <v>3368</v>
+      </c>
+      <c r="D1684" s="5" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1685" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1685" s="2" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1686" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1686" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D1686" s="4" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1687" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1687" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D1687" s="5" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1688" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1688" s="2" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D1688" s="4" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1689" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1689" s="2" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D1689" s="4" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1690" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1690" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D1690" s="4" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1691" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1691" s="2" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D1691" s="4" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1692" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1692" s="2" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D1692" s="5" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1693" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1693" s="2" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D1693" s="5" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1694" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1694" s="2" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D1694" s="5" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1695" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1695" s="2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D1695" s="5" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1696" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1696" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D1696" s="5" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1697" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1697" s="2" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D1697" s="4" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1698" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1698" s="2" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D1698" s="4" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1699" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1699" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D1699" s="4" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1700" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1700" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D1700" s="4" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1701" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1701" s="2" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="1702" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1702" s="2" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D1702" s="4" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="1703" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1703" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D1703" s="5" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1704" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1704" s="2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D1704" s="5" t="s">
+        <v>3406</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED56CB-3EB9-422A-BF98-70EEA0FE3214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879C789-6E59-46F9-A378-141EC44D8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17364" yWindow="300" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17436" yWindow="204" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1915">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2835,38 +2835,6 @@
   </si>
   <si>
     <t>abortion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>堕胎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流产</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -9426,6 +9394,1077 @@
   </si>
   <si>
     <t>selfish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercenary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雇佣军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认为</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堕胎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(abort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutineer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叛乱者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡乱摆动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shore up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wavering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动摇的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>midair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半空中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsequent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>march</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brutal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残酷的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支撑, 巩固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>south pole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南极</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(pole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫游车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月球的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mugshot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入案照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mastermind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>策划</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprawling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>racketeering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspiracy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灾难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(in disaster)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be booked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记在案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>felony</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mug hot|mugshot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大头照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>休眠的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搁置的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinstate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encounter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>擦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(robbing salt in the wound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪上加霜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>that begs the question</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让人想提问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诱惑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>become</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>derive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>designate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desirable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flexible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hinder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitherto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>implication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>implicit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>important</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impulse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>originate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>petition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phenomenon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosopher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phrase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pierce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reasonable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>servant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>several</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>severe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sophisticated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sovereign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brisk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>browse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggravate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggressive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agitate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreeable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alien</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alienate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allocate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>allow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alternate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alternative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>competitive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>competent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encourage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endeavo(u)r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endorse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outrage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special(i)ty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>specify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speculate(speculative)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9823,8 +10862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A680" sqref="A680"/>
+    <sheetView tabSelected="1" topLeftCell="C857" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B875" sqref="B875:C875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -9840,7 +10879,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -9851,18 +10890,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -9873,7 +10912,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -9884,7 +10923,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -9895,7 +10934,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -9906,7 +10945,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>51</v>
@@ -9917,7 +10956,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -9928,7 +10967,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -9939,7 +10978,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -9950,7 +10989,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -9961,7 +11000,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>21</v>
@@ -9972,7 +11011,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -9983,7 +11022,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -9994,7 +11033,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -10005,7 +11044,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -10016,7 +11055,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>30</v>
@@ -10027,7 +11066,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -10038,7 +11077,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -10049,7 +11088,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -10060,7 +11099,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
@@ -10071,7 +11110,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>40</v>
@@ -10082,7 +11121,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>42</v>
@@ -10093,7 +11132,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -10104,7 +11143,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>46</v>
@@ -10115,7 +11154,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
@@ -10126,7 +11165,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>53</v>
@@ -10137,7 +11176,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>55</v>
@@ -10148,7 +11187,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>57</v>
@@ -10159,7 +11198,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>59</v>
@@ -10170,7 +11209,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>61</v>
@@ -10181,7 +11220,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>63</v>
@@ -10192,7 +11231,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>65</v>
@@ -10203,7 +11242,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
@@ -10214,7 +11253,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>69</v>
@@ -10225,7 +11264,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>71</v>
@@ -10236,7 +11275,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>73</v>
@@ -10247,7 +11286,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>74</v>
@@ -10258,7 +11297,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>77</v>
@@ -10269,7 +11308,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>79</v>
@@ -10280,7 +11319,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>81</v>
@@ -10291,7 +11330,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>83</v>
@@ -10302,7 +11341,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>85</v>
@@ -10313,7 +11352,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>87</v>
@@ -10324,7 +11363,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>89</v>
@@ -10335,7 +11374,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>91</v>
@@ -10346,7 +11385,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>93</v>
@@ -10357,7 +11396,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>95</v>
@@ -10368,7 +11407,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>96</v>
@@ -10379,7 +11418,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>98</v>
@@ -10390,7 +11429,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>100</v>
@@ -10401,7 +11440,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>103</v>
@@ -10412,7 +11451,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>105</v>
@@ -10423,7 +11462,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>107</v>
@@ -10434,7 +11473,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>109</v>
@@ -10445,7 +11484,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>111</v>
@@ -10456,7 +11495,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>113</v>
@@ -10467,7 +11506,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>115</v>
@@ -10478,7 +11517,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>117</v>
@@ -10489,7 +11528,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>119</v>
@@ -10500,7 +11539,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>121</v>
@@ -10511,7 +11550,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>122</v>
@@ -10522,7 +11561,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>125</v>
@@ -10533,7 +11572,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>127</v>
@@ -10544,7 +11583,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>129</v>
@@ -10555,7 +11594,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>131</v>
@@ -10566,7 +11605,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>133</v>
@@ -10577,7 +11616,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>135</v>
@@ -10588,7 +11627,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>137</v>
@@ -10599,7 +11638,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>139</v>
@@ -10610,7 +11649,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>141</v>
@@ -10621,7 +11660,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>143</v>
@@ -10632,7 +11671,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>145</v>
@@ -10643,7 +11682,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>149</v>
@@ -10654,7 +11693,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>151</v>
@@ -10665,7 +11704,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>153</v>
@@ -10676,7 +11715,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>155</v>
@@ -10687,7 +11726,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>157</v>
@@ -10698,7 +11737,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>159</v>
@@ -10709,7 +11748,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>160</v>
@@ -10720,7 +11759,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>162</v>
@@ -10731,7 +11770,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>164</v>
@@ -10742,7 +11781,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>166</v>
@@ -10753,7 +11792,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>168</v>
@@ -10764,7 +11803,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>171</v>
@@ -10775,7 +11814,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>172</v>
@@ -10786,7 +11825,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>174</v>
@@ -10797,7 +11836,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>177</v>
@@ -10808,7 +11847,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>179</v>
@@ -10819,7 +11858,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>181</v>
@@ -10830,18 +11869,18 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>184</v>
@@ -10852,7 +11891,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>186</v>
@@ -10863,18 +11902,18 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>189</v>
@@ -10885,7 +11924,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>191</v>
@@ -10896,7 +11935,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>193</v>
@@ -10907,7 +11946,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>195</v>
@@ -10918,7 +11957,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>197</v>
@@ -10929,7 +11968,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>199</v>
@@ -10940,7 +11979,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>201</v>
@@ -10951,7 +11990,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>203</v>
@@ -10962,18 +12001,18 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>206</v>
@@ -10984,7 +12023,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>208</v>
@@ -10995,7 +12034,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>210</v>
@@ -11006,7 +12045,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>212</v>
@@ -11017,7 +12056,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>214</v>
@@ -11028,7 +12067,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>216</v>
@@ -11050,7 +12089,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>220</v>
@@ -11061,7 +12100,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>222</v>
@@ -11072,7 +12111,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>224</v>
@@ -11083,7 +12122,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>226</v>
@@ -11094,7 +12133,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>227</v>
@@ -11105,7 +12144,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>230</v>
@@ -11116,7 +12155,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>232</v>
@@ -11127,7 +12166,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>234</v>
@@ -11138,7 +12177,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>236</v>
@@ -11149,7 +12188,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>238</v>
@@ -11160,7 +12199,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>240</v>
@@ -11171,7 +12210,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>242</v>
@@ -11182,7 +12221,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>243</v>
@@ -11193,7 +12232,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>245</v>
@@ -11204,7 +12243,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>247</v>
@@ -11215,7 +12254,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>249</v>
@@ -11226,7 +12265,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>251</v>
@@ -11237,7 +12276,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>253</v>
@@ -11248,7 +12287,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>255</v>
@@ -11259,7 +12298,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>257</v>
@@ -11270,7 +12309,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>259</v>
@@ -11281,7 +12320,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>261</v>
@@ -11292,7 +12331,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>263</v>
@@ -11303,7 +12342,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>265</v>
@@ -11314,7 +12353,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>267</v>
@@ -11325,7 +12364,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>269</v>
@@ -11336,7 +12375,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>271</v>
@@ -11347,7 +12386,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>273</v>
@@ -11358,7 +12397,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>275</v>
@@ -11369,7 +12408,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>277</v>
@@ -11380,7 +12419,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>279</v>
@@ -11391,7 +12430,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>281</v>
@@ -11402,7 +12441,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>283</v>
@@ -11413,7 +12452,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>285</v>
@@ -11435,7 +12474,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>288</v>
@@ -11446,7 +12485,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>290</v>
@@ -11457,7 +12496,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>292</v>
@@ -11468,7 +12507,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>294</v>
@@ -11479,7 +12518,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>296</v>
@@ -11490,7 +12529,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>298</v>
@@ -11512,7 +12551,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>183</v>
@@ -11523,7 +12562,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>302</v>
@@ -11534,7 +12573,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>304</v>
@@ -11545,7 +12584,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>306</v>
@@ -11556,7 +12595,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>308</v>
@@ -11567,7 +12606,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>310</v>
@@ -11578,7 +12617,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>312</v>
@@ -11589,7 +12628,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>314</v>
@@ -11600,7 +12639,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>316</v>
@@ -11611,7 +12650,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>318</v>
@@ -11622,7 +12661,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>320</v>
@@ -11633,7 +12672,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>322</v>
@@ -11644,7 +12683,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>324</v>
@@ -11655,7 +12694,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>326</v>
@@ -11666,7 +12705,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>328</v>
@@ -11677,7 +12716,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>330</v>
@@ -11688,7 +12727,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>332</v>
@@ -11699,7 +12738,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>334</v>
@@ -11710,7 +12749,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>336</v>
@@ -11721,7 +12760,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>338</v>
@@ -11732,7 +12771,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>340</v>
@@ -11743,7 +12782,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>342</v>
@@ -11754,7 +12793,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>344</v>
@@ -11765,7 +12804,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>346</v>
@@ -11776,7 +12815,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>347</v>
@@ -11787,7 +12826,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>349</v>
@@ -11798,7 +12837,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>350</v>
@@ -11809,7 +12848,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>352</v>
@@ -11820,7 +12859,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>355</v>
@@ -11831,7 +12870,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>358</v>
@@ -11842,7 +12881,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>360</v>
@@ -11853,7 +12892,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>362</v>
@@ -11864,7 +12903,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>363</v>
@@ -11875,7 +12914,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>365</v>
@@ -11886,7 +12925,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>367</v>
@@ -11897,7 +12936,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>369</v>
@@ -11908,7 +12947,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>372</v>
@@ -11919,7 +12958,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>374</v>
@@ -11930,7 +12969,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>171</v>
@@ -11941,7 +12980,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>376</v>
@@ -11952,7 +12991,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>378</v>
@@ -11963,7 +13002,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>380</v>
@@ -11974,7 +13013,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>382</v>
@@ -11985,7 +13024,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>384</v>
@@ -11996,7 +13035,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>387</v>
@@ -12007,7 +13046,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>388</v>
@@ -12018,7 +13057,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>390</v>
@@ -12029,7 +13068,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>392</v>
@@ -12040,7 +13079,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>394</v>
@@ -12051,7 +13090,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>396</v>
@@ -12062,7 +13101,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>398</v>
@@ -12073,7 +13112,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>400</v>
@@ -12084,7 +13123,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>402</v>
@@ -12095,7 +13134,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>404</v>
@@ -12106,7 +13145,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>406</v>
@@ -12117,7 +13156,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>408</v>
@@ -12128,7 +13167,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>410</v>
@@ -12150,18 +13189,18 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>414</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>242</v>
@@ -12172,7 +13211,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>415</v>
@@ -12183,7 +13222,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>417</v>
@@ -12194,7 +13233,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>419</v>
@@ -12205,7 +13244,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>421</v>
@@ -12216,7 +13255,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>423</v>
@@ -12227,7 +13266,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>425</v>
@@ -12238,7 +13277,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>430</v>
@@ -12249,7 +13288,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>429</v>
@@ -12260,7 +13299,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>427</v>
@@ -12271,7 +13310,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>434</v>
@@ -12282,7 +13321,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>436</v>
@@ -12293,7 +13332,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>438</v>
@@ -12304,7 +13343,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>440</v>
@@ -12315,7 +13354,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>442</v>
@@ -12326,7 +13365,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>444</v>
@@ -12337,7 +13376,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>446</v>
@@ -12348,197 +13387,197 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>449</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C230" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C231" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D231" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C232" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C233" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C234" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C235" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C236" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C237" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C238" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D238" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C242" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C243" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C244" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C245" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>0</v>
@@ -12546,76 +13585,76 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C248" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D248" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C251" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C252" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>1</v>
@@ -12623,428 +13662,428 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C254" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C255" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D259" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C260" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C262" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C263" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C265" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C266" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C267" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D267" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C268" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C270" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C271" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C272" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D272" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C273" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C274" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C276" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C277" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C278" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C279" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C280" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C281" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C282" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C283" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C284" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C285" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C286" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C287" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C288" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D288" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C289" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C290" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C291" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>254</v>
@@ -13052,200 +14091,200 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C293" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C294" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C295" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D295" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="D295" s="4" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C296" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C299" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D299" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C300" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C301" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D301" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C302" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C303" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C304" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C305" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C306" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D306" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C307" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C308" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D308" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C309" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D309" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C310" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -13253,444 +14292,444 @@
         <v>7</v>
       </c>
       <c r="C311" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D311" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C312" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D312" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C314" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D314" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C315" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D315" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C316" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D316" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C317" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D317" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C318" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D318" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="D318" s="4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C319" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D319" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C320" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C321" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C322" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C323" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D323" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C324" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D324" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="D324" s="5" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C325" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D325" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C326" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D326" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C327" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D327" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C328" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D328" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C329" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C332" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D332" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C333" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D333" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C334" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D334" s="3" t="s">
         <v>654</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C335" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D335" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C336" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D336" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C337" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D337" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C338" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D338" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C339" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D339" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C340" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D340" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C341" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D344" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D345" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C346" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D346" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C347" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D347" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C349" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D349" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C350" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D350" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>147</v>
@@ -13701,321 +14740,321 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C352" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D352" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C353" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D353" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C354" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D354" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C355" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D355" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="D355" s="4" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C357" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D357" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C358" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D358" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C359" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D359" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C360" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D360" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C361" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D361" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C362" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D362" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C363" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D363" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C364" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D364" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C366" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D366" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C367" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D367" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C368" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D368" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="D368" s="4" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C369" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D369" s="3" t="s">
         <v>721</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C370" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D370" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C371" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D371" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C372" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D372" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="D372" s="4" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C373" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D373" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C374" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D374" s="4" t="s">
         <v>731</v>
-      </c>
-      <c r="D374" s="4" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C375" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D375" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="D375" s="4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C376" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D376" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="D376" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D377" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C378" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D378" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C379" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C380" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D380" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="D380" s="4" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -14023,425 +15062,425 @@
         <v>30</v>
       </c>
       <c r="C381" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D381" s="4" t="s">
         <v>745</v>
-      </c>
-      <c r="D381" s="4" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C382" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D382" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C384" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D384" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C386" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D386" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C387" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>756</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C388" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D388" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C389" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D389" s="3" t="s">
         <v>760</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C390" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D390" s="3" t="s">
         <v>762</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C391" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D391" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C392" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D392" s="3" t="s">
         <v>766</v>
-      </c>
-      <c r="D392" s="3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C393" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D393" s="3" t="s">
         <v>768</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C394" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D394" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C395" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D395" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C396" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D396" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C397" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D397" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C399" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D399" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C400" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D400" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C401" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D401" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="D401" s="4" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C402" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D402" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C403" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D403" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C404" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D404" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C405" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D405" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C407" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D407" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C408" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D408" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C409" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D409" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C410" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D410" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C411" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D411" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C412" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D412" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C413" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D413" s="3" t="s">
         <v>808</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C414" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D414" s="3" t="s">
         <v>810</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C415" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D415" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C416" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D416" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C417" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D417" s="3" t="s">
         <v>817</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C418" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D418" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>345</v>
@@ -14452,1364 +15491,1562 @@
         <v>73</v>
       </c>
       <c r="C420" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D420" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C421" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D421" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C422" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D422" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C423" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D423" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C424" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D424" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C425" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D425" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C426" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D426" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C427" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D427" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C428" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D428" s="3" t="s">
         <v>838</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C429" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D429" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C431" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D431" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C432" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D432" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C433" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D433" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C434" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D434" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C435" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D435" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C436" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D436" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C437" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D437" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C438" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D438" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C440" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D440" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C441" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D441" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C442" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D442" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C443" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D443" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="D443" s="4" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C444" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D444" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C445" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D445" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C446" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D446" s="4" t="s">
         <v>877</v>
-      </c>
-      <c r="D446" s="4" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C447" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D447" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C448" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D448" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C449" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D449" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="D449" s="4" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C450" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D450" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C451" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D451" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C452" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D452" s="4" t="s">
         <v>889</v>
-      </c>
-      <c r="D452" s="4" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C453" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D453" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C454" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D454" s="4" t="s">
         <v>893</v>
-      </c>
-      <c r="D454" s="4" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C455" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D455" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C456" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D456" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C457" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D457" s="3" t="s">
         <v>1044</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C458" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D458" s="4" t="s">
         <v>1046</v>
-      </c>
-      <c r="D458" s="4" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C459" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D459" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C460" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D460" s="3" t="s">
         <v>1050</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C461" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D461" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C462" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D462" s="3" t="s">
         <v>1054</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C463" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D463" s="3" t="s">
         <v>1056</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C464" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D464" s="4" t="s">
         <v>1058</v>
-      </c>
-      <c r="D464" s="4" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C465" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D465" s="3" t="s">
         <v>1060</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C466" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D466" s="3" t="s">
         <v>1062</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C467" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D467" s="3" t="s">
         <v>1064</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C468" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>1066</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C469" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D469" s="3" t="s">
         <v>1068</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C470" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>1071</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C471" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D471" s="4" t="s">
         <v>1073</v>
-      </c>
-      <c r="D471" s="4" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C472" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D472" s="3" t="s">
         <v>1075</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C474" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D474" s="3" t="s">
         <v>1078</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C475" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D475" s="3" t="s">
         <v>1080</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C476" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D476" s="3" t="s">
         <v>1082</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C477" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D477" s="3" t="s">
         <v>1084</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C479" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>1087</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C480" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>1227</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C482" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D482" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="D482" s="3" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C483" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D483" s="3" t="s">
         <v>1232</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C484" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D484" s="3" t="s">
         <v>1234</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C486" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>1238</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C487" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D487" s="3" t="s">
         <v>1241</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C489" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D489" s="4" t="s">
         <v>1245</v>
-      </c>
-      <c r="D489" s="4" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C490" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>1378</v>
-      </c>
-      <c r="D490" s="3" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C491" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D491" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C492" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D492" s="3" t="s">
         <v>1382</v>
-      </c>
-      <c r="D492" s="3" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C493" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D493" s="3" t="s">
         <v>1384</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C494" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D494" s="3" t="s">
         <v>1386</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C495" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D495" s="3" t="s">
         <v>1388</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C496" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D496" s="4" t="s">
         <v>1390</v>
-      </c>
-      <c r="D496" s="4" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C497" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D497" s="3" t="s">
         <v>1393</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C498" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>1395</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C499" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D499" s="4" t="s">
         <v>1397</v>
-      </c>
-      <c r="D499" s="4" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C500" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>1399</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C501" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D501" s="3" t="s">
         <v>1401</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C502" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D502" s="3" t="s">
         <v>1554</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C503" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D503" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="D503" s="4" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C504" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D504" s="3" t="s">
         <v>1558</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C505" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D505" s="3" t="s">
         <v>1560</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C506" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D506" s="4" t="s">
         <v>1562</v>
-      </c>
-      <c r="D506" s="4" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C507" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D507" s="3" t="s">
         <v>1564</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C508" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D508" s="4" t="s">
         <v>1566</v>
-      </c>
-      <c r="D508" s="4" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C510" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D510" s="3" t="s">
         <v>1569</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C511" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D511" s="3" t="s">
         <v>1571</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C512" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D512" s="4" t="s">
         <v>1574</v>
-      </c>
-      <c r="D512" s="4" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D513" s="3" t="s">
         <v>1576</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C514" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D514" s="4" t="s">
         <v>1578</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C515" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D515" s="3" t="s">
         <v>1580</v>
-      </c>
-      <c r="D515" s="3" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C516" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D516" s="3" t="s">
         <v>1582</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D517" s="3" t="s">
         <v>1584</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C518" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D518" s="3" t="s">
         <v>1586</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C519" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D519" s="3" t="s">
         <v>1588</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1493</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C529" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="2" t="s">
+      <c r="C531" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
+      <c r="C532" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="2" t="s">
+      <c r="C533" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
+      <c r="C534" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="2" t="s">
+      <c r="C535" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
+      <c r="C536" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="2" t="s">
+      <c r="C537" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
+      <c r="C538" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="2" t="s">
+      <c r="C539" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
+      <c r="C540" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="2" t="s">
+      <c r="C541" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
+      <c r="C542" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="2" t="s">
+      <c r="C543" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
+      <c r="C544" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="2" t="s">
+      <c r="C545" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
+      <c r="C546" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
+      <c r="C547" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
+      <c r="C548" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="2" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C549" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C550" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
+      <c r="C552" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="2" t="s">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="2" t="s">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
         <v>1522</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -15819,382 +17056,382 @@
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
@@ -16204,32 +17441,32 @@
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
@@ -16239,17 +17476,17 @@
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
@@ -16259,362 +17496,1067 @@
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="2" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="2" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="2" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="2" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="2" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="2" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="2" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="2" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="2" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="2" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="2" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="2" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="2" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="2" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="2" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="1564" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879C789-6E59-46F9-A378-141EC44D8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38558D1-0929-40EB-88F3-A20FA191148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17436" yWindow="204" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="408" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1025</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="2080">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10465,6 +10468,737 @@
   </si>
   <si>
     <t>speculate(speculative)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price-conscious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对价格敏感的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朝着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方向</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>废料</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ditch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subcompact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超小型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型的, 紧凑的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuring home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗养院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash-strapped</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金短缺的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凭证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资格</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advanced</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advantage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advisable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a)esthetic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>afford</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>break</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakdown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brevity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coincide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collapse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleague</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commerce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>committee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>community</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>communism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deteriorate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>independent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>merely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plausible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>political</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>politician</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>politics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ponder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circumstance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>border</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>born</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bother</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avtivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>despise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>despite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energetic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engagement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>folk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>following</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>force</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foresee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grasp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorporate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>increasingly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incredible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>literally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>literary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memorial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherwise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>significance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>significant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>similar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplicity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simplify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10862,14 +11596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C857" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B875" sqref="B875:C875"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44.109375" style="1" customWidth="1"/>
@@ -10969,6 +11703,9 @@
       <c r="A9" s="2" t="s">
         <v>904</v>
       </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
@@ -11156,6 +11893,9 @@
       <c r="A26" s="2" t="s">
         <v>920</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
@@ -11167,6 +11907,9 @@
       <c r="A27" s="2" t="s">
         <v>921</v>
       </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
@@ -11244,6 +11987,9 @@
       <c r="A34" s="2" t="s">
         <v>928</v>
       </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
@@ -11409,6 +12155,9 @@
       <c r="A49" s="2" t="s">
         <v>941</v>
       </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>96</v>
       </c>
@@ -11420,6 +12169,9 @@
       <c r="A50" s="2" t="s">
         <v>942</v>
       </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>98</v>
       </c>
@@ -11552,6 +12304,9 @@
       <c r="A62" s="2" t="s">
         <v>954</v>
       </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>122</v>
       </c>
@@ -11585,6 +12340,9 @@
       <c r="A65" s="2" t="s">
         <v>957</v>
       </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>129</v>
       </c>
@@ -11596,6 +12354,9 @@
       <c r="A66" s="2" t="s">
         <v>958</v>
       </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>131</v>
       </c>
@@ -11629,6 +12390,9 @@
       <c r="A69" s="2" t="s">
         <v>961</v>
       </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
       <c r="C69" s="2" t="s">
         <v>137</v>
       </c>
@@ -11651,6 +12415,9 @@
       <c r="A71" s="2" t="s">
         <v>963</v>
       </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
       <c r="C71" s="2" t="s">
         <v>141</v>
       </c>
@@ -11717,6 +12484,9 @@
       <c r="A77" s="2" t="s">
         <v>969</v>
       </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
       <c r="C77" s="2" t="s">
         <v>155</v>
       </c>
@@ -11728,6 +12498,9 @@
       <c r="A78" s="2" t="s">
         <v>970</v>
       </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
       <c r="C78" s="2" t="s">
         <v>157</v>
       </c>
@@ -16953,118 +17726,178 @@
       <c r="A553" s="2" t="s">
         <v>1516</v>
       </c>
+      <c r="C553" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>1517</v>
       </c>
+      <c r="C554" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>1918</v>
+      </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>1518</v>
       </c>
+      <c r="C555" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>1919</v>
+      </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>1519</v>
       </c>
+      <c r="C556" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>1921</v>
+      </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>1520</v>
       </c>
+      <c r="C557" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>1925</v>
+      </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>459</v>
       </c>
+      <c r="C558" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>1924</v>
+      </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>1521</v>
       </c>
+      <c r="C559" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>1927</v>
+      </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C560" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C561" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C562" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1536</v>
       </c>
@@ -18557,6 +19390,761 @@
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>1914</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="2" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="2" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="2" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="2" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="2" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="2" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="2" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="2" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="2" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="2" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="2" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="2" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="2" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="2" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="2" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="2" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="2" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="2" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="2" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="2" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="2" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="2" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="2" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="2" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="2" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="2" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="2" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="2" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="2" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="2" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="2" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="2" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="2" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="2" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="2" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="2" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="2" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="2" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="2" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="2" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="2" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="2" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="2" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="2" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="2" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="2" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="2" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="2" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="2" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="2" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="2" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="2" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="2" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="2" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="2" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="2" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="2" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="2" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="2" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="2" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="2" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="2" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="2" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="2" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="2" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="2" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="2" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="2" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="2" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="2" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="2" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="2" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="2" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="2" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="2" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="2" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" s="2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="2" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="2" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="2" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="2" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" s="2" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="2" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="2" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2" t="s">
+        <v>2079</v>
       </c>
     </row>
     <row r="1564" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38558D1-0929-40EB-88F3-A20FA191148A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E302F34-3609-4ACA-9ED5-D9031DF11009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="408" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6924" yWindow="396" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="2080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="2269">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11199,6 +11199,1212 @@
   </si>
   <si>
     <t>slack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trillion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万亿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧张的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剧烈的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严峻的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrutiny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trumble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下跌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴跌</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state-owned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>privately own</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>私有的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectrum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光谱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批准</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>estate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>residency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速行驶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>着落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staggering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>热带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底完全的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激，奖励；动机，诱因</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慎重的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>故意的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纤弱的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>精密巧妙的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小说</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>义务责任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强迫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迫使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使感激</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使变暗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混淆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>费解的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无名的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为…等同于, 识别, 认出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hono(u)r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hono(u)rable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingenious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingredient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initiative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neglect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>present</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preside</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>press</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestige</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumably</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>religion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>religious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>straightforward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strengthen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strenuous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reansient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reanslation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>architect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>argue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>argument</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consequently</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conflict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>configuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewpoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>violence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>violent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apparent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appliance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appreciate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discriminate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discuss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>escape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>especially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>essence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>essential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>establish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industrialize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inevitable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>miserable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>misery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mislead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessitate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>negative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poverty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>practitioner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precaution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precede</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precedent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preceding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11596,14 +12802,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A1161" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B1170" sqref="B1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44.109375" style="1" customWidth="1"/>
@@ -11703,8 +12909,8 @@
       <c r="A9" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
+      <c r="B9" s="3" t="s">
+        <v>2117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -11893,9 +13099,6 @@
       <c r="A26" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
       <c r="C26" s="2" t="s">
         <v>48</v>
       </c>
@@ -11907,8 +13110,8 @@
       <c r="A27" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B27" s="2">
-        <v>0</v>
+      <c r="B27" s="5" t="s">
+        <v>2118</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>53</v>
@@ -11987,9 +13190,6 @@
       <c r="A34" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
@@ -12155,9 +13355,6 @@
       <c r="A49" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="B49" s="2">
-        <v>0</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>96</v>
       </c>
@@ -12169,9 +13366,6 @@
       <c r="A50" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>98</v>
       </c>
@@ -12304,9 +13498,6 @@
       <c r="A62" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="B62" s="2">
-        <v>0</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>122</v>
       </c>
@@ -12340,8 +13531,8 @@
       <c r="A65" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="B65" s="2">
-        <v>0</v>
+      <c r="B65" s="4" t="s">
+        <v>2119</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>129</v>
@@ -12354,8 +13545,8 @@
       <c r="A66" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="B66" s="2">
-        <v>0</v>
+      <c r="B66" s="4" t="s">
+        <v>2120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>131</v>
@@ -12390,8 +13581,8 @@
       <c r="A69" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B69" s="2">
-        <v>0</v>
+      <c r="B69" s="4" t="s">
+        <v>2121</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>137</v>
@@ -12415,9 +13606,6 @@
       <c r="A71" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>141</v>
       </c>
@@ -12484,9 +13672,6 @@
       <c r="A77" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B77" s="2">
-        <v>0</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>155</v>
       </c>
@@ -12498,9 +13683,6 @@
       <c r="A78" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>157</v>
       </c>
@@ -12622,6 +13804,9 @@
       <c r="A89" s="2" t="s">
         <v>981</v>
       </c>
+      <c r="B89" s="3" t="s">
+        <v>2122</v>
+      </c>
       <c r="C89" s="2" t="s">
         <v>179</v>
       </c>
@@ -12633,6 +13818,9 @@
       <c r="A90" s="2" t="s">
         <v>982</v>
       </c>
+      <c r="B90" s="4" t="s">
+        <v>2123</v>
+      </c>
       <c r="C90" s="2" t="s">
         <v>181</v>
       </c>
@@ -12644,6 +13832,9 @@
       <c r="A91" s="2" t="s">
         <v>983</v>
       </c>
+      <c r="B91" s="4" t="s">
+        <v>2124</v>
+      </c>
       <c r="C91" s="2" t="s">
         <v>183</v>
       </c>
@@ -12699,6 +13890,9 @@
       <c r="A96" s="2" t="s">
         <v>988</v>
       </c>
+      <c r="B96" s="4" t="s">
+        <v>2125</v>
+      </c>
       <c r="C96" s="2" t="s">
         <v>191</v>
       </c>
@@ -12765,6 +13959,9 @@
       <c r="A102" s="2" t="s">
         <v>994</v>
       </c>
+      <c r="B102" s="3" t="s">
+        <v>2126</v>
+      </c>
       <c r="C102" s="2" t="s">
         <v>203</v>
       </c>
@@ -12776,6 +13973,9 @@
       <c r="A103" s="2" t="s">
         <v>995</v>
       </c>
+      <c r="B103" s="4" t="s">
+        <v>2127</v>
+      </c>
       <c r="C103" s="2" t="s">
         <v>205</v>
       </c>
@@ -17836,148 +19036,262 @@
       <c r="A563" s="2" t="s">
         <v>1525</v>
       </c>
+      <c r="C563" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>2081</v>
+      </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>1526</v>
       </c>
+      <c r="C564" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>2083</v>
+      </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>1527</v>
       </c>
+      <c r="C565" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>2084</v>
+      </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>1528</v>
       </c>
+      <c r="C566" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>2086</v>
+      </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1529</v>
       </c>
+      <c r="C567" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>2088</v>
+      </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1530</v>
       </c>
+      <c r="C568" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D568" s="4" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1531</v>
       </c>
+      <c r="C569" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>2092</v>
+      </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1532</v>
       </c>
+      <c r="C570" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>2094</v>
+      </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>738</v>
       </c>
+      <c r="C571" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>2096</v>
+      </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1533</v>
       </c>
+      <c r="C572" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>2098</v>
+      </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="C573" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>2100</v>
+      </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1534</v>
       </c>
+      <c r="C574" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>2102</v>
+      </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1535</v>
       </c>
+      <c r="C575" s="2" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>2104</v>
+      </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C576" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C577" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C578" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C579" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C580" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C581" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1552</v>
       </c>
@@ -20145,6 +21459,766 @@
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
         <v>2079</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="2" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="2" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="2" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="2" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="2" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="2" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="2" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="2" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" s="2" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" s="2" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" s="2" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" s="2" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" s="2" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" s="2" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" s="2" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" s="2" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" s="2" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" s="2" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" s="2" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" s="2" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" s="2" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" s="2" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" s="2" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" s="2" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" s="2" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" s="2" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" s="2" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" s="2" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" s="2" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" s="2" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" s="2" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" s="2" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" s="2" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" s="2" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" s="2" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" s="2" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="2" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" s="2" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="2" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="2" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" s="2" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" s="2" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" s="2" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" s="2" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098" s="2" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" s="2" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" s="2" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102" s="2" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" s="2" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104" s="2" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" s="2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" s="2" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" s="2" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" s="2" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110" s="2" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" s="2" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" s="2" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114" s="2" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" s="2" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="2" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" s="2" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118" s="2" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" s="2" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" s="2" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122" s="2" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" s="2" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124" s="2" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" s="2" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" s="2" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128" s="2" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" s="2" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" s="2" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" s="2" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" s="2" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" s="2" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="2" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" s="2" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" s="2" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" s="2" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" s="2" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" s="2" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" s="2" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" s="2" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" s="2" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160" s="2" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" s="2" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" s="2" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" s="2" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168" s="2" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170" s="2" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" s="2" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" s="2" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" s="2" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176" s="2" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="1564" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7066A463-B425-42E7-A479-6B4BED5B6786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA657F-7127-4AC0-B937-D74C8A825F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="48" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13104" yWindow="0" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="2731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="2977">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -21474,6 +21474,3628 @@
       </rPr>
       <t>联想</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninja</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海龟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ninja turtle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忍者神龟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳目一新的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nostalgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀旧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因突变的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playfulness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活泼有趣的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>martial artists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武术家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">on point </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恰到好处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>casting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>演员阵容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>franchise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营特许权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>franchisee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授予经营权的人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>franchiser|sor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够授予他人经营权的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mayhem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骚乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postpartum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产后的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debilitate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衰弱的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>afflict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折磨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困扰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>milestone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>typhoon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stifling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闷热的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹒跚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>踉跄</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reprieve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时缓解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cornerstone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拐杖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粘贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放置</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stipulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inferior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>influential</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>congress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>continual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disorder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disperse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exaggerate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>examine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moderate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modernization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>predecessor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preface</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preferable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prejudice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preliminary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejoice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relativity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overlook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺激</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>促使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使兴奋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搅动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使微动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>激起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引起</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明确要求</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下等的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>差的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>告知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>告发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>告密</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恰当的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对称的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倾向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恰当的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聪明的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遵照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适应</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面临</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遭遇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正视</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混淆</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神志清醒的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自觉地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意识到</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解雇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>混乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失调</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱散</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>替代</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扭曲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失真</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使转向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分心</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使发展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演变</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夸大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>言过其实</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嘲笑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挫败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温和的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适当的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中等的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谦虚的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适度的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先驱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测, 预言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序言</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喜爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偏见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>损害</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预备的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初步的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保险费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前提</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经营产地</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改革</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改善</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感到高兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喜悦</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讲述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叙述</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亲戚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>眺望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忽略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宽容</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外国的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海外的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好奇的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稀奇的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curiosity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潮流</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumulative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aware</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>awkward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>笨拙的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不灵活的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extravagant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>额外的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过分的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extreme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invisible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>援助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求助于</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overturn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overwhelm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毁坏</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追赶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纠缠</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursuit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追捕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱好</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puzzle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迷惑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相反的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颠倒的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>revise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修订</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温习</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报酬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赏金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖赏</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rich</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摇晃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>routine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>争吵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管辖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条例</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surpass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优于</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surplus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过剩的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盈余</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>deficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不足的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveillance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幸存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残留下来的人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>susceptible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易受影响的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怀疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>料想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嫌疑人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspicion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀疑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspicious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sustain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支撑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忍受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保持</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂群, 一大圈, 许多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣誓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咒骂</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>膨胀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩大</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -21871,8 +25493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1198" sqref="B1198"/>
+    <sheetView tabSelected="1" topLeftCell="A1537" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1561" sqref="C1561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -28667,140 +32289,308 @@
       <c r="A613" s="2" t="s">
         <v>1605</v>
       </c>
+      <c r="D613" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>2732</v>
+      </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1606</v>
       </c>
+      <c r="D614" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E614" s="4" t="s">
+        <v>2734</v>
+      </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1607</v>
       </c>
+      <c r="D615" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>2736</v>
+      </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1608</v>
       </c>
+      <c r="D616" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>2738</v>
+      </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1609</v>
       </c>
+      <c r="D617" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>2740</v>
+      </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1610</v>
       </c>
+      <c r="D618" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>2742</v>
+      </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1611</v>
       </c>
+      <c r="D619" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>2744</v>
+      </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1612</v>
       </c>
+      <c r="D620" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>2746</v>
+      </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1613</v>
       </c>
+      <c r="D621" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>2748</v>
+      </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>1614</v>
       </c>
+      <c r="D622" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>2749</v>
+      </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1615</v>
       </c>
+      <c r="D623" s="2" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>2751</v>
+      </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D624" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D625" s="2" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D626" s="2" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D627" s="2" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D628" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D629" s="2" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E629" s="4" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D630" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D631" s="2" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D632" s="2" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D633" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D634" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D635" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D636" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="E636" s="4" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D637" s="2" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D638" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D639" s="2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1631</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>2782</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
@@ -31554,7 +35344,9 @@
       <c r="B1186" s="3" t="s">
         <v>2365</v>
       </c>
-      <c r="C1186" s="3"/>
+      <c r="C1186" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1187" s="2" t="s">
@@ -31620,7 +35412,9 @@
       <c r="B1196" s="4" t="s">
         <v>2369</v>
       </c>
-      <c r="C1196" s="4"/>
+      <c r="C1196" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1197" s="2" t="s">
@@ -31629,7 +35423,9 @@
       <c r="B1197" s="4" t="s">
         <v>2370</v>
       </c>
-      <c r="C1197" s="4"/>
+      <c r="C1197" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1198" s="2" t="s">
@@ -31638,7 +35434,9 @@
       <c r="B1198" s="4" t="s">
         <v>2371</v>
       </c>
-      <c r="C1198" s="4"/>
+      <c r="C1198" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1199" s="2" t="s">
@@ -31647,7 +35445,9 @@
       <c r="B1199" s="4" t="s">
         <v>2373</v>
       </c>
-      <c r="C1199" s="4"/>
+      <c r="C1199" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1200" s="2" t="s">
@@ -31675,7 +35475,9 @@
       <c r="B1203" s="4" t="s">
         <v>2375</v>
       </c>
-      <c r="C1203" s="4"/>
+      <c r="C1203" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1204" s="2" t="s">
@@ -31684,7 +35486,9 @@
       <c r="B1204" s="4" t="s">
         <v>2376</v>
       </c>
-      <c r="C1204" s="4"/>
+      <c r="C1204" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1205" s="2" t="s">
@@ -31707,7 +35511,9 @@
       <c r="B1207" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="C1207" s="3"/>
+      <c r="C1207" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1208" s="2" t="s">
@@ -31728,7 +35534,9 @@
       <c r="B1210" s="4" t="s">
         <v>2379</v>
       </c>
-      <c r="C1210" s="4"/>
+      <c r="C1210" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1211" s="2" t="s">
@@ -31746,7 +35554,9 @@
       <c r="B1212" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="C1212" s="3"/>
+      <c r="C1212" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1213" s="2" t="s">
@@ -31764,7 +35574,9 @@
       <c r="B1214" s="4" t="s">
         <v>2383</v>
       </c>
-      <c r="C1214" s="4"/>
+      <c r="C1214" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1215" s="2" t="s">
@@ -31778,12 +35590,17 @@
       <c r="B1216" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="C1216" s="3"/>
+      <c r="C1216" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1217" s="2" t="s">
         <v>2335</v>
       </c>
+      <c r="C1217" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1218" s="2" t="s">
@@ -31892,7 +35709,9 @@
       <c r="B1234" s="4" t="s">
         <v>2390</v>
       </c>
-      <c r="C1234" s="4"/>
+      <c r="C1234" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1235" s="2" t="s">
@@ -31915,7 +35734,9 @@
       <c r="B1237" s="4" t="s">
         <v>2392</v>
       </c>
-      <c r="C1237" s="4"/>
+      <c r="C1237" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1238" s="2" t="s">
@@ -31924,7 +35745,9 @@
       <c r="B1238" s="4" t="s">
         <v>2393</v>
       </c>
-      <c r="C1238" s="4"/>
+      <c r="C1238" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1239" s="2" t="s">
@@ -31956,7 +35779,9 @@
       <c r="B1242" s="4" t="s">
         <v>2396</v>
       </c>
-      <c r="C1242" s="4"/>
+      <c r="C1242" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1243" s="2" t="s">
@@ -32001,7 +35826,9 @@
       <c r="B1247" s="4" t="s">
         <v>2457</v>
       </c>
-      <c r="C1247" s="4"/>
+      <c r="C1247" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1248" s="2" t="s">
@@ -32010,7 +35837,9 @@
       <c r="B1248" s="4" t="s">
         <v>2458</v>
       </c>
-      <c r="C1248" s="4"/>
+      <c r="C1248" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1249" s="2" t="s">
@@ -32019,7 +35848,9 @@
       <c r="B1249" s="4" t="s">
         <v>2459</v>
       </c>
-      <c r="C1249" s="4"/>
+      <c r="C1249" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1250" s="2" t="s">
@@ -32028,7 +35859,9 @@
       <c r="B1250" s="4" t="s">
         <v>2460</v>
       </c>
-      <c r="C1250" s="4"/>
+      <c r="C1250" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1251" s="2" t="s">
@@ -32037,7 +35870,9 @@
       <c r="B1251" s="4" t="s">
         <v>2461</v>
       </c>
-      <c r="C1251" s="4"/>
+      <c r="C1251" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1252" s="2" t="s">
@@ -32078,7 +35913,9 @@
       <c r="B1256" s="4" t="s">
         <v>2464</v>
       </c>
-      <c r="C1256" s="4"/>
+      <c r="C1256" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1257" s="2" t="s">
@@ -32087,7 +35924,9 @@
       <c r="B1257" s="4" t="s">
         <v>2465</v>
       </c>
-      <c r="C1257" s="4"/>
+      <c r="C1257" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1258" s="2" t="s">
@@ -32185,7 +36024,9 @@
       <c r="B1271" s="4" t="s">
         <v>2472</v>
       </c>
-      <c r="C1271" s="4"/>
+      <c r="C1271" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1272" s="2" t="s">
@@ -32194,7 +36035,9 @@
       <c r="B1272" s="4" t="s">
         <v>2473</v>
       </c>
-      <c r="C1272" s="4"/>
+      <c r="C1272" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1273" s="2" t="s">
@@ -32240,7 +36083,9 @@
       <c r="B1278" s="4" t="s">
         <v>2477</v>
       </c>
-      <c r="C1278" s="4"/>
+      <c r="C1278" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1279" s="2" t="s">
@@ -32254,7 +36099,9 @@
       <c r="B1280" s="4" t="s">
         <v>2481</v>
       </c>
-      <c r="C1280" s="4"/>
+      <c r="C1280" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1281" s="2" t="s">
@@ -32295,7 +36142,9 @@
       <c r="B1285" s="4" t="s">
         <v>2480</v>
       </c>
-      <c r="C1285" s="4"/>
+      <c r="C1285" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1286" s="2" t="s">
@@ -32304,7 +36153,9 @@
       <c r="B1286" s="4" t="s">
         <v>2483</v>
       </c>
-      <c r="C1286" s="4"/>
+      <c r="C1286" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1287" s="2" t="s">
@@ -32313,7 +36164,9 @@
       <c r="B1287" s="4" t="s">
         <v>2484</v>
       </c>
-      <c r="C1287" s="4"/>
+      <c r="C1287" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1288" s="2" t="s">
@@ -32327,7 +36180,9 @@
       <c r="B1289" s="4" t="s">
         <v>2485</v>
       </c>
-      <c r="C1289" s="4"/>
+      <c r="C1289" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1290" s="2" t="s">
@@ -32336,7 +36191,9 @@
       <c r="B1290" s="3" t="s">
         <v>2486</v>
       </c>
-      <c r="C1290" s="3"/>
+      <c r="C1290" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1291" s="2" t="s">
@@ -32372,7 +36229,9 @@
       <c r="B1294" s="4" t="s">
         <v>2488</v>
       </c>
-      <c r="C1294" s="4"/>
+      <c r="C1294" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1295" s="2" t="s">
@@ -32386,7 +36245,9 @@
       <c r="B1296" s="4" t="s">
         <v>2491</v>
       </c>
-      <c r="C1296" s="4"/>
+      <c r="C1296" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1297" s="2" t="s">
@@ -32404,7 +36265,9 @@
       <c r="B1298" s="4" t="s">
         <v>2493</v>
       </c>
-      <c r="C1298" s="4"/>
+      <c r="C1298" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1299" s="2" t="s">
@@ -32413,7 +36276,9 @@
       <c r="B1299" s="3" t="s">
         <v>2494</v>
       </c>
-      <c r="C1299" s="3"/>
+      <c r="C1299" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1300" s="2" t="s">
@@ -32427,7 +36292,9 @@
       <c r="B1301" s="4" t="s">
         <v>2495</v>
       </c>
-      <c r="C1301" s="4"/>
+      <c r="C1301" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1302" s="2" t="s">
@@ -32454,6 +36321,9 @@
       <c r="B1305" s="4" t="s">
         <v>2587</v>
       </c>
+      <c r="C1305" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1306" s="2" t="s">
@@ -32467,6 +36337,9 @@
       <c r="B1307" s="4" t="s">
         <v>2588</v>
       </c>
+      <c r="C1307" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1308" s="2" t="s">
@@ -32475,6 +36348,9 @@
       <c r="B1308" s="4" t="s">
         <v>2589</v>
       </c>
+      <c r="C1308" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1309" s="2" t="s">
@@ -32493,6 +36369,9 @@
       <c r="B1311" s="3" t="s">
         <v>2590</v>
       </c>
+      <c r="C1311" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1312" s="2" t="s">
@@ -32501,95 +36380,125 @@
       <c r="B1312" s="4" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1312" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1313" s="2" t="s">
         <v>2532</v>
       </c>
       <c r="B1313" s="4" t="s">
         <v>2592</v>
       </c>
-    </row>
-    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1313" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1314" s="2" t="s">
         <v>2533</v>
       </c>
       <c r="B1314" s="4" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1314" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1315" s="2" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1316" s="2" t="s">
         <v>484</v>
       </c>
       <c r="B1316" s="3" t="s">
         <v>2594</v>
       </c>
-    </row>
-    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1316" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1317" s="2" t="s">
         <v>2535</v>
       </c>
       <c r="B1317" s="4" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1317" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1318" s="2" t="s">
         <v>2536</v>
       </c>
       <c r="B1318" s="4" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1318" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1319" s="2" t="s">
         <v>2537</v>
       </c>
     </row>
-    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1320" s="2" t="s">
         <v>2538</v>
       </c>
       <c r="B1320" s="2" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1320" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1321" s="2" t="s">
         <v>2539</v>
       </c>
       <c r="B1321" s="4" t="s">
         <v>2598</v>
       </c>
-    </row>
-    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1321" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1322" s="2" t="s">
         <v>2540</v>
       </c>
     </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1323" s="2" t="s">
         <v>2541</v>
       </c>
       <c r="B1323" s="4" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1323" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1324" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="B1324" s="4" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1324" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1325" s="2" t="s">
         <v>2543</v>
       </c>
@@ -32597,12 +36506,12 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1326" s="2" t="s">
         <v>2544</v>
       </c>
     </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1327" s="2" t="s">
         <v>612</v>
       </c>
@@ -32610,7 +36519,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1328" s="2" t="s">
         <v>2545</v>
       </c>
@@ -32618,38 +36527,44 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1329" s="2" t="s">
         <v>2546</v>
       </c>
     </row>
-    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1330" s="2" t="s">
         <v>2547</v>
       </c>
     </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1331" s="2" t="s">
         <v>2548</v>
       </c>
     </row>
-    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1332" s="2" t="s">
         <v>2549</v>
       </c>
       <c r="B1332" s="4" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1332" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1333" s="2" t="s">
         <v>2550</v>
       </c>
       <c r="B1333" s="4" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1333" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1334" s="2" t="s">
         <v>2551</v>
       </c>
@@ -32657,7 +36572,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1335" s="2" t="s">
         <v>2552</v>
       </c>
@@ -32665,7 +36580,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1336" s="2" t="s">
         <v>2553</v>
       </c>
@@ -32673,7 +36588,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1337" s="2" t="s">
         <v>615</v>
       </c>
@@ -32681,23 +36596,29 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1338" s="2" t="s">
         <v>2554</v>
       </c>
       <c r="B1338" s="4" t="s">
         <v>2610</v>
       </c>
-    </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1338" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1339" s="2" t="s">
         <v>2555</v>
       </c>
       <c r="B1339" s="4" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1339" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1340" s="2" t="s">
         <v>280</v>
       </c>
@@ -32705,7 +36626,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1341" s="2" t="s">
         <v>2556</v>
       </c>
@@ -32713,66 +36634,75 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1342" s="2" t="s">
         <v>2557</v>
       </c>
     </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1343" s="2" t="s">
         <v>2558</v>
       </c>
     </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1344" s="2" t="s">
         <v>2559</v>
       </c>
       <c r="B1344" s="4" t="s">
         <v>2614</v>
       </c>
-    </row>
-    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1344" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1345" s="2" t="s">
         <v>2560</v>
       </c>
       <c r="B1345" s="4" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1345" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1346" s="2" t="s">
         <v>2561</v>
       </c>
     </row>
-    <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1347" s="2" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1348" s="2" t="s">
         <v>2563</v>
       </c>
     </row>
-    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1349" s="2" t="s">
         <v>2564</v>
       </c>
       <c r="B1349" s="4" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1349" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1350" s="2" t="s">
         <v>2565</v>
       </c>
     </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1351" s="2" t="s">
         <v>2566</v>
       </c>
     </row>
-    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1352" s="2" t="s">
         <v>2567</v>
       </c>
@@ -32780,87 +36710,102 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1353" s="2" t="s">
         <v>2568</v>
       </c>
     </row>
-    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1354" s="2" t="s">
         <v>2569</v>
       </c>
       <c r="B1354" s="4" t="s">
         <v>2618</v>
       </c>
-    </row>
-    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1354" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1355" s="2" t="s">
         <v>2570</v>
       </c>
       <c r="B1355" s="3" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1355" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1356" s="2" t="s">
         <v>2571</v>
       </c>
       <c r="B1356" s="3" t="s">
         <v>2620</v>
       </c>
-    </row>
-    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1356" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1357" s="2" t="s">
         <v>2572</v>
       </c>
       <c r="B1357" s="4" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1357" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1358" s="2" t="s">
         <v>2573</v>
       </c>
     </row>
-    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1359" s="2" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1360" s="2" t="s">
         <v>2575</v>
       </c>
     </row>
-    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1361" s="2" t="s">
         <v>2576</v>
       </c>
     </row>
-    <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1362" s="2" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1363" s="2" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1364" s="2" t="s">
         <v>2579</v>
       </c>
       <c r="B1364" s="4" t="s">
         <v>2622</v>
       </c>
-    </row>
-    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1364" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1365" s="2" t="s">
         <v>2580</v>
       </c>
     </row>
-    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1366" s="2" t="s">
         <v>2624</v>
       </c>
@@ -32868,90 +36813,108 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1367" s="2" t="s">
         <v>2581</v>
       </c>
       <c r="B1367" s="4" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1367" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1368" s="2" t="s">
         <v>2582</v>
       </c>
     </row>
-    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1369" s="2" t="s">
         <v>2583</v>
       </c>
     </row>
-    <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1370" s="2" t="s">
         <v>2584</v>
       </c>
     </row>
-    <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1371" s="2" t="s">
         <v>2585</v>
       </c>
       <c r="B1371" s="4" t="s">
         <v>2626</v>
       </c>
-    </row>
-    <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1371" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1372" s="2" t="s">
         <v>2627</v>
       </c>
     </row>
-    <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1373" s="2" t="s">
         <v>2628</v>
       </c>
       <c r="B1373" s="2" t="s">
         <v>2684</v>
       </c>
-    </row>
-    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1373" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1374" s="2" t="s">
         <v>2629</v>
       </c>
     </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1375" s="2" t="s">
         <v>2630</v>
       </c>
       <c r="B1375" s="4" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1375" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1376" s="2" t="s">
         <v>2631</v>
       </c>
       <c r="B1376" s="4" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1376" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1377" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="B1377" s="4" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1377" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1378" s="2" t="s">
         <v>2633</v>
       </c>
     </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1379" s="2" t="s">
         <v>2634</v>
       </c>
     </row>
-    <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1380" s="2" t="s">
         <v>2635</v>
       </c>
@@ -32959,31 +36922,40 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1381" s="2" t="s">
         <v>2636</v>
       </c>
       <c r="B1381" s="4" t="s">
         <v>2688</v>
       </c>
-    </row>
-    <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1381" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1382" s="2" t="s">
         <v>2637</v>
       </c>
       <c r="B1382" s="4" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1382" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1383" s="2" t="s">
         <v>2638</v>
       </c>
       <c r="B1383" s="4" t="s">
         <v>2690</v>
       </c>
-    </row>
-    <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1383" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1384" s="2" t="s">
         <v>2639</v>
       </c>
@@ -32991,28 +36963,34 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1385" s="2" t="s">
         <v>1722</v>
       </c>
       <c r="B1385" s="4" t="s">
         <v>2692</v>
       </c>
-    </row>
-    <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1385" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1386" s="2" t="s">
         <v>2640</v>
       </c>
       <c r="B1386" s="4" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1386" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1387" s="2" t="s">
         <v>2641</v>
       </c>
     </row>
-    <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1388" s="2" t="s">
         <v>2642</v>
       </c>
@@ -33020,154 +36998,196 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1389" s="2" t="s">
         <v>2643</v>
       </c>
       <c r="B1389" s="4" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1389" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1390" s="2" t="s">
         <v>2644</v>
       </c>
       <c r="B1390" s="4" t="s">
         <v>2696</v>
       </c>
-    </row>
-    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1390" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1391" s="2" t="s">
         <v>2645</v>
       </c>
       <c r="B1391" s="4" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1391" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1392" s="2" t="s">
         <v>2700</v>
       </c>
       <c r="B1392" s="4" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1392" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1393" s="2" t="s">
         <v>2646</v>
       </c>
       <c r="B1393" s="4" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1393" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1394" s="2" t="s">
         <v>2647</v>
       </c>
       <c r="B1394" s="4" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1394" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1395" s="2" t="s">
         <v>2648</v>
       </c>
     </row>
-    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1396" s="2" t="s">
         <v>2649</v>
       </c>
       <c r="B1396" s="4" t="s">
         <v>2702</v>
       </c>
-    </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1396" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1397" s="2" t="s">
         <v>2650</v>
       </c>
       <c r="B1397" s="4" t="s">
         <v>2703</v>
       </c>
-    </row>
-    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1397" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1398" s="2" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1399" s="2" t="s">
         <v>2652</v>
       </c>
     </row>
-    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1400" s="2" t="s">
         <v>2653</v>
       </c>
     </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1401" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1402" s="2" t="s">
         <v>2654</v>
       </c>
       <c r="B1402" s="4" t="s">
         <v>2704</v>
       </c>
-    </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1402" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1403" s="2" t="s">
         <v>2655</v>
       </c>
       <c r="B1403" s="4" t="s">
         <v>2705</v>
       </c>
-    </row>
-    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1403" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1404" s="2" t="s">
         <v>2656</v>
       </c>
       <c r="B1404" s="4" t="s">
         <v>2706</v>
       </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1404" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1405" s="2" t="s">
         <v>2657</v>
       </c>
     </row>
-    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1406" s="2" t="s">
         <v>2658</v>
       </c>
     </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1407" s="2" t="s">
         <v>2659</v>
       </c>
       <c r="B1407" s="4" t="s">
         <v>2707</v>
       </c>
-    </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1407" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1408" s="2" t="s">
         <v>2660</v>
       </c>
       <c r="B1408" s="4" t="s">
         <v>2708</v>
       </c>
-    </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1408" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1409" s="2" t="s">
         <v>2661</v>
       </c>
       <c r="B1409" s="4" t="s">
         <v>2709</v>
       </c>
-    </row>
-    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1409" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1410" s="2" t="s">
         <v>2662</v>
       </c>
@@ -33175,70 +37195,88 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1411" s="2" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1412" s="2" t="s">
         <v>2711</v>
       </c>
       <c r="B1412" s="4" t="s">
         <v>2712</v>
       </c>
-    </row>
-    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1412" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1413" s="2" t="s">
         <v>2664</v>
       </c>
       <c r="B1413" s="3" t="s">
         <v>2713</v>
       </c>
-    </row>
-    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1413" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1414" s="2" t="s">
         <v>2665</v>
       </c>
       <c r="B1414" s="4" t="s">
         <v>2714</v>
       </c>
-    </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1414" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1415" s="2" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1416" s="2" t="s">
         <v>2667</v>
       </c>
       <c r="B1416" s="4" t="s">
         <v>2715</v>
       </c>
-    </row>
-    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1416" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1417" s="2" t="s">
         <v>2668</v>
       </c>
       <c r="B1417" s="4" t="s">
         <v>2716</v>
       </c>
-    </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1417" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1418" s="2" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1419" s="2" t="s">
         <v>2670</v>
       </c>
       <c r="B1419" s="4" t="s">
         <v>2717</v>
       </c>
-    </row>
-    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1419" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1420" s="2" t="s">
         <v>2671</v>
       </c>
@@ -33246,71 +37284,95 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1421" s="2" t="s">
         <v>1736</v>
       </c>
       <c r="B1421" s="4" t="s">
         <v>2719</v>
       </c>
-    </row>
-    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1421" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1422" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="B1422" s="4" t="s">
         <v>2720</v>
       </c>
-    </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1422" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1423" s="2" t="s">
         <v>2673</v>
       </c>
       <c r="B1423" s="4" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1423" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1424" s="2" t="s">
         <v>2674</v>
       </c>
       <c r="B1424" s="4" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1424" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1425" s="2" t="s">
         <v>2675</v>
       </c>
       <c r="B1425" s="4" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1425" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1426" s="2" t="s">
         <v>2676</v>
       </c>
       <c r="B1426" s="4" t="s">
         <v>2724</v>
       </c>
-    </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1426" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1427" s="2" t="s">
         <v>2677</v>
       </c>
       <c r="B1427" s="4" t="s">
         <v>2730</v>
       </c>
-    </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1427" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1428" s="2" t="s">
         <v>2678</v>
       </c>
       <c r="B1428" s="4" t="s">
         <v>2725</v>
       </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1428" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1429" s="2" t="s">
         <v>2682</v>
       </c>
@@ -33318,7 +37380,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1430" s="2" t="s">
         <v>2680</v>
       </c>
@@ -33326,23 +37388,1018 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1431" s="2" t="s">
         <v>2679</v>
       </c>
       <c r="B1431" s="4" t="s">
         <v>2728</v>
       </c>
-    </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1431" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1432" s="2" t="s">
         <v>2681</v>
       </c>
       <c r="B1432" s="4" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="1565" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C1432" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1433" s="2" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1433" s="4" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1434" s="2" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B1434" s="4" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C1434" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1435" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B1435" s="4" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1436" s="2" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B1436" s="4" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C1436" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1437" s="2" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1438" s="2" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B1438" s="4" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1439" s="2" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B1439" s="4" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1439" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1440" s="2" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1441" s="2" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1441" s="4" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1442" s="2" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1443" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1444" s="2" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1444" s="4" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C1444" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1445" s="2" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1447" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C1447" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1448" s="2" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1448" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1448" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1449" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1449" s="4" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1450" s="2" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1450" s="4" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1451" s="2" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1452" s="2" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E1452" s="1"/>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1453" s="2" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E1453" s="1"/>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1454" s="2" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1455" s="2" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B1455" s="4" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C1455" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1456" s="2" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B1459" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1459" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B1460" s="4" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1461" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B1461" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1461" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1462" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1462" s="4" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1463" s="2" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1464" s="2" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1465" s="2" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B1465" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C1465" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1466" s="2" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1466" s="4" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1466" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1467" s="2" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1468" s="2" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1468" s="4" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1469" s="2" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B1469" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C1469" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1470" s="2" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1470" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C1470" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1471" s="2" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1471" s="4" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1472" s="2" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1473" s="2" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1474" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1474" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1474" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1475" s="2" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1476" s="2" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1477" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B1477" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1477" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1478" s="2" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1479" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B1479" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B1480" s="3" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B1481" s="4" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1483" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B1483" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1483" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1484" s="2" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1484" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C1484" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1485" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B1485" s="4" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1485" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1486" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1486" s="3" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1487" s="2" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B1487" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1487" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1488" s="2" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B1488" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1488" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1489" s="2" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1490" s="2" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1491" s="2" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1492" s="2" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B1492" s="4" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1493" s="2" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1494" s="2" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B1494" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1494" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1495" s="2" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B1495" s="4" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C1495" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1496" s="2" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1497" s="2" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1498" s="2" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1498" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1498" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1499" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1499" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C1499" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1500" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1500" s="3" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1500" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1501" s="2" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1501" s="4" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1502" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B1502" s="4" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1503" s="2" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1503" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1503" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1504" s="2" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B1504" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1504" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1505" s="2" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1506" s="2" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B1506" s="4" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1507" s="2" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1508" s="2" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1508" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C1508" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1509" s="2" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1510" s="2" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1511" s="2" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1512" s="2" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1513" s="2" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1514" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B1514" s="4" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1514" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1515" s="2" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1515" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C1515" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1516" s="2" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1517" s="2" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1518" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1518" s="4" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1519" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1520" s="2" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1521" s="2" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1522" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B1522" s="4" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1522" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1523" s="2" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1524" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1524" s="4" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1524" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1525" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1525" s="4" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C1525" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1526" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1526" s="4" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1527" s="2" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1527" s="4" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1528" s="2" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1529" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1529" s="4" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1530" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1530" s="4" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C1530" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1531" s="2" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1532" s="2" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1533" s="2" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1534" s="2" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1535" s="2" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1536" s="2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1536" s="4" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1537" s="2" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1538" s="2" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1539" s="2" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1540" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1540" s="3" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1541" s="2" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1542" s="2" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1542" s="4" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1543" s="2" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1543" s="3" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1544" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1544" s="4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1544" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1545" s="2" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B1545" s="4" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C1545" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1546" s="2" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1547" s="2" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1548" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B1548" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1548" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1549" s="2" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1549" s="4" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1550" s="2" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1551" s="2" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B1551" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C1551" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1552" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1553" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B1553" s="4" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1554" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B1554" s="3" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1555" s="2" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1556" s="2" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1556" s="4" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1556" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1557" s="2" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1557" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1557" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1558" s="2" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1558" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C1558" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1559" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1559" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1559" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1560" s="2" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1561" s="2" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA657F-7127-4AC0-B937-D74C8A825F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B47434-5C8C-4485-8319-50710DD375FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13104" yWindow="0" windowWidth="10404" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="2977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="3212">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -21782,10 +21782,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>暂时缓解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pop up</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -25096,6 +25092,5446 @@
   </si>
   <si>
     <t>switch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓解, 缓刑(brief reprieve暂时|短暂缓解)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defraud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欺诈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>obstruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co-conspirator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共谋者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one count each of…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各有一项</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incandescent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白炽的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受专利保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老派</t>
+  </si>
+  <si>
+    <t>old-school</t>
+  </si>
+  <si>
+    <t>cent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美分</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>member-ship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflation-fuel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通货膨胀推动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦亮, 改进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鼓励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驱使</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适合的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适当的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有礼貌的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正当的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正派的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本身的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>份儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均衡</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求婚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求婚</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈述</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prospect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>景色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展望</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prospective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预期的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未来的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>礼仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外交情节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条约</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划分案</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proximate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最接近的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最邻近的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归还</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restraint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制止</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约束</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使附属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喜爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依恋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认为有</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到达</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attempt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企图</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>照料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出席</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伴随</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立正</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归因于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>court</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法庭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求婚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企图得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招致</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>覆盖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遮蔽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占有…面积</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赞誉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归因于…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>export</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使暴露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曝光</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面临</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遭受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>危险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给予</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>延伸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>延长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电话分机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广大的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广阔的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>限度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人文科学</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地位低下的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谦虚的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低劣的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企图</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强烈的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热情的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剧烈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧张</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intensive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加强的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深入细致的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相互影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>; (interaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intercourse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内景</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国内的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内政的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>international</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口译</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucrative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赚大钱的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获利多的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nerve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勇气</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nervous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧张的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>焦虑的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神经过敏的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nevertheless</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽管如此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不过</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营救</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怨恨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不喜欢</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使恢复活力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振作精神</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驳斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驳倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评估</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assimilate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸收</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>help</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呈现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>具有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承担</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假装</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assumption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>假定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设想</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有争议的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>争议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>convene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>召集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚集</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>convention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>社会习俗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常规惯例</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>converge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>趋同</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>convey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传达</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>势力范围</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国内的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>驯养的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dominant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支配的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统治的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占优势的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dominate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>俯视</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毁灭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厄运</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>探索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>探测器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手续</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>继续开展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开展</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proceeding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议记录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procession</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行列</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proclaim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宣布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(declare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尤指战争</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和平等国家大事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, proclaim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通常指正式场合公布重大事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要让大众知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>), pronounce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指正式严肃和官方的宣布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如婚礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, announce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指通知发表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常指媒体通报</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>率</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expansion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展物</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指望</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期限终止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呼气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>断气死亡</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instinct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>institute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>institution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>习俗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保险费</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投保</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构成整体必须的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完整的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成为一体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使完善</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>融入群体</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>诚实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -25491,10 +30927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1565"/>
+  <dimension ref="A1:E1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1537" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1561" sqref="C1561"/>
+    <sheetView tabSelected="1" topLeftCell="A1672" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1698" sqref="C1698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -32557,7 +37993,7 @@
         <v>2776</v>
       </c>
       <c r="E637" s="3" t="s">
-        <v>2777</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -32565,7 +38001,7 @@
         <v>1629</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>195</v>
@@ -32576,10 +38012,10 @@
         <v>1630</v>
       </c>
       <c r="D639" s="2" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E639" s="3" t="s">
         <v>2779</v>
-      </c>
-      <c r="E639" s="3" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -32587,88 +38023,166 @@
         <v>1631</v>
       </c>
       <c r="D640" s="2" t="s">
+        <v>2780</v>
+      </c>
+      <c r="E640" s="3" t="s">
         <v>2781</v>
       </c>
-      <c r="E640" s="3" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D641" s="2" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D642" s="2" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D643" s="2" t="s">
+        <v>2981</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D644" s="2" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D645" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D646" s="2" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D647" s="2" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D648" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D649" s="2" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E649" s="5" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D650" s="2" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D651" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D652" s="2" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D653" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1643</v>
       </c>
@@ -37412,18 +42926,18 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1433" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B1433" s="4" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1434" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B1434" s="4" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C1434" s="2">
         <v>0</v>
@@ -37431,18 +42945,18 @@
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1435" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1435" s="4" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1436" s="2" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1436" s="4" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C1436" s="2">
         <v>0</v>
@@ -37450,23 +42964,23 @@
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1437" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1438" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B1438" s="4" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1439" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B1439" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C1439" s="2">
         <v>0</v>
@@ -37474,20 +42988,20 @@
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1440" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1441" s="2" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1441" s="4" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1442" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="1443" spans="1:5" x14ac:dyDescent="0.25">
@@ -37497,10 +43011,10 @@
     </row>
     <row r="1444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1444" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1444" s="4" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C1444" s="2">
         <v>0</v>
@@ -37508,7 +43022,7 @@
     </row>
     <row r="1445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1445" s="2" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1445" s="2" t="s">
         <v>2360</v>
@@ -37521,10 +43035,10 @@
     </row>
     <row r="1447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1447" s="2" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B1447" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C1447" s="2">
         <v>0</v>
@@ -37532,10 +43046,10 @@
     </row>
     <row r="1448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1448" s="2" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1448" s="4" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C1448" s="2">
         <v>0</v>
@@ -37543,48 +43057,48 @@
     </row>
     <row r="1449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1449" s="2" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1449" s="4" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1450" s="2" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1450" s="4" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1451" s="2" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1452" s="2" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E1452" s="1"/>
     </row>
     <row r="1453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1453" s="2" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="E1453" s="1"/>
     </row>
     <row r="1454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1454" s="2" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1455" s="2" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B1455" s="4" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C1455" s="2">
         <v>0</v>
@@ -37592,25 +43106,25 @@
     </row>
     <row r="1456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1456" s="2" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1457" s="2" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1458" s="2" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1459" s="2" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1459" s="3" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C1459" s="2">
         <v>0</v>
@@ -37618,18 +43132,18 @@
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1460" s="2" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B1460" s="4" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1461" s="2" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1461" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C1461" s="2">
         <v>0</v>
@@ -37640,25 +43154,25 @@
         <v>46</v>
       </c>
       <c r="B1462" s="4" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1463" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1464" s="2" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1465" s="2" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1465" s="4" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C1465" s="2">
         <v>0</v>
@@ -37666,10 +43180,10 @@
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1466" s="2" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1466" s="4" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C1466" s="2">
         <v>0</v>
@@ -37677,23 +43191,23 @@
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1467" s="2" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1468" s="2" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1468" s="4" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1469" s="2" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1469" s="4" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="C1469" s="2">
         <v>0</v>
@@ -37701,10 +43215,10 @@
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1470" s="2" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1470" s="4" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C1470" s="2">
         <v>0</v>
@@ -37712,28 +43226,28 @@
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1471" s="2" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1471" s="4" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1472" s="2" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1473" s="2" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1474" s="2" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1474" s="4" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="C1474" s="2">
         <v>0</v>
@@ -37741,20 +43255,20 @@
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1475" s="2" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1476" s="2" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1477" s="2" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B1477" s="4" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C1477" s="2">
         <v>0</v>
@@ -37762,44 +43276,44 @@
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1478" s="2" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1479" s="2" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B1479" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1480" s="2" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B1480" s="3" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1481" s="2" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1481" s="4" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1482" s="2" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1483" s="2" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B1483" s="4" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C1483" s="2">
         <v>0</v>
@@ -37807,10 +43321,10 @@
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1484" s="2" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B1484" s="4" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C1484" s="2">
         <v>0</v>
@@ -37818,10 +43332,10 @@
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1485" s="2" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B1485" s="4" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C1485" s="2">
         <v>0</v>
@@ -37829,18 +43343,18 @@
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1486" s="2" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B1486" s="3" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1487" s="2" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B1487" s="4" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C1487" s="2">
         <v>0</v>
@@ -37848,10 +43362,10 @@
     </row>
     <row r="1488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1488" s="2" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="B1488" s="4" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C1488" s="2">
         <v>0</v>
@@ -37859,38 +43373,38 @@
     </row>
     <row r="1489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1489" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1490" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1491" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1492" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B1492" s="4" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1493" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1494" s="2" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="B1494" s="4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C1494" s="2">
         <v>0</v>
@@ -37898,10 +43412,10 @@
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1495" s="2" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B1495" s="4" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C1495" s="2">
         <v>0</v>
@@ -37909,20 +43423,20 @@
     </row>
     <row r="1496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1496" s="2" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1497" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1498" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1498" s="4" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C1498" s="2">
         <v>0</v>
@@ -37930,10 +43444,10 @@
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1499" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B1499" s="3" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C1499" s="2">
         <v>0</v>
@@ -37941,10 +43455,10 @@
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1500" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B1500" s="3" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C1500" s="2">
         <v>0</v>
@@ -37952,26 +43466,26 @@
     </row>
     <row r="1501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1501" s="2" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1501" s="4" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1502" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B1502" s="4" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1503" s="2" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B1503" s="4" t="s">
         <v>2892</v>
-      </c>
-      <c r="B1503" s="4" t="s">
-        <v>2893</v>
       </c>
       <c r="C1503" s="2">
         <v>0</v>
@@ -37979,10 +43493,10 @@
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1504" s="2" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B1504" s="3" t="s">
         <v>2894</v>
-      </c>
-      <c r="B1504" s="3" t="s">
-        <v>2895</v>
       </c>
       <c r="C1504" s="2">
         <v>0</v>
@@ -37990,28 +43504,28 @@
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1505" s="2" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1506" s="2" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1506" s="4" t="s">
         <v>2897</v>
-      </c>
-      <c r="B1506" s="4" t="s">
-        <v>2898</v>
       </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1507" s="2" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1508" s="2" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1508" s="3" t="s">
         <v>2900</v>
-      </c>
-      <c r="B1508" s="3" t="s">
-        <v>2901</v>
       </c>
       <c r="C1508" s="2">
         <v>0</v>
@@ -38019,35 +43533,35 @@
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1509" s="2" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1510" s="2" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1511" s="2" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1512" s="2" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1513" s="2" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1514" s="2" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1514" s="4" t="s">
         <v>2907</v>
-      </c>
-      <c r="B1514" s="4" t="s">
-        <v>2908</v>
       </c>
       <c r="C1514" s="2">
         <v>0</v>
@@ -38055,10 +43569,10 @@
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1515" s="2" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1515" s="4" t="s">
         <v>2909</v>
-      </c>
-      <c r="B1515" s="4" t="s">
-        <v>2910</v>
       </c>
       <c r="C1515" s="2">
         <v>0</v>
@@ -38066,20 +43580,20 @@
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1516" s="2" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1517" s="2" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1518" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1518" s="4" t="s">
         <v>2913</v>
-      </c>
-      <c r="B1518" s="4" t="s">
-        <v>2914</v>
       </c>
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.25">
@@ -38089,20 +43603,20 @@
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1520" s="2" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1521" s="2" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1522" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1522" s="4" t="s">
         <v>2917</v>
-      </c>
-      <c r="B1522" s="4" t="s">
-        <v>2918</v>
       </c>
       <c r="C1522" s="2">
         <v>0</v>
@@ -38110,15 +43624,15 @@
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1523" s="2" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1524" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1524" s="4" t="s">
         <v>2920</v>
-      </c>
-      <c r="B1524" s="4" t="s">
-        <v>2921</v>
       </c>
       <c r="C1524" s="2">
         <v>0</v>
@@ -38126,10 +43640,10 @@
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1525" s="2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1525" s="4" t="s">
         <v>2922</v>
-      </c>
-      <c r="B1525" s="4" t="s">
-        <v>2923</v>
       </c>
       <c r="C1525" s="2">
         <v>0</v>
@@ -38137,39 +43651,39 @@
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1526" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1526" s="4" t="s">
         <v>2924</v>
-      </c>
-      <c r="B1526" s="4" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1527" s="2" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1527" s="4" t="s">
         <v>2926</v>
-      </c>
-      <c r="B1527" s="4" t="s">
-        <v>2927</v>
       </c>
     </row>
     <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1528" s="2" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1529" s="2" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1529" s="4" t="s">
         <v>2929</v>
-      </c>
-      <c r="B1529" s="4" t="s">
-        <v>2930</v>
       </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1530" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1530" s="4" t="s">
         <v>2931</v>
-      </c>
-      <c r="B1530" s="4" t="s">
-        <v>2932</v>
       </c>
       <c r="C1530" s="2">
         <v>0</v>
@@ -38177,87 +43691,87 @@
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1531" s="2" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1532" s="2" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1533" s="2" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1534" s="2" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1535" s="2" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1536" s="2" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B1536" s="4" t="s">
         <v>2938</v>
-      </c>
-      <c r="B1536" s="4" t="s">
-        <v>2939</v>
       </c>
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1537" s="2" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1538" s="2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1539" s="2" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1540" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1540" s="3" t="s">
         <v>2943</v>
-      </c>
-      <c r="B1540" s="3" t="s">
-        <v>2944</v>
       </c>
     </row>
     <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1541" s="2" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1542" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B1542" s="4" t="s">
         <v>2946</v>
-      </c>
-      <c r="B1542" s="4" t="s">
-        <v>2947</v>
       </c>
     </row>
     <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1543" s="2" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B1543" s="3" t="s">
         <v>2948</v>
-      </c>
-      <c r="B1543" s="3" t="s">
-        <v>2949</v>
       </c>
     </row>
     <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1544" s="2" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B1544" s="4" t="s">
         <v>2950</v>
-      </c>
-      <c r="B1544" s="4" t="s">
-        <v>2951</v>
       </c>
       <c r="C1544" s="2">
         <v>0</v>
@@ -38265,10 +43779,10 @@
     </row>
     <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1545" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1545" s="4" t="s">
         <v>2952</v>
-      </c>
-      <c r="B1545" s="4" t="s">
-        <v>2953</v>
       </c>
       <c r="C1545" s="2">
         <v>0</v>
@@ -38276,20 +43790,20 @@
     </row>
     <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1546" s="2" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1547" s="2" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1548" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B1548" s="3" t="s">
         <v>2956</v>
-      </c>
-      <c r="B1548" s="3" t="s">
-        <v>2957</v>
       </c>
       <c r="C1548" s="2">
         <v>0</v>
@@ -38297,23 +43811,23 @@
     </row>
     <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1549" s="2" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1549" s="4" t="s">
         <v>2958</v>
-      </c>
-      <c r="B1549" s="4" t="s">
-        <v>2959</v>
       </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1550" s="2" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1551" s="2" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1551" s="3" t="s">
         <v>2961</v>
-      </c>
-      <c r="B1551" s="3" t="s">
-        <v>2962</v>
       </c>
       <c r="C1551" s="2">
         <v>0</v>
@@ -38326,31 +43840,31 @@
     </row>
     <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1553" s="2" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1553" s="4" t="s">
         <v>2963</v>
-      </c>
-      <c r="B1553" s="4" t="s">
-        <v>2964</v>
       </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1554" s="2" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1554" s="3" t="s">
         <v>2965</v>
-      </c>
-      <c r="B1554" s="3" t="s">
-        <v>2966</v>
       </c>
     </row>
     <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1555" s="2" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1556" s="2" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B1556" s="4" t="s">
         <v>2968</v>
-      </c>
-      <c r="B1556" s="4" t="s">
-        <v>2969</v>
       </c>
       <c r="C1556" s="2">
         <v>0</v>
@@ -38358,10 +43872,10 @@
     </row>
     <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1557" s="2" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B1557" s="3" t="s">
         <v>2970</v>
-      </c>
-      <c r="B1557" s="3" t="s">
-        <v>2971</v>
       </c>
       <c r="C1557" s="2">
         <v>0</v>
@@ -38369,10 +43883,10 @@
     </row>
     <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1558" s="2" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B1558" s="4" t="s">
         <v>2972</v>
-      </c>
-      <c r="B1558" s="4" t="s">
-        <v>2973</v>
       </c>
       <c r="C1558" s="2">
         <v>0</v>
@@ -38383,7 +43897,7 @@
         <v>2078</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="C1559" s="2">
         <v>0</v>
@@ -38391,15 +43905,1117 @@
     </row>
     <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1560" s="2" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1561" s="2" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1562" s="2" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1562" s="3" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1563" s="2" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1564" s="2" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1564" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1564" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1565" s="2" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1565" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1565" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1566" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1566" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1566" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1567" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1567" s="4" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1568" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1568" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C1568" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1569" s="2" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1569" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1569" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1570" s="2" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1570" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1570" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1571" s="2" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1571" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1571" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1572" s="2" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1572" s="4" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1573" s="2" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1573" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1573" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1574" s="2" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1574" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1574" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1575" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1575" s="4" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1576" s="2" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1576" s="4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1576" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1577" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1577" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1577" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1578" s="2" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1578" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1578" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1579" s="2" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1579" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1579" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1580" s="2" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1581" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1581" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1581" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1582" s="2" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1582" s="4" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1583" s="2" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1583" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1583" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1584" s="2" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1584" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1584" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1585" s="2" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1586" s="2" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B1586" s="4" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1587" s="2" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B1587" s="4" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1588" s="2" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1588" s="4" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1589" s="2" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1590" s="2" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1591" s="2" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1591" s="4" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1592" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1593" s="2" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1594" s="2" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1595" s="2" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1596" s="2" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1596" s="4" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1597" s="2" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B1597" s="4" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1598" s="2" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1598" s="4"/>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1599" s="2" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1600" s="2" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1600" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1600" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1601" s="2" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1601" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C1601" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1602" s="2" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1602" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1602" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1603" s="2" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B1603" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1603" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1604" s="2" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1605" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1605" s="4" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1606" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1606" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C1606" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1607" s="2" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B1607" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C1607" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1608" s="2" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1609" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1609" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1609" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1610" s="2" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B1610" s="4" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C1610" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1611" s="2" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B1611" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C1611" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1612" s="2" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1612" s="4" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1613" s="2" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1614" s="2" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1615" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B1615" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C1615" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1616" s="2" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1616" s="4" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1617" s="2" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1618" s="2" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B1618" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1618" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1619" s="2" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1620" s="2" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1620" s="3" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1621" s="2" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1622" s="2" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1623" s="2" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1623" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1623" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1624" s="2" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1624" s="4" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1625" s="2" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B1625" s="4" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1626" s="2" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B1626" s="4" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1627" s="2" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1627" s="3" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1628" s="2" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1629" s="2" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B1629" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1629" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1630" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B1630" s="4" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1631" s="2" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1631" s="4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C1631" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1632" s="2" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1633" s="2" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1634" s="2" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1635" s="2" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1636" s="2" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1637" s="2" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1637" s="3" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1638" s="2" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1639" s="2" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1640" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1641" s="2" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1642" s="2" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1643" s="2" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1644" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1644" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C1644" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1645" s="2" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1645" s="4" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1646" s="2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B1646" s="4" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1647" s="2" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1647" s="3"/>
+    </row>
+    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1648" s="2" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1649" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B1649" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1649" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1650" s="2" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B1650" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1650" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1651" s="2" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1652" s="2" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1653" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B1653" s="4" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C1653" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1654" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1654" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C1654" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1655" s="2" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1656" s="2" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B1656" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C1656" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1657" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B1657" s="4" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C1657" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1658" s="2" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B1658" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1658" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1659" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B1659" s="4" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1660" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B1660" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C1660" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1661" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1661" s="4" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C1661" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1662" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B1662" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1662" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1663" s="2" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B1663" s="4" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1663" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1664" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1664" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1664" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1665" s="2" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1666" s="2" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1667" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B1667" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C1667" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1668" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B1668" s="4" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1669" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1669" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C1669" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1670" s="2" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B1670" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C1670" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1671" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B1671" s="4" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1672" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B1672" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1672" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1673" s="2" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B1673" s="4" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1674" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1674" s="3"/>
+    </row>
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1675" s="2" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1676" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B1676" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1677" s="2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1677" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1678" s="2" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B1678" s="4" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1679" s="2" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1680" s="2" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1681" s="2" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1682" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B1682" s="4" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1683" s="2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B1683" s="4" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1684" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1685" s="2" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1686" s="2" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" s="2" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1688" s="2" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B1688" s="3" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1689" s="2" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B1689" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1689" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1690" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B1690" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1690" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1691" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B1691" s="4" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1692" s="2" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1692" s="4" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1693" s="2" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B1693" s="4" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1694" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B1694" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1694" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1695" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B1695" s="4" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1696" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1696" s="4" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1697" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1697" s="4" t="s">
+        <v>3211</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D379D3-E285-4F82-867F-2D0E8AA6186D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E5366A-AB1C-4026-9CDF-B89FC8561C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6324" yWindow="36" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="156" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="4184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="4200">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55782,10 +55782,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>backrupty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>破产</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -55814,6 +55810,72 @@
   </si>
   <si>
     <t>sympton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankruptcy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震惊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>civil fraud</t>
+  </si>
+  <si>
+    <t>民事欺诈</t>
+  </si>
+  <si>
+    <t>net worth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallen ill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticorruption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反腐败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56211,7 +56273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1547" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1543" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A1557" sqref="A1557"/>
     </sheetView>
   </sheetViews>
@@ -65977,10 +66039,10 @@
         <v>3930</v>
       </c>
       <c r="C810" s="2" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D810" s="3" t="s">
         <v>4175</v>
-      </c>
-      <c r="D810" s="3" t="s">
-        <v>4176</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
@@ -65991,10 +66053,10 @@
         <v>3931</v>
       </c>
       <c r="C811" s="2" t="s">
+        <v>4176</v>
+      </c>
+      <c r="D811" s="3" t="s">
         <v>4177</v>
-      </c>
-      <c r="D811" s="3" t="s">
-        <v>4178</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
@@ -66005,10 +66067,10 @@
         <v>3932</v>
       </c>
       <c r="C812" s="2" t="s">
+        <v>4178</v>
+      </c>
+      <c r="D812" s="3" t="s">
         <v>4179</v>
-      </c>
-      <c r="D812" s="3" t="s">
-        <v>4180</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
@@ -66019,7 +66081,7 @@
         <v>3933</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="D813" s="3" t="s">
         <v>3495</v>
@@ -66030,10 +66092,10 @@
         <v>1850</v>
       </c>
       <c r="C814" s="5" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="D814" s="5" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
@@ -66043,6 +66105,12 @@
       <c r="B815" s="4" t="s">
         <v>3934</v>
       </c>
+      <c r="C815" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>4184</v>
+      </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
@@ -66051,73 +66119,127 @@
       <c r="B816" s="4" t="s">
         <v>3935</v>
       </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C816" s="2" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
         <v>1853</v>
       </c>
       <c r="B817" s="4" t="s">
         <v>3936</v>
       </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C817" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
         <v>1854</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>3937</v>
       </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C818" s="2" t="s">
+        <v>4188</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C819" s="2" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D819" s="5" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B820" s="4" t="s">
         <v>3938</v>
       </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C820" s="2" t="s">
+        <v>4192</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
         <v>1856</v>
       </c>
       <c r="B821" s="4" t="s">
         <v>3939</v>
       </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C821" s="2" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="2" t="s">
         <v>1857</v>
       </c>
       <c r="B822" s="4" t="s">
         <v>3940</v>
       </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C822" s="2" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="2" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C823" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="2" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C824" s="2" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
         <v>1862</v>
       </c>
@@ -66125,7 +66247,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
         <v>1863</v>
       </c>
@@ -66133,22 +66255,22 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
         <v>1867</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E5366A-AB1C-4026-9CDF-B89FC8561C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A87E1E3-FA2B-49AA-8E0F-E8A1AF5AA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="156" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="600" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="4200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="4204">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55876,6 +55876,22 @@
   </si>
   <si>
     <t>反腐败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extradition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引渡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-security</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒备森严的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56273,8 +56289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1543" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1557" sqref="A1557"/>
+    <sheetView tabSelected="1" topLeftCell="C806" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C827" sqref="C827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -66233,10 +66249,22 @@
       <c r="A825" s="2" t="s">
         <v>1860</v>
       </c>
+      <c r="C825" s="2" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>4201</v>
+      </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
         <v>1861</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>4202</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>4203</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A87E1E3-FA2B-49AA-8E0F-E8A1AF5AA236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641B4C9-6C1A-4B66-9BC1-DE54E484B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="600" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="0" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="4204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="4246">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55892,6 +55892,201 @@
   </si>
   <si>
     <t>戒备森严的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款额</t>
+  </si>
+  <si>
+    <t>loan volume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>监管机构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrutinize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔细审查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market capitalization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insatiable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能满足的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forecast-beating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出预期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搁浅,受困</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>white-knuckle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchdown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>着陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intuitive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直觉的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未受损害的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip over</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被绊倒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧张刺激的(白色指关节)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>far-reaching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响深远的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the aftermath of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…结束后的一段时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能, 核的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repatriate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遣送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56289,8 +56484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C806" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C827" sqref="C827"/>
+    <sheetView tabSelected="1" topLeftCell="C825" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D832" sqref="D832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -66274,6 +66469,12 @@
       <c r="B827" s="4" t="s">
         <v>3941</v>
       </c>
+      <c r="C827" s="2" t="s">
+        <v>4205</v>
+      </c>
+      <c r="D827" s="5" t="s">
+        <v>4204</v>
+      </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="2" t="s">
@@ -66282,21 +66483,45 @@
       <c r="B828" s="4" t="s">
         <v>3942</v>
       </c>
+      <c r="C828" s="2" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>4207</v>
+      </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="2" t="s">
         <v>1864</v>
       </c>
+      <c r="C829" s="2" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>4209</v>
+      </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="2" t="s">
         <v>1865</v>
       </c>
+      <c r="C830" s="2" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>4211</v>
+      </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
         <v>1866</v>
       </c>
+      <c r="C831" s="2" t="s">
+        <v>4212</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>4213</v>
+      </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="2" t="s">
@@ -66305,119 +66530,227 @@
       <c r="B832" s="4" t="s">
         <v>3943</v>
       </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C832" s="2" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" s="2" t="s">
         <v>1868</v>
       </c>
       <c r="B833" s="4" t="s">
         <v>3944</v>
       </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C833" s="2" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" s="2" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C834" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" s="2" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C835" s="2" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" s="2" t="s">
         <v>1871</v>
       </c>
       <c r="B836" s="4" t="s">
         <v>3945</v>
       </c>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C836" s="2" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" s="2" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C837" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" s="2" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C838" s="2" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839" s="2" t="s">
         <v>1874</v>
       </c>
       <c r="B839" s="3" t="s">
         <v>3962</v>
       </c>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C839" s="2" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" s="2" t="s">
         <v>1875</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>3946</v>
       </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C840" s="2" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" s="2" t="s">
         <v>1876</v>
       </c>
       <c r="B841" s="4" t="s">
         <v>3947</v>
       </c>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C841" s="2" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842" s="2" t="s">
         <v>1877</v>
       </c>
       <c r="B842" s="4" t="s">
         <v>3948</v>
       </c>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C842" s="2" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" s="2" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C843" s="2" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" s="2" t="s">
         <v>1879</v>
       </c>
       <c r="B844" s="4" t="s">
         <v>3949</v>
       </c>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C844" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="2" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C845" s="2" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="2" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C846" s="2" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847" s="2" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C847" s="2" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="2" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C848" s="2" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="2" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C849" s="2" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="2" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
         <v>1762</v>
       </c>
@@ -66425,17 +66758,17 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
         <v>1888</v>
       </c>
@@ -66443,7 +66776,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
         <v>1889</v>
       </c>
@@ -66451,17 +66784,17 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
         <v>1891</v>
       </c>
@@ -66469,7 +66802,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
         <v>1892</v>
       </c>
@@ -66477,7 +66810,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
         <v>1893</v>
       </c>
@@ -66485,7 +66818,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
         <v>1894</v>
       </c>
@@ -66493,12 +66826,12 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="2" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
         <v>1896</v>
       </c>
@@ -66506,7 +66839,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
         <v>1897</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641B4C9-6C1A-4B66-9BC1-DE54E484B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5FA301-3202-4D18-9DD5-3EE4048F5F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="0" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14028" yWindow="216" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="4246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="4270">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56087,6 +56087,130 @@
   </si>
   <si>
     <t>遣送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asylum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limbo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>underfunded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金不足的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backlog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to no avail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒劳无功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>billionaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿万富翁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file a lawsuit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提起诉讼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectively</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanoid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人形的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bipedal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双足的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dexterous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵巧的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmacy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药店</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56484,8 +56608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C825" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D832" sqref="D832"/>
+    <sheetView tabSelected="1" topLeftCell="C846" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C864" sqref="C864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -66749,6 +66873,12 @@
       <c r="A850" s="2" t="s">
         <v>1885</v>
       </c>
+      <c r="C850" s="2" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>4247</v>
+      </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="2" t="s">
@@ -66757,16 +66887,34 @@
       <c r="B851" s="4" t="s">
         <v>3950</v>
       </c>
+      <c r="C851" s="2" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>4249</v>
+      </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="2" t="s">
         <v>1886</v>
       </c>
+      <c r="C852" s="2" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>4251</v>
+      </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" s="2" t="s">
         <v>1887</v>
       </c>
+      <c r="C853" s="2" t="s">
+        <v>4252</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>4253</v>
+      </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854" s="2" t="s">
@@ -66775,6 +66923,12 @@
       <c r="B854" s="4" t="s">
         <v>3951</v>
       </c>
+      <c r="C854" s="2" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>4255</v>
+      </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855" s="2" t="s">
@@ -66783,16 +66937,34 @@
       <c r="B855" s="4" t="s">
         <v>3952</v>
       </c>
+      <c r="C855" s="2" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>4257</v>
+      </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="C856" s="2" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>4259</v>
+      </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" s="2" t="s">
         <v>1890</v>
       </c>
+      <c r="C857" s="2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>4261</v>
+      </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="2" t="s">
@@ -66801,6 +66973,12 @@
       <c r="B858" s="4" t="s">
         <v>3953</v>
       </c>
+      <c r="C858" s="2" t="s">
+        <v>4262</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>4263</v>
+      </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="2" t="s">
@@ -66809,6 +66987,12 @@
       <c r="B859" s="4" t="s">
         <v>3954</v>
       </c>
+      <c r="C859" s="2" t="s">
+        <v>4264</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>4265</v>
+      </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="2" t="s">
@@ -66817,6 +67001,12 @@
       <c r="B860" s="4" t="s">
         <v>3955</v>
       </c>
+      <c r="C860" s="2" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>4267</v>
+      </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861" s="2" t="s">
@@ -66824,6 +67014,12 @@
       </c>
       <c r="B861" s="4" t="s">
         <v>3956</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D861" s="4" t="s">
+        <v>4269</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5FA301-3202-4D18-9DD5-3EE4048F5F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E3BCDC-0AB1-4A65-90EB-4539F36E2C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14028" yWindow="216" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14088" yWindow="180" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="4270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="4290">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56211,6 +56211,86 @@
       </rPr>
       <t>房</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对…封顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不稳定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unanimous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palce on hold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被搁置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosecution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurrection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叛乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>territory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(海外)领地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞纳金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junk fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾收费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>severance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遣散费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56608,8 +56688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C846" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C864" sqref="C864"/>
+    <sheetView tabSelected="1" topLeftCell="C848" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D871" sqref="D871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -67026,6 +67106,12 @@
       <c r="A862" s="2" t="s">
         <v>1895</v>
       </c>
+      <c r="C862" s="2" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>4271</v>
+      </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="2" t="s">
@@ -67034,6 +67120,12 @@
       <c r="B863" s="3" t="s">
         <v>3957</v>
       </c>
+      <c r="C863" s="2" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>4273</v>
+      </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="2" t="s">
@@ -67042,63 +67134,117 @@
       <c r="B864" s="4" t="s">
         <v>3958</v>
       </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C864" s="2" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" s="2" t="s">
         <v>1898</v>
       </c>
       <c r="B865" s="3" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C865" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D865" s="3" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866" s="2" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C866" s="2" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867" s="2" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C867" s="2" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868" s="2" t="s">
         <v>1901</v>
       </c>
       <c r="B868" s="4" t="s">
         <v>3963</v>
       </c>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C868" s="2" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D868" s="3" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869" s="2" t="s">
         <v>1902</v>
       </c>
       <c r="B869" s="3" t="s">
         <v>3961</v>
       </c>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C869" s="2" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D869" s="3" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" s="2" t="s">
         <v>1903</v>
       </c>
       <c r="B870" s="4" t="s">
         <v>3960</v>
       </c>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C870" s="2" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D870" s="3" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871" s="2" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C871" s="2" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="2" t="s">
         <v>1924</v>
       </c>
       <c r="B872" s="4" t="s">
         <v>3965</v>
       </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C872" s="2" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873" s="2" t="s">
         <v>1925</v>
       </c>
@@ -67106,7 +67252,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874" s="2" t="s">
         <v>1926</v>
       </c>
@@ -67114,7 +67260,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875" s="2" t="s">
         <v>1927</v>
       </c>
@@ -67122,7 +67268,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876" s="2" t="s">
         <v>1928</v>
       </c>
@@ -67130,7 +67276,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="2" t="s">
         <v>1929</v>
       </c>
@@ -67138,17 +67284,17 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="2" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="2" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" s="2" t="s">
         <v>1932</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4533AC5-4AC8-423C-9EB4-FD342ABBDB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A31DF-FAC0-4345-B08F-5B6066C9534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14016" yWindow="12" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14064" yWindow="24" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4503" uniqueCount="4323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4531" uniqueCount="4348">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56302,10 +56302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金属抖擞的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>lay out</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -56423,6 +56419,166 @@
   </si>
   <si>
     <t>系列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜明的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>biographical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传记的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thriller</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊悚电影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非主流的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独立的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumptive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demeanor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举止,风范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伪造(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>doctored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伪造的)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归因于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chalk up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>retouch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abdominal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹部的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rumor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谣言</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56820,8 +56976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C865" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D879" sqref="D879"/>
+    <sheetView tabSelected="1" topLeftCell="C880" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D902" sqref="D902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -58410,7 +58566,7 @@
         <v>1020</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>266</v>
@@ -67401,7 +67557,7 @@
         <v>4291</v>
       </c>
       <c r="D874" s="3" t="s">
-        <v>4292</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.25">
@@ -67412,10 +67568,10 @@
         <v>3966</v>
       </c>
       <c r="C875" s="2" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D875" s="3" t="s">
         <v>4293</v>
-      </c>
-      <c r="D875" s="3" t="s">
-        <v>4294</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
@@ -67426,10 +67582,10 @@
         <v>3967</v>
       </c>
       <c r="C876" s="2" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D876" s="3" t="s">
         <v>4295</v>
-      </c>
-      <c r="D876" s="3" t="s">
-        <v>4296</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
@@ -67440,10 +67596,10 @@
         <v>3968</v>
       </c>
       <c r="C877" s="2" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D877" s="3" t="s">
         <v>4297</v>
-      </c>
-      <c r="D877" s="3" t="s">
-        <v>4298</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
@@ -67451,10 +67607,10 @@
         <v>1929</v>
       </c>
       <c r="C878" s="2" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D878" s="3" t="s">
         <v>4299</v>
-      </c>
-      <c r="D878" s="3" t="s">
-        <v>4300</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
@@ -67462,10 +67618,10 @@
         <v>1930</v>
       </c>
       <c r="C879" s="2" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D879" s="3" t="s">
         <v>4302</v>
-      </c>
-      <c r="D879" s="3" t="s">
-        <v>4303</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
@@ -67473,10 +67629,10 @@
         <v>1931</v>
       </c>
       <c r="C880" s="2" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D880" s="3" t="s">
         <v>4304</v>
-      </c>
-      <c r="D880" s="3" t="s">
-        <v>4305</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
@@ -67484,10 +67640,10 @@
         <v>1932</v>
       </c>
       <c r="C881" s="2" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D881" s="3" t="s">
         <v>4306</v>
-      </c>
-      <c r="D881" s="3" t="s">
-        <v>4307</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
@@ -67495,10 +67651,10 @@
         <v>1933</v>
       </c>
       <c r="C882" s="2" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D882" s="3" t="s">
         <v>4308</v>
-      </c>
-      <c r="D882" s="3" t="s">
-        <v>4309</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.25">
@@ -67509,10 +67665,10 @@
         <v>3969</v>
       </c>
       <c r="C883" s="2" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D883" s="3" t="s">
         <v>4310</v>
-      </c>
-      <c r="D883" s="3" t="s">
-        <v>4311</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
@@ -67523,10 +67679,10 @@
         <v>3970</v>
       </c>
       <c r="C884" s="2" t="s">
+        <v>4311</v>
+      </c>
+      <c r="D884" s="3" t="s">
         <v>4312</v>
-      </c>
-      <c r="D884" s="3" t="s">
-        <v>4313</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
@@ -67537,10 +67693,10 @@
         <v>3971</v>
       </c>
       <c r="C885" s="2" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D885" s="3" t="s">
         <v>4314</v>
-      </c>
-      <c r="D885" s="3" t="s">
-        <v>4315</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
@@ -67551,10 +67707,10 @@
         <v>3972</v>
       </c>
       <c r="C886" s="2" t="s">
+        <v>4315</v>
+      </c>
+      <c r="D886" s="3" t="s">
         <v>4316</v>
-      </c>
-      <c r="D886" s="3" t="s">
-        <v>4317</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
@@ -67562,10 +67718,10 @@
         <v>1938</v>
       </c>
       <c r="C887" s="2" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D887" s="3" t="s">
         <v>4318</v>
-      </c>
-      <c r="D887" s="3" t="s">
-        <v>4319</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
@@ -67573,10 +67729,10 @@
         <v>1939</v>
       </c>
       <c r="C888" s="2" t="s">
+        <v>4319</v>
+      </c>
+      <c r="D888" s="3" t="s">
         <v>4320</v>
-      </c>
-      <c r="D888" s="3" t="s">
-        <v>4321</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
@@ -67587,7 +67743,7 @@
         <v>2738</v>
       </c>
       <c r="D889" s="3" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
@@ -67597,6 +67753,12 @@
       <c r="B890" s="4" t="s">
         <v>3973</v>
       </c>
+      <c r="C890" s="2" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D890" s="3" t="s">
+        <v>4324</v>
+      </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
@@ -67605,6 +67767,12 @@
       <c r="B891" s="3" t="s">
         <v>3974</v>
       </c>
+      <c r="C891" s="2" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>4326</v>
+      </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
@@ -67613,11 +67781,23 @@
       <c r="B892" s="2" t="s">
         <v>3975</v>
       </c>
+      <c r="C892" s="2" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D892" s="3" t="s">
+        <v>4328</v>
+      </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>1943</v>
       </c>
+      <c r="C893" s="2" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D893" s="4" t="s">
+        <v>4330</v>
+      </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
@@ -67626,6 +67806,12 @@
       <c r="B894" s="3" t="s">
         <v>3976</v>
       </c>
+      <c r="C894" s="2" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>4332</v>
+      </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
@@ -67634,6 +67820,12 @@
       <c r="B895" s="4" t="s">
         <v>3977</v>
       </c>
+      <c r="C895" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D895" s="3" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
@@ -67642,60 +67834,108 @@
       <c r="B896" s="4" t="s">
         <v>3978</v>
       </c>
-    </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C896" s="2" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
         <v>1947</v>
       </c>
       <c r="B897" s="4" t="s">
         <v>3979</v>
       </c>
-    </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C897" s="2" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D897" s="3" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
         <v>1948</v>
       </c>
       <c r="B898" s="4" t="s">
         <v>3980</v>
       </c>
-    </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C898" s="2" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C899" s="2" t="s">
+        <v>4339</v>
+      </c>
+      <c r="D899" s="3" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C900" s="2" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D900" s="3" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C901" s="2" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D901" s="3" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
         <v>1952</v>
       </c>
       <c r="B902" s="4" t="s">
         <v>3981</v>
       </c>
-    </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C902" s="2" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D902" s="3" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
         <v>1953</v>
       </c>
       <c r="B903" s="4" t="s">
         <v>3982</v>
       </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C903" s="2" t="s">
+        <v>4346</v>
+      </c>
+      <c r="D903" s="3" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
         <v>1954</v>
       </c>
@@ -67703,12 +67943,12 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
         <v>1956</v>
       </c>
@@ -67716,12 +67956,12 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
         <v>1958</v>
       </c>
@@ -67729,12 +67969,12 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
         <v>1960</v>
       </c>
@@ -67742,7 +67982,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>1961</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A31DF-FAC0-4345-B08F-5B6066C9534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C5A89-849F-4E9A-9F59-F7D45980E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14064" yWindow="24" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14124" yWindow="60" windowWidth="10404" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1835</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$1832</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4531" uniqueCount="4348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="4373">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56579,6 +56579,106 @@
   </si>
   <si>
     <t>谣言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>go nowhere fast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫无进展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aisle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast-track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地产经纪人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索赔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结肠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>screening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curbale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可治愈的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colonoscopy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fedcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粪便的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invasive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵入的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结肠镜检查(oscopy…检查)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -56976,8 +57076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C880" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D902" sqref="D902"/>
+    <sheetView tabSelected="1" topLeftCell="C898" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C918" sqref="C918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -56986,7 +57086,7 @@
     <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -67934,6 +68034,12 @@
       <c r="A904" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="C904" s="2" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D904" s="3" t="s">
+        <v>4349</v>
+      </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
@@ -67942,11 +68048,23 @@
       <c r="B905" s="4" t="s">
         <v>3983</v>
       </c>
+      <c r="C905" s="2" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D905" s="3" t="s">
+        <v>4351</v>
+      </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
         <v>1955</v>
       </c>
+      <c r="C906" s="2" t="s">
+        <v>4352</v>
+      </c>
+      <c r="D906" s="3" t="s">
+        <v>4353</v>
+      </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
@@ -67955,11 +68073,23 @@
       <c r="B907" s="4" t="s">
         <v>3984</v>
       </c>
+      <c r="C907" s="2" t="s">
+        <v>4354</v>
+      </c>
+      <c r="D907" s="3" t="s">
+        <v>4355</v>
+      </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
         <v>1957</v>
       </c>
+      <c r="C908" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D908" s="3" t="s">
+        <v>4356</v>
+      </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
@@ -67968,11 +68098,23 @@
       <c r="B909" s="4" t="s">
         <v>3985</v>
       </c>
+      <c r="C909" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D909" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
         <v>1959</v>
       </c>
+      <c r="C910" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>4357</v>
+      </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
@@ -67981,52 +68123,100 @@
       <c r="B911" s="4" t="s">
         <v>3986</v>
       </c>
+      <c r="C911" s="2" t="s">
+        <v>4358</v>
+      </c>
+      <c r="D911" s="3" t="s">
+        <v>4359</v>
+      </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C912" s="2" t="s">
+        <v>4360</v>
+      </c>
+      <c r="D912" s="3" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
         <v>1962</v>
       </c>
       <c r="B913" s="4" t="s">
         <v>3987</v>
       </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C913" s="2" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D913" s="3" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
         <v>1963</v>
       </c>
       <c r="B914" s="4" t="s">
         <v>3988</v>
       </c>
-    </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C914" s="2" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D914" s="3" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="2" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C915" s="2" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D915" s="3" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="2" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C916" s="2" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="2" t="s">
         <v>1967</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>3989</v>
       </c>
-    </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C917" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D917" s="3" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="2" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C918" s="2" t="s">
+        <v>4371</v>
+      </c>
+      <c r="D918" s="3" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="2" t="s">
         <v>1968</v>
       </c>
@@ -68034,7 +68224,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="2" t="s">
         <v>1969</v>
       </c>
@@ -68042,7 +68232,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="2" t="s">
         <v>1970</v>
       </c>
@@ -68050,22 +68240,22 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="2" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="2" t="s">
         <v>1972</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="2" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="2" t="s">
         <v>1974</v>
       </c>
@@ -68073,12 +68263,12 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="2" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
         <v>1976</v>
       </c>
@@ -68086,7 +68276,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
         <v>1977</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F1DBF-51A1-41A8-A1A8-D81FFA5F6034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A95B0B2-F54B-4135-925C-284C0192D249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13176" yWindow="0" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="4388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="4407">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56711,6 +56711,82 @@
   </si>
   <si>
     <t>n.行为;v.处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camouflage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷彩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemotherapy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>premature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过早地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drought</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干旱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starry-eyed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过于理想化的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57108,8 +57184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="C915" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C926" sqref="C926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -57301,7 +57377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>901</v>
       </c>
@@ -57312,7 +57388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>902</v>
       </c>
@@ -57323,7 +57399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>903</v>
       </c>
@@ -57334,7 +57410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>904</v>
       </c>
@@ -57345,7 +57421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>905</v>
       </c>
@@ -57356,7 +57432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>906</v>
       </c>
@@ -57367,7 +57443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>907</v>
       </c>
@@ -57378,7 +57454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>908</v>
       </c>
@@ -57388,11 +57464,8 @@
       <c r="D24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>909</v>
       </c>
@@ -57402,11 +57475,8 @@
       <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>910</v>
       </c>
@@ -57417,7 +57487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>911</v>
       </c>
@@ -57431,7 +57501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>912</v>
       </c>
@@ -57442,7 +57512,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>913</v>
       </c>
@@ -57453,7 +57523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>914</v>
       </c>
@@ -57464,7 +57534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>915</v>
       </c>
@@ -57474,11 +57544,8 @@
       <c r="D31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>916</v>
       </c>
@@ -57489,7 +57556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>917</v>
       </c>
@@ -57500,7 +57567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>918</v>
       </c>
@@ -57511,7 +57578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>680</v>
       </c>
@@ -57522,7 +57589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>681</v>
       </c>
@@ -57532,11 +57599,8 @@
       <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>919</v>
       </c>
@@ -57547,7 +57611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>920</v>
       </c>
@@ -57561,7 +57625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>921</v>
       </c>
@@ -57572,7 +57636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>922</v>
       </c>
@@ -57583,7 +57647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>923</v>
       </c>
@@ -57597,7 +57661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>924</v>
       </c>
@@ -57608,7 +57672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>925</v>
       </c>
@@ -57619,7 +57683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>926</v>
       </c>
@@ -57630,7 +57694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>927</v>
       </c>
@@ -57641,7 +57705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>928</v>
       </c>
@@ -57652,7 +57716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>929</v>
       </c>
@@ -57663,7 +57727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>930</v>
       </c>
@@ -57673,11 +57737,8 @@
       <c r="D48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>931</v>
       </c>
@@ -57688,7 +57749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>932</v>
       </c>
@@ -57698,11 +57759,8 @@
       <c r="D50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>933</v>
       </c>
@@ -57712,11 +57770,8 @@
       <c r="D51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>934</v>
       </c>
@@ -57727,7 +57782,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>935</v>
       </c>
@@ -57738,7 +57793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>936</v>
       </c>
@@ -57749,7 +57804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>937</v>
       </c>
@@ -57760,7 +57815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>938</v>
       </c>
@@ -57771,7 +57826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>939</v>
       </c>
@@ -57782,7 +57837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>940</v>
       </c>
@@ -57793,7 +57848,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>941</v>
       </c>
@@ -57804,7 +57859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>942</v>
       </c>
@@ -57814,11 +57869,8 @@
       <c r="D60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>943</v>
       </c>
@@ -57829,7 +57881,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>944</v>
       </c>
@@ -57843,7 +57895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>945</v>
       </c>
@@ -57854,7 +57906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>946</v>
       </c>
@@ -57864,11 +57916,11 @@
       <c r="D64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>947</v>
       </c>
@@ -57882,7 +57934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>948</v>
       </c>
@@ -57896,7 +57948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>949</v>
       </c>
@@ -57907,7 +57959,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>950</v>
       </c>
@@ -57918,7 +57970,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>951</v>
       </c>
@@ -57932,7 +57984,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>952</v>
       </c>
@@ -57942,11 +57994,11 @@
       <c r="D70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>953</v>
       </c>
@@ -57959,11 +58011,8 @@
       <c r="D71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>954</v>
       </c>
@@ -57974,7 +58023,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>955</v>
       </c>
@@ -57984,11 +58033,8 @@
       <c r="D73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>956</v>
       </c>
@@ -57999,7 +58045,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>957</v>
       </c>
@@ -58010,7 +58056,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>958</v>
       </c>
@@ -58021,7 +58067,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>959</v>
       </c>
@@ -58032,7 +58078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>960</v>
       </c>
@@ -58046,7 +58092,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>961</v>
       </c>
@@ -58056,11 +58102,8 @@
       <c r="D79" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>962</v>
       </c>
@@ -58071,7 +58114,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>963</v>
       </c>
@@ -58082,7 +58125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>964</v>
       </c>
@@ -58093,7 +58136,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>965</v>
       </c>
@@ -58107,7 +58150,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>966</v>
       </c>
@@ -58121,7 +58164,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>967</v>
       </c>
@@ -58135,7 +58178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>968</v>
       </c>
@@ -58146,7 +58189,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>969</v>
       </c>
@@ -58157,7 +58200,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>970</v>
       </c>
@@ -58168,7 +58211,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>971</v>
       </c>
@@ -58182,7 +58225,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>972</v>
       </c>
@@ -58196,7 +58239,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>973</v>
       </c>
@@ -58209,11 +58252,8 @@
       <c r="D91" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>974</v>
       </c>
@@ -58224,7 +58264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>975</v>
       </c>
@@ -58235,7 +58275,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>976</v>
       </c>
@@ -58248,11 +58288,8 @@
       <c r="D94" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="E94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>977</v>
       </c>
@@ -58266,7 +58303,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>978</v>
       </c>
@@ -58280,7 +58317,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>979</v>
       </c>
@@ -58291,7 +58328,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>980</v>
       </c>
@@ -58302,7 +58339,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>981</v>
       </c>
@@ -58313,7 +58350,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>982</v>
       </c>
@@ -58324,7 +58361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>983</v>
       </c>
@@ -58335,7 +58372,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>984</v>
       </c>
@@ -58349,7 +58386,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>985</v>
       </c>
@@ -58362,11 +58399,8 @@
       <c r="D103" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="E103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>986</v>
       </c>
@@ -58377,7 +58411,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>987</v>
       </c>
@@ -58388,7 +58422,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>988</v>
       </c>
@@ -58399,7 +58433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>989</v>
       </c>
@@ -58413,7 +58447,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>990</v>
       </c>
@@ -58424,7 +58458,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>991</v>
       </c>
@@ -58437,11 +58471,11 @@
       <c r="D109" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>352</v>
       </c>
@@ -58454,11 +58488,8 @@
       <c r="D110" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>992</v>
       </c>
@@ -58472,7 +58503,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>993</v>
       </c>
@@ -58521,9 +58552,6 @@
       <c r="D115" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E115" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
@@ -58546,9 +58574,6 @@
       <c r="D117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E117" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -58574,9 +58599,6 @@
       <c r="D119" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E119" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -58602,9 +58624,6 @@
       <c r="D121" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
       <c r="F121" s="1">
         <v>0</v>
       </c>
@@ -58644,7 +58663,7 @@
       <c r="D124" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E124" s="1">
+      <c r="F124" s="1">
         <v>0</v>
       </c>
     </row>
@@ -58691,9 +58710,6 @@
       <c r="D128" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
@@ -58727,12 +58743,6 @@
       <c r="D131" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E131" s="1">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -58747,9 +58757,6 @@
       <c r="D132" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -58764,12 +58771,6 @@
       <c r="D133" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E133" s="1">
-        <v>0</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -58792,7 +58793,7 @@
       <c r="D135" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E135" s="1">
+      <c r="F135" s="1">
         <v>0</v>
       </c>
     </row>
@@ -58806,9 +58807,6 @@
       <c r="D136" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E136" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
@@ -58889,9 +58887,6 @@
       <c r="D143" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
       <c r="F143" s="1">
         <v>0</v>
       </c>
@@ -58910,7 +58905,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>1025</v>
       </c>
@@ -58920,14 +58915,8 @@
       <c r="D145" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E145" s="1">
-        <v>0</v>
-      </c>
-      <c r="F145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>1026</v>
       </c>
@@ -58941,7 +58930,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>1027</v>
       </c>
@@ -58955,7 +58944,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>1028</v>
       </c>
@@ -58966,7 +58955,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>1029</v>
       </c>
@@ -58977,7 +58966,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>1078</v>
       </c>
@@ -58990,14 +58979,8 @@
       <c r="D150" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E150" s="1">
-        <v>0</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>198</v>
       </c>
@@ -59008,7 +58991,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>1079</v>
       </c>
@@ -59019,7 +59002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>1080</v>
       </c>
@@ -59030,7 +59013,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1081</v>
       </c>
@@ -59040,11 +59023,8 @@
       <c r="D154" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>1082</v>
       </c>
@@ -59055,7 +59035,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>1083</v>
       </c>
@@ -59066,7 +59046,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>1084</v>
       </c>
@@ -59076,11 +59056,8 @@
       <c r="D157" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>1085</v>
       </c>
@@ -59090,14 +59067,8 @@
       <c r="D158" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E158" s="1">
-        <v>0</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>1086</v>
       </c>
@@ -59107,11 +59078,8 @@
       <c r="D159" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>1087</v>
       </c>
@@ -59122,7 +59090,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>1088</v>
       </c>
@@ -59136,7 +59104,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>1089</v>
       </c>
@@ -59147,7 +59115,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>1090</v>
       </c>
@@ -59161,7 +59129,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>1091</v>
       </c>
@@ -59175,7 +59143,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>1092</v>
       </c>
@@ -59189,7 +59157,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>1093</v>
       </c>
@@ -59203,7 +59171,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>1094</v>
       </c>
@@ -59214,7 +59182,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>1095</v>
       </c>
@@ -59225,7 +59193,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>1096</v>
       </c>
@@ -59236,7 +59204,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>706</v>
       </c>
@@ -59247,7 +59215,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>1097</v>
       </c>
@@ -59261,7 +59229,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>1098</v>
       </c>
@@ -59274,11 +59242,8 @@
       <c r="D172" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1099</v>
       </c>
@@ -59289,7 +59254,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>1100</v>
       </c>
@@ -59303,7 +59268,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>1101</v>
       </c>
@@ -59317,7 +59282,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>1102</v>
       </c>
@@ -59327,11 +59292,8 @@
       <c r="D176" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>1103</v>
       </c>
@@ -59341,11 +59303,11 @@
       <c r="D177" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E177" s="1">
+      <c r="F177" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>3556</v>
       </c>
@@ -59356,7 +59318,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>1104</v>
       </c>
@@ -59370,7 +59332,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>1105</v>
       </c>
@@ -59384,7 +59346,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>1106</v>
       </c>
@@ -59398,7 +59360,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>1107</v>
       </c>
@@ -59408,11 +59370,8 @@
       <c r="D182" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E182" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>1108</v>
       </c>
@@ -59423,7 +59382,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>1109</v>
       </c>
@@ -59434,7 +59393,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>1110</v>
       </c>
@@ -59448,7 +59407,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>1111</v>
       </c>
@@ -59462,7 +59421,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>1112</v>
       </c>
@@ -59472,11 +59431,8 @@
       <c r="D187" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E187" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>1113</v>
       </c>
@@ -59487,7 +59443,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>1114</v>
       </c>
@@ -59500,11 +59456,11 @@
       <c r="D189" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E189" s="1">
+      <c r="F189" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1115</v>
       </c>
@@ -59515,7 +59471,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>1116</v>
       </c>
@@ -59526,7 +59482,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>1117</v>
       </c>
@@ -59537,7 +59493,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>1118</v>
       </c>
@@ -59548,7 +59504,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>1119</v>
       </c>
@@ -59559,7 +59515,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>1120</v>
       </c>
@@ -59570,7 +59526,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>1121</v>
       </c>
@@ -59581,7 +59537,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>1122</v>
       </c>
@@ -59595,7 +59551,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>1123</v>
       </c>
@@ -59608,14 +59564,8 @@
       <c r="D198" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E198" s="1">
-        <v>0</v>
-      </c>
-      <c r="F198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>1124</v>
       </c>
@@ -59628,14 +59578,8 @@
       <c r="D199" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E199" s="1">
-        <v>0</v>
-      </c>
-      <c r="F199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>1125</v>
       </c>
@@ -59645,11 +59589,8 @@
       <c r="D200" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>1126</v>
       </c>
@@ -59660,7 +59601,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1127</v>
       </c>
@@ -59674,7 +59615,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>1128</v>
       </c>
@@ -59687,11 +59628,8 @@
       <c r="D203" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>1129</v>
       </c>
@@ -59705,7 +59643,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>1130</v>
       </c>
@@ -59716,7 +59654,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>1131</v>
       </c>
@@ -59726,14 +59664,8 @@
       <c r="D206" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E206" s="1">
-        <v>0</v>
-      </c>
-      <c r="F206" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>1132</v>
       </c>
@@ -59747,7 +59679,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>252</v>
       </c>
@@ -59760,11 +59692,8 @@
       <c r="D208" s="4" t="s">
         <v>1558</v>
       </c>
-      <c r="E208" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1133</v>
       </c>
@@ -59778,7 +59707,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>1134</v>
       </c>
@@ -59791,11 +59720,8 @@
       <c r="D210" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E210" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>1135</v>
       </c>
@@ -59805,11 +59731,8 @@
       <c r="D211" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E211" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>1136</v>
       </c>
@@ -59819,11 +59742,8 @@
       <c r="D212" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E212" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>1137</v>
       </c>
@@ -59833,11 +59753,8 @@
       <c r="D213" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="E213" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>1138</v>
       </c>
@@ -59848,7 +59765,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>1139</v>
       </c>
@@ -59859,7 +59776,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1141</v>
       </c>
@@ -59870,7 +59787,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>1140</v>
       </c>
@@ -59881,7 +59798,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>1142</v>
       </c>
@@ -59895,7 +59812,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>1143</v>
       </c>
@@ -59906,7 +59823,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>1144</v>
       </c>
@@ -59920,7 +59837,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>1145</v>
       </c>
@@ -59931,7 +59848,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>1146</v>
       </c>
@@ -59945,7 +59862,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>1147</v>
       </c>
@@ -59956,7 +59873,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>1148</v>
       </c>
@@ -68526,6 +68443,12 @@
       <c r="A926" s="2" t="s">
         <v>1971</v>
       </c>
+      <c r="C926" s="2" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D926" s="3" t="s">
+        <v>4389</v>
+      </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="2" t="s">
@@ -68534,6 +68457,12 @@
       <c r="B927" s="4" t="s">
         <v>3989</v>
       </c>
+      <c r="C927" s="2" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D927" s="3" t="s">
+        <v>4391</v>
+      </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="2" t="s">
@@ -68542,79 +68471,127 @@
       <c r="B928" s="4" t="s">
         <v>3990</v>
       </c>
-    </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C928" s="2" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D928" s="3" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="2" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C929" s="2" t="s">
+        <v>4394</v>
+      </c>
+      <c r="D929" s="3" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="2" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C930" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D930" s="3" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="2" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C931" s="2" t="s">
+        <v>4397</v>
+      </c>
+      <c r="D931" s="3" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="2" t="s">
         <v>1977</v>
       </c>
       <c r="B932" s="4" t="s">
         <v>3991</v>
       </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C932" s="2" t="s">
+        <v>4399</v>
+      </c>
+      <c r="D932" s="3" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="2" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C933" s="2" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D933" s="3" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="2" t="s">
         <v>1979</v>
       </c>
       <c r="B934" s="4" t="s">
         <v>3992</v>
       </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C934" s="2" t="s">
+        <v>4403</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="2" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C935" s="2" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="2" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="2" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="2" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="2" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="2" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="2" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="2" t="s">
         <v>1987</v>
       </c>
@@ -68622,7 +68599,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="2" t="s">
         <v>1988</v>
       </c>
@@ -68630,7 +68607,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="2" t="s">
         <v>1989</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35271392-43A3-4800-8DAB-C12DC73E99DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A647C-83CB-4E41-B569-FD8B598251DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5688" yWindow="36" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6792" yWindow="0" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4611" uniqueCount="4422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="4447">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56875,6 +56875,106 @@
   </si>
   <si>
     <t>emerged responder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salvage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打捞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>move heaven and earth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竭尽全力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reroute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使…改道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marine insruance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海上保险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赔付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cusp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪尖, 尖端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dearth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlod back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖累</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>malfeasance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渎职</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>craze</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set the tone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57272,8 +57372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C920" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C930" sqref="C930"/>
+    <sheetView tabSelected="1" topLeftCell="C936" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C957" sqref="C957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -68750,116 +68850,194 @@
       <c r="B944" s="4" t="s">
         <v>3993</v>
       </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C944" s="2" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D944" s="3" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="2" t="s">
         <v>1989</v>
       </c>
       <c r="B945" s="2" t="s">
         <v>3995</v>
       </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C945" s="2" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D945" s="3" t="s">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="2" t="s">
         <v>1990</v>
       </c>
       <c r="B946" s="2" t="s">
         <v>3996</v>
       </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C946" s="2" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D946" s="3" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="2" t="s">
         <v>1991</v>
       </c>
       <c r="B947" s="4" t="s">
         <v>3997</v>
       </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C947" s="2" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D947" s="3" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="2" t="s">
         <v>1992</v>
       </c>
       <c r="B948" s="4" t="s">
         <v>3998</v>
       </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C948" s="2" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="2" t="s">
         <v>1993</v>
       </c>
       <c r="B949" s="4" t="s">
         <v>3999</v>
       </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C949" s="2" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D949" s="3" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="2" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C950" s="2" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D950" s="3" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="2" t="s">
         <v>1995</v>
       </c>
       <c r="B951" s="4" t="s">
         <v>4000</v>
       </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C951" s="2" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D951" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="2" t="s">
         <v>1996</v>
       </c>
       <c r="B952" s="4" t="s">
         <v>4001</v>
       </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C952" s="2" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="2" t="s">
         <v>1997</v>
       </c>
       <c r="B953" s="4" t="s">
         <v>4002</v>
       </c>
-    </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C953" s="2" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D953" s="3" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="2" t="s">
         <v>1998</v>
       </c>
       <c r="B954" s="4" t="s">
         <v>4003</v>
       </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C954" s="2" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D954" s="3" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="2" t="s">
         <v>1999</v>
       </c>
       <c r="B955" s="4" t="s">
         <v>4004</v>
       </c>
-    </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C955" s="2" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D955" s="3" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="2" t="s">
         <v>2000</v>
       </c>
       <c r="B956" s="4" t="s">
         <v>4005</v>
       </c>
-    </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C956" s="2" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D956" s="3" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="2" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
         <v>2003</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>2004</v>
       </c>
@@ -72108,6 +72286,7 @@
       <c r="A1448" s="2" t="s">
         <v>2783</v>
       </c>
+      <c r="D1448" s="1"/>
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" s="2" t="s">
@@ -72122,7 +72301,6 @@
       <c r="B1450" s="4" t="s">
         <v>2843</v>
       </c>
-      <c r="D1450" s="1"/>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" s="2" t="s">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A647C-83CB-4E41-B569-FD8B598251DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4CB86-25C9-4C08-A142-45C567C214B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="0" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="0" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4637" uniqueCount="4447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="4473">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56975,6 +56975,110 @@
   </si>
   <si>
     <t>坚持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下跌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>established</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已建立声望的,传统的,老牌的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleviate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>looming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迫近的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>famine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥荒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>懊悔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enduring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久的, 经久不衰的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会客厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinematic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>churn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻腾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chatter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲扯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57372,8 +57476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C936" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C957" sqref="C957"/>
+    <sheetView tabSelected="1" topLeftCell="C951" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D963" sqref="D963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -69026,89 +69130,167 @@
       <c r="A957" s="2" t="s">
         <v>2001</v>
       </c>
+      <c r="C957" s="2" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D957" s="3" t="s">
+        <v>4448</v>
+      </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="2" t="s">
         <v>2002</v>
       </c>
+      <c r="C958" s="2" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D958" s="3" t="s">
+        <v>4450</v>
+      </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="2" t="s">
         <v>2003</v>
       </c>
+      <c r="C959" s="2" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D959" s="3" t="s">
+        <v>4452</v>
+      </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="2" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C960" s="2" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D960" s="3" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="2" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C961" s="2" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D961" s="3" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="2" t="s">
         <v>2006</v>
       </c>
       <c r="B962" s="4" t="s">
         <v>4006</v>
       </c>
-    </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C962" s="2" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D962" s="3" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="2" t="s">
         <v>2007</v>
       </c>
       <c r="B963" s="4" t="s">
         <v>4007</v>
       </c>
-    </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C963" s="2" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D963" s="3" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="2" t="s">
         <v>2008</v>
       </c>
       <c r="B964" s="4" t="s">
         <v>4008</v>
       </c>
-    </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C964" s="2" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D964" s="3" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="2" t="s">
         <v>2009</v>
       </c>
       <c r="B965" s="4" t="s">
         <v>4009</v>
       </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C965" s="2" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D965" s="3" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" s="2" t="s">
         <v>2010</v>
       </c>
       <c r="B966" s="4" t="s">
         <v>4010</v>
       </c>
-    </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C966" s="2" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D966" s="3" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="2" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C967" s="2" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D967" s="3" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B968" s="4" t="s">
         <v>4011</v>
       </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C968" s="2" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D968" s="3" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="2" t="s">
         <v>2012</v>
       </c>
       <c r="B969" s="4" t="s">
         <v>4012</v>
       </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C969" s="2" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D969" s="3" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="2" t="s">
         <v>2013</v>
       </c>
@@ -69116,12 +69298,12 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
         <v>2015</v>
       </c>
@@ -69129,22 +69311,22 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
         <v>2019</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4CB86-25C9-4C08-A142-45C567C214B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE8124F-2B5C-4764-B672-80811FEA6B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5592" yWindow="0" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14076" yWindow="84" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="4473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="4499">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57070,15 +57070,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>翻腾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chatter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>闲扯</t>
+    <t>闲扯,传言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻腾,搅动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rattle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aftershock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余震</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>afterwards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后,后来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prelimanary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temblor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震,风暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行星的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blot out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮蔽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peddle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兜售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对冲止损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>millennial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧一代的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperinflation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶性通胀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>planetary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57476,8 +57580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C951" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D963" sqref="D963"/>
+    <sheetView tabSelected="1" topLeftCell="C962" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C970" sqref="C970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -69273,7 +69377,7 @@
         <v>4469</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>4470</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
@@ -69284,10 +69388,10 @@
         <v>4012</v>
       </c>
       <c r="C969" s="2" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D969" s="3" t="s">
         <v>4471</v>
-      </c>
-      <c r="D969" s="3" t="s">
-        <v>4472</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
@@ -69297,11 +69401,23 @@
       <c r="B970" s="4" t="s">
         <v>4055</v>
       </c>
+      <c r="C970" s="2" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D970" s="3" t="s">
+        <v>4474</v>
+      </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="2" t="s">
         <v>2014</v>
       </c>
+      <c r="C971" s="2" t="s">
+        <v>4475</v>
+      </c>
+      <c r="D971" s="3" t="s">
+        <v>4476</v>
+      </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="2" t="s">
@@ -69310,21 +69426,45 @@
       <c r="B972" s="4" t="s">
         <v>4013</v>
       </c>
+      <c r="C972" s="2" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D972" s="3" t="s">
+        <v>4478</v>
+      </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="2" t="s">
         <v>2016</v>
       </c>
+      <c r="C973" s="2" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>4480</v>
+      </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="2" t="s">
         <v>2017</v>
       </c>
+      <c r="C974" s="2" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D974" s="3" t="s">
+        <v>4482</v>
+      </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="2" t="s">
         <v>2018</v>
       </c>
+      <c r="C975" s="2" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D975" s="3" t="s">
+        <v>4484</v>
+      </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="2" t="s">
@@ -69333,53 +69473,95 @@
       <c r="B976" s="4" t="s">
         <v>4014</v>
       </c>
-    </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C976" s="2" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D976" s="3" t="s">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" s="2" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C977" s="2" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" s="2" t="s">
         <v>2021</v>
       </c>
       <c r="B978" s="4" t="s">
         <v>4015</v>
       </c>
-    </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C978" s="2" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D978" s="3" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" s="2" t="s">
         <v>683</v>
       </c>
       <c r="B979" s="4" t="s">
         <v>4016</v>
       </c>
-    </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C979" s="2" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D979" s="3" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" s="2" t="s">
         <v>2022</v>
       </c>
       <c r="B980" s="4" t="s">
         <v>4017</v>
       </c>
-    </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C980" s="2" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D980" s="3" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" s="2" t="s">
         <v>2023</v>
       </c>
       <c r="B981" s="4" t="s">
         <v>4018</v>
       </c>
-    </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C981" s="2" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" s="2" t="s">
         <v>2024</v>
       </c>
       <c r="B982" s="4" t="s">
         <v>4019</v>
       </c>
-    </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C982" s="2" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D982" s="3" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" s="2" t="s">
         <v>2025</v>
       </c>
@@ -69387,22 +69569,22 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
         <v>820</v>
       </c>
@@ -69410,22 +69592,22 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
         <v>2032</v>
       </c>
@@ -69433,7 +69615,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
         <v>2033</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE8124F-2B5C-4764-B672-80811FEA6B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D7EB1C-8D26-4B9A-BD20-5AA65095AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14076" yWindow="84" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="0" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="4499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="4515">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57183,6 +57183,70 @@
   </si>
   <si>
     <t>planetary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>throng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观众</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark the occasion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆祝这一刻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oxide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧化物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loophole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>presecution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迫害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>up the … stakes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高…的赌注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57580,8 +57644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C962" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C970" sqref="C970"/>
+    <sheetView tabSelected="1" topLeftCell="C971" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C992" sqref="C992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -69568,21 +69632,45 @@
       <c r="B983" s="4" t="s">
         <v>4020</v>
       </c>
+      <c r="C983" s="2" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D983" s="3" t="s">
+        <v>4500</v>
+      </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" s="2" t="s">
         <v>2026</v>
       </c>
+      <c r="C984" s="2" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D984" s="3" t="s">
+        <v>4502</v>
+      </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" s="2" t="s">
         <v>2027</v>
       </c>
+      <c r="C985" s="2" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D985" s="3" t="s">
+        <v>4504</v>
+      </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" s="2" t="s">
         <v>2028</v>
       </c>
+      <c r="C986" s="2" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D986" s="3" t="s">
+        <v>4506</v>
+      </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="2" t="s">
@@ -69591,21 +69679,45 @@
       <c r="B987" s="4" t="s">
         <v>4021</v>
       </c>
+      <c r="C987" s="2" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D987" s="3" t="s">
+        <v>4508</v>
+      </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="2" t="s">
         <v>2029</v>
       </c>
+      <c r="C988" s="2" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>4241</v>
+      </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="2" t="s">
         <v>2030</v>
       </c>
+      <c r="C989" s="2" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>4510</v>
+      </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="2" t="s">
         <v>2031</v>
       </c>
+      <c r="C990" s="2" t="s">
+        <v>4511</v>
+      </c>
+      <c r="D990" s="3" t="s">
+        <v>4512</v>
+      </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="2" t="s">
@@ -69614,6 +69726,12 @@
       <c r="B991" s="4" t="s">
         <v>4022</v>
       </c>
+      <c r="C991" s="2" t="s">
+        <v>4513</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>4514</v>
+      </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="2" t="s">
@@ -72645,6 +72763,7 @@
       <c r="A1447" s="2" t="s">
         <v>2782</v>
       </c>
+      <c r="D1447" s="1"/>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" s="2" t="s">
@@ -72656,7 +72775,6 @@
       <c r="A1449" s="2" t="s">
         <v>2784</v>
       </c>
-      <c r="D1449" s="1"/>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" s="2" t="s">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3AAC40-D4F4-403F-97B2-781F0E54F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56677932-9773-41A3-AA6D-D081F462E8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6708" yWindow="12" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11328" yWindow="120" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4727" uniqueCount="4535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="4551">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57298,10 +57298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fxiture</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>常客</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57327,6 +57323,74 @@
   </si>
   <si>
     <t>一步步的,零碎的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homicide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶杀案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workforce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力,员工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lay off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>autonomous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enviable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人羡慕的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit margin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自主的(autonomous vehicles自动驾驶车)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡游</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57724,8 +57788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C984" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1000" sqref="D1000"/>
+    <sheetView tabSelected="1" topLeftCell="C998" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1012" sqref="D1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -69893,10 +69957,10 @@
         <v>4024</v>
       </c>
       <c r="C998" s="2" t="s">
+        <v>4534</v>
+      </c>
+      <c r="D998" s="3" t="s">
         <v>4527</v>
-      </c>
-      <c r="D998" s="3" t="s">
-        <v>4528</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
@@ -69907,10 +69971,10 @@
         <v>4025</v>
       </c>
       <c r="C999" s="2" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D999" s="3" t="s">
         <v>4529</v>
-      </c>
-      <c r="D999" s="3" t="s">
-        <v>4530</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
@@ -69921,10 +69985,10 @@
         <v>4026</v>
       </c>
       <c r="C1000" s="2" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="D1000" s="3" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
@@ -69935,10 +69999,10 @@
         <v>4027</v>
       </c>
       <c r="C1001" s="2" t="s">
+        <v>4531</v>
+      </c>
+      <c r="D1001" s="3" t="s">
         <v>4532</v>
-      </c>
-      <c r="D1001" s="3" t="s">
-        <v>4533</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
@@ -69948,11 +70012,23 @@
       <c r="B1002" s="4" t="s">
         <v>4029</v>
       </c>
+      <c r="C1002" s="2" t="s">
+        <v>4535</v>
+      </c>
+      <c r="D1002" s="3" t="s">
+        <v>4536</v>
+      </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" s="2" t="s">
         <v>2043</v>
       </c>
+      <c r="C1003" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D1003" s="3" t="s">
+        <v>4537</v>
+      </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" s="2" t="s">
@@ -69961,6 +70037,12 @@
       <c r="B1004" s="4" t="s">
         <v>4030</v>
       </c>
+      <c r="C1004" s="2" t="s">
+        <v>4538</v>
+      </c>
+      <c r="D1004" s="3" t="s">
+        <v>4539</v>
+      </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" s="2" t="s">
@@ -69969,6 +70051,12 @@
       <c r="B1005" s="4" t="s">
         <v>4031</v>
       </c>
+      <c r="C1005" s="2" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D1005" s="3" t="s">
+        <v>4541</v>
+      </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" s="2" t="s">
@@ -69977,11 +70065,23 @@
       <c r="B1006" s="4" t="s">
         <v>4032</v>
       </c>
+      <c r="C1006" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="D1006" s="3" t="s">
+        <v>2843</v>
+      </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" s="2" t="s">
         <v>2047</v>
       </c>
+      <c r="C1007" s="2" t="s">
+        <v>4543</v>
+      </c>
+      <c r="D1007" s="3" t="s">
+        <v>4548</v>
+      </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" s="2" t="s">
@@ -69990,21 +70090,39 @@
       <c r="B1008" s="4" t="s">
         <v>4033</v>
       </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1008" s="2" t="s">
+        <v>4544</v>
+      </c>
+      <c r="D1008" s="3" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" s="2" t="s">
         <v>2049</v>
       </c>
       <c r="B1009" s="3" t="s">
         <v>4034</v>
       </c>
-    </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1009" s="2" t="s">
+        <v>4546</v>
+      </c>
+      <c r="D1009" s="3" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="2" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1010" s="2" t="s">
+        <v>4549</v>
+      </c>
+      <c r="D1010" s="3" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="2" t="s">
         <v>2051</v>
       </c>
@@ -70012,7 +70130,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
         <v>2052</v>
       </c>
@@ -70020,17 +70138,17 @@
         <v>4036</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="2" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
         <v>2054</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
         <v>2055</v>
       </c>
@@ -70038,7 +70156,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
         <v>2056</v>
       </c>
@@ -70046,7 +70164,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
         <v>2057</v>
       </c>
@@ -70054,7 +70172,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
         <v>2058</v>
       </c>
@@ -70062,17 +70180,17 @@
         <v>4040</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
         <v>2059</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
         <v>2060</v>
       </c>
     </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
         <v>2061</v>
       </c>
@@ -70080,7 +70198,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
         <v>2110</v>
       </c>
@@ -70088,12 +70206,12 @@
         <v>4064</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" s="2" t="s">
         <v>2112</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56677932-9773-41A3-AA6D-D081F462E8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09184C-A71F-4A35-B005-4E1CA726DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="120" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="12" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="4551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="4572">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57391,6 +57391,89 @@
   </si>
   <si>
     <t>巡游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废料,作废</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过,旅费,通道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>withstand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rearm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新武装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostilities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口头的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步入正轨,有望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>torture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折磨,酷刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gathering</t>
+  </si>
+  <si>
+    <t>聚会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubiquitous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无处不在的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57788,8 +57871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C998" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1012" sqref="D1012"/>
+    <sheetView tabSelected="1" topLeftCell="C1008" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1023" sqref="C1023"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -70129,6 +70212,12 @@
       <c r="B1011" s="4" t="s">
         <v>4035</v>
       </c>
+      <c r="C1011" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1011" s="3" t="s">
+        <v>4551</v>
+      </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="2" t="s">
@@ -70137,16 +70226,34 @@
       <c r="B1012" s="2" t="s">
         <v>4036</v>
       </c>
+      <c r="C1012" s="2" t="s">
+        <v>4552</v>
+      </c>
+      <c r="D1012" s="3" t="s">
+        <v>4553</v>
+      </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="2" t="s">
         <v>2053</v>
       </c>
+      <c r="C1013" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D1013" s="3" t="s">
+        <v>1369</v>
+      </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="2" t="s">
         <v>2054</v>
       </c>
+      <c r="C1014" s="2" t="s">
+        <v>4554</v>
+      </c>
+      <c r="D1014" s="3" t="s">
+        <v>4555</v>
+      </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="2" t="s">
@@ -70155,6 +70262,12 @@
       <c r="B1015" s="4" t="s">
         <v>4037</v>
       </c>
+      <c r="C1015" s="2" t="s">
+        <v>4556</v>
+      </c>
+      <c r="D1015" s="3" t="s">
+        <v>4557</v>
+      </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="2" t="s">
@@ -70163,6 +70276,12 @@
       <c r="B1016" s="4" t="s">
         <v>4038</v>
       </c>
+      <c r="C1016" s="2" t="s">
+        <v>4558</v>
+      </c>
+      <c r="D1016" s="3" t="s">
+        <v>4559</v>
+      </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="2" t="s">
@@ -70171,6 +70290,12 @@
       <c r="B1017" s="4" t="s">
         <v>4039</v>
       </c>
+      <c r="C1017" s="2" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D1017" s="3" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="2" t="s">
@@ -70179,16 +70304,34 @@
       <c r="B1018" s="4" t="s">
         <v>4040</v>
       </c>
+      <c r="C1018" s="2" t="s">
+        <v>4561</v>
+      </c>
+      <c r="D1018" s="3" t="s">
+        <v>4562</v>
+      </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="2" t="s">
         <v>2059</v>
       </c>
+      <c r="C1019" s="2" t="s">
+        <v>4563</v>
+      </c>
+      <c r="D1019" s="3" t="s">
+        <v>4564</v>
+      </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="2" t="s">
         <v>2060</v>
       </c>
+      <c r="C1020" s="2" t="s">
+        <v>4565</v>
+      </c>
+      <c r="D1020" s="3" t="s">
+        <v>4566</v>
+      </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="2" t="s">
@@ -70197,6 +70340,12 @@
       <c r="B1021" s="4" t="s">
         <v>4041</v>
       </c>
+      <c r="C1021" s="2" t="s">
+        <v>4567</v>
+      </c>
+      <c r="D1021" s="3" t="s">
+        <v>4568</v>
+      </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="2" t="s">
@@ -70205,10 +70354,22 @@
       <c r="B1022" s="4" t="s">
         <v>4064</v>
       </c>
+      <c r="C1022" s="2" t="s">
+        <v>4569</v>
+      </c>
+      <c r="D1022" s="3" t="s">
+        <v>4570</v>
+      </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="2" t="s">
         <v>2111</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D1023" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.25">

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD09184C-A71F-4A35-B005-4E1CA726DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F17520-F06D-4CEF-9B73-2B5AF7376A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="12" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6564" yWindow="72" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="4572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="4601">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57446,10 +57446,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>步入正轨,有望</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>torture</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57474,6 +57470,126 @@
   </si>
   <si>
     <t>backing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步入正轨,有望,计划在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discontent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grapple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力应付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alumni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mounting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装;越来越多的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师,(全体)教职工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发, 加剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lodge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noncompete clauses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞业禁止条款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corwn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗帘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull back the curtain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭开面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patriot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱国者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oligarch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寡头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>puppet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57871,8 +57987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1008" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1023" sqref="C1023"/>
+    <sheetView tabSelected="1" topLeftCell="C1018" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1036" sqref="D1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -70319,7 +70435,7 @@
         <v>4563</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>4564</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
@@ -70327,10 +70443,10 @@
         <v>2060</v>
       </c>
       <c r="C1020" s="2" t="s">
+        <v>4564</v>
+      </c>
+      <c r="D1020" s="3" t="s">
         <v>4565</v>
-      </c>
-      <c r="D1020" s="3" t="s">
-        <v>4566</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
@@ -70341,10 +70457,10 @@
         <v>4041</v>
       </c>
       <c r="C1021" s="2" t="s">
+        <v>4566</v>
+      </c>
+      <c r="D1021" s="3" t="s">
         <v>4567</v>
-      </c>
-      <c r="D1021" s="3" t="s">
-        <v>4568</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
@@ -70355,10 +70471,10 @@
         <v>4064</v>
       </c>
       <c r="C1022" s="2" t="s">
+        <v>4568</v>
+      </c>
+      <c r="D1022" s="3" t="s">
         <v>4569</v>
-      </c>
-      <c r="D1022" s="3" t="s">
-        <v>4570</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
@@ -70366,7 +70482,7 @@
         <v>2111</v>
       </c>
       <c r="C1023" s="2" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
       <c r="D1023" s="3" t="s">
         <v>235</v>
@@ -70379,113 +70495,203 @@
       <c r="B1024" s="4" t="s">
         <v>4065</v>
       </c>
-    </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1024" s="2" t="s">
+        <v>4572</v>
+      </c>
+      <c r="D1024" s="3" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" s="2" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1025" s="2" t="s">
+        <v>4574</v>
+      </c>
+      <c r="D1025" s="3" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" s="2" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1026" s="2" t="s">
+        <v>4576</v>
+      </c>
+      <c r="D1026" s="3" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" s="2" t="s">
         <v>2115</v>
       </c>
       <c r="B1027" s="4" t="s">
         <v>4066</v>
       </c>
-    </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1027" s="2" t="s">
+        <v>4578</v>
+      </c>
+      <c r="D1027" s="3" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" s="2" t="s">
         <v>2116</v>
       </c>
       <c r="B1028" s="4" t="s">
         <v>4067</v>
       </c>
-    </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1028" s="2" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D1028" s="3" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" s="2" t="s">
         <v>2117</v>
       </c>
       <c r="B1029" s="4" t="s">
         <v>4069</v>
       </c>
-    </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1029" s="2" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D1029" s="3" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" s="2" t="s">
         <v>2118</v>
       </c>
       <c r="B1030" s="4" t="s">
         <v>4070</v>
       </c>
-    </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1030" s="2" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D1030" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="B1031" s="4" t="s">
         <v>4068</v>
       </c>
-    </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1031" s="2" t="s">
+        <v>4585</v>
+      </c>
+      <c r="D1031" s="3" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" s="2" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1032" s="2" t="s">
+        <v>4587</v>
+      </c>
+      <c r="D1032" s="3" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" s="2" t="s">
         <v>2121</v>
       </c>
       <c r="B1033" s="4" t="s">
         <v>4071</v>
       </c>
-    </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1033" s="2" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D1033" s="3" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" s="2" t="s">
         <v>2122</v>
       </c>
       <c r="B1034" s="4" t="s">
         <v>4072</v>
       </c>
-    </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1034" s="2" t="s">
+        <v>4591</v>
+      </c>
+      <c r="D1034" s="3" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" s="2" t="s">
         <v>2123</v>
       </c>
       <c r="B1035" s="4" t="s">
         <v>4073</v>
       </c>
-    </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1035" s="2" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D1035" s="3" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" s="2" t="s">
         <v>2124</v>
       </c>
       <c r="B1036" s="4" t="s">
         <v>4074</v>
       </c>
-    </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1036" s="2" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" s="2" t="s">
         <v>2125</v>
       </c>
       <c r="B1037" s="3" t="s">
         <v>4075</v>
       </c>
-    </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1037" s="2" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" s="2" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1038" s="2" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" s="2" t="s">
         <v>2127</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
         <v>2128</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F17520-F06D-4CEF-9B73-2B5AF7376A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83183AC-8687-46AF-A207-52522159BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6564" yWindow="72" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6828" yWindow="48" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4801" uniqueCount="4601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4821" uniqueCount="4619">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57590,6 +57590,78 @@
   </si>
   <si>
     <t>傀儡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>album</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>policymarkers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策制定者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stalling out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞不前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励,促使</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>immunity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豁免权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for the ages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切实可行的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织,发动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage coup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动政变</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57987,8 +58059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1018" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1036" sqref="D1036"/>
+    <sheetView tabSelected="1" topLeftCell="C1029" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1039" sqref="C1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -70690,6 +70762,12 @@
       <c r="A1039" s="2" t="s">
         <v>2127</v>
       </c>
+      <c r="C1039" s="2" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>4602</v>
+      </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" s="2" t="s">
@@ -70698,76 +70776,130 @@
       <c r="B1040" s="4" t="s">
         <v>4076</v>
       </c>
-    </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1040" s="2" t="s">
+        <v>4603</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" s="2" t="s">
         <v>2129</v>
       </c>
       <c r="B1041" s="4" t="s">
         <v>4077</v>
       </c>
-    </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1041" s="2" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" s="2" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1042" s="2" t="s">
+        <v>4607</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" s="2" t="s">
         <v>2131</v>
       </c>
       <c r="B1043" s="4" t="s">
         <v>4080</v>
       </c>
-    </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1043" s="2" t="s">
+        <v>4609</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" s="2" t="s">
         <v>2132</v>
       </c>
       <c r="B1044" s="4" t="s">
         <v>4081</v>
       </c>
-    </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1044" s="2" t="s">
+        <v>4611</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1045" s="2" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1045" s="2" t="s">
+        <v>4613</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" s="2" t="s">
         <v>2134</v>
       </c>
       <c r="B1046" s="4" t="s">
         <v>4082</v>
       </c>
-    </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1046" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" s="2" t="s">
         <v>2135</v>
       </c>
       <c r="B1047" s="4" t="s">
         <v>4083</v>
       </c>
-    </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1047" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" s="2" t="s">
         <v>2136</v>
       </c>
       <c r="B1048" s="4" t="s">
         <v>4084</v>
       </c>
-    </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1048" s="2" t="s">
+        <v>4617</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" s="2" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" s="2" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" s="2" t="s">
         <v>2139</v>
       </c>
@@ -70775,27 +70907,27 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" s="2" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" s="2" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" s="2" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" s="2" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1056" s="2" t="s">
         <v>2144</v>
       </c>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83183AC-8687-46AF-A207-52522159BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA448E30-50C8-454C-AB71-322753AE2602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="48" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12552" yWindow="96" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4821" uniqueCount="4619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="4621">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57662,6 +57662,14 @@
   </si>
   <si>
     <t>发动政变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take advange of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -57726,7 +57734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -57749,11 +57757,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD2CECB"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD2CECB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2CECB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2CECB"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD2CECB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2CECB"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD2CECB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD2CECB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2CECB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2CECB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2CECB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD2CECB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2CECB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -57770,6 +57839,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -57778,8 +57865,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD2CECB"/>
       <color rgb="FFE9E7CE"/>
-      <color rgb="FFD2CECB"/>
       <color rgb="FFF4E0AD"/>
     </mruColors>
   </colors>
@@ -58057,10 +58144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1832"/>
+  <dimension ref="A1:Z1832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1029" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1039" sqref="C1039"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -58068,12 +58155,15 @@
     <col min="1" max="1" width="24.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="32.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="2" customWidth="1"/>
+    <col min="7" max="25" width="8.88671875" style="2"/>
+    <col min="26" max="26" width="8.88671875" style="10"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>885</v>
       </c>
@@ -58083,8 +58173,34 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>4619</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4620</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>886</v>
       </c>
@@ -58095,7 +58211,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>887</v>
       </c>
@@ -58106,7 +58222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>888</v>
       </c>
@@ -58117,7 +58233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>889</v>
       </c>
@@ -58128,7 +58244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>890</v>
       </c>
@@ -58139,7 +58255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>891</v>
       </c>
@@ -58150,7 +58266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>892</v>
       </c>
@@ -58161,7 +58277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>893</v>
       </c>
@@ -58175,7 +58291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>894</v>
       </c>
@@ -58186,7 +58302,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>895</v>
       </c>
@@ -58197,7 +58313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>896</v>
       </c>
@@ -58208,7 +58324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>897</v>
       </c>
@@ -58219,7 +58335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>775</v>
       </c>
@@ -58230,7 +58346,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>898</v>
       </c>
@@ -58241,7 +58357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>899</v>
       </c>
@@ -58791,7 +58907,7 @@
       <c r="D64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
@@ -58869,7 +58985,7 @@
       <c r="D70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
@@ -59346,7 +59462,7 @@
       <c r="D109" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>0</v>
       </c>
     </row>
@@ -59499,7 +59615,7 @@
       <c r="D121" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="2">
         <v>0</v>
       </c>
     </row>
@@ -59538,7 +59654,7 @@
       <c r="D124" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="2">
         <v>0</v>
       </c>
     </row>
@@ -59668,7 +59784,7 @@
       <c r="D135" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="2">
         <v>0</v>
       </c>
     </row>
@@ -59762,7 +59878,7 @@
       <c r="D143" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="2">
         <v>0</v>
       </c>
     </row>
@@ -60178,7 +60294,7 @@
       <c r="D177" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="2">
         <v>0</v>
       </c>
     </row>
@@ -60331,7 +60447,7 @@
       <c r="D189" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="2">
         <v>0</v>
       </c>
     </row>

--- a/English/Vocabularies.xlsx
+++ b/English/Vocabularies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepository\LearningNotes\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA448E30-50C8-454C-AB71-322753AE2602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA6007-4F31-4187-AECD-E9D417351FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12552" yWindow="96" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14064" yWindow="60" windowWidth="11172" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="4621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4873" uniqueCount="4668">
   <si>
     <t>货币</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57649,10 +57649,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>切实可行的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>组织,发动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57670,6 +57666,247 @@
   </si>
   <si>
     <t>利用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现实的,切实可行的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>renowned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>著名的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>avid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热衷的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outbound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向外的,出境的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="2" type="noConversion